--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFB4BB-3F08-4BB9-B017-A601E7F942FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A029381-0BA5-4126-92AB-41E552D27003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="params (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="318">
   <si>
     <t>gdp</t>
   </si>
@@ -374,9 +375,6 @@
     <t>millions of 1982-84 dollars</t>
   </si>
   <si>
-    <t>billions of 2012 dollars</t>
-  </si>
-  <si>
     <t>pcepi</t>
   </si>
   <si>
@@ -605,9 +603,6 @@
     <t>stat</t>
   </si>
   <si>
-    <t>display</t>
-  </si>
-  <si>
     <t>weeks</t>
   </si>
   <si>
@@ -704,9 +699,6 @@
     <t>millions of units</t>
   </si>
   <si>
-    <t>billions of dollars</t>
-  </si>
-  <si>
     <t>dollars</t>
   </si>
   <si>
@@ -972,6 +964,33 @@
   </si>
   <si>
     <t>Imports: Imported Services</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>disp2</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>bn of 2012 dollars</t>
+  </si>
+  <si>
+    <t>$billions</t>
+  </si>
+  <si>
+    <t>dispgroup</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1058,327 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1265,25 +1604,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1298,21 +1618,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:L88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="stat" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="display" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N85" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:N85" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,10 +1959,3797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M47" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M54" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M58" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M64" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M65" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M66" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M67" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M68" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M70" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M72" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M73" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M75" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M77" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M83" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N2:N85">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$M2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M85">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$H2 = "q"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"calc"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
+  <dimension ref="A1:M88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1632,13 +5763,13 @@
     <col min="7" max="7" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="11" width="9.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1646,13 +5777,13 @@
         <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>104</v>
@@ -1661,22 +5792,25 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1684,16 +5818,16 @@
         <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>32</v>
@@ -1702,30 +5836,33 @@
         <v>29</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>32</v>
@@ -1734,30 +5871,33 @@
         <v>29</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>32</v>
@@ -1766,30 +5906,33 @@
         <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
@@ -1798,30 +5941,33 @@
         <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>32</v>
@@ -1830,30 +5976,33 @@
         <v>29</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>32</v>
@@ -1862,30 +6011,33 @@
         <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
@@ -1894,30 +6046,33 @@
         <v>29</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>32</v>
@@ -1926,30 +6081,33 @@
         <v>29</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>32</v>
@@ -1958,30 +6116,33 @@
         <v>29</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>32</v>
@@ -1990,30 +6151,33 @@
         <v>29</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>32</v>
@@ -2022,30 +6186,33 @@
         <v>29</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>32</v>
@@ -2054,30 +6221,33 @@
         <v>29</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>32</v>
@@ -2086,30 +6256,33 @@
         <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -2118,30 +6291,33 @@
         <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>32</v>
@@ -2150,30 +6326,33 @@
         <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>32</v>
@@ -2182,30 +6361,33 @@
         <v>29</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>32</v>
@@ -2214,30 +6396,33 @@
         <v>29</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>32</v>
@@ -2246,30 +6431,33 @@
         <v>29</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>32</v>
@@ -2278,30 +6466,33 @@
         <v>29</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>32</v>
@@ -2310,30 +6501,33 @@
         <v>29</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>32</v>
@@ -2342,30 +6536,33 @@
         <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>32</v>
@@ -2374,30 +6571,33 @@
         <v>29</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>32</v>
@@ -2406,30 +6606,33 @@
         <v>29</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>32</v>
@@ -2438,30 +6641,33 @@
         <v>29</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>32</v>
@@ -2470,30 +6676,33 @@
         <v>29</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>32</v>
@@ -2502,30 +6711,33 @@
         <v>29</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>32</v>
@@ -2534,30 +6746,33 @@
         <v>29</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>32</v>
@@ -2566,30 +6781,33 @@
         <v>29</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>32</v>
@@ -2600,28 +6818,31 @@
       <c r="J30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>32</v>
@@ -2632,28 +6853,31 @@
       <c r="J31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>32</v>
@@ -2662,30 +6886,33 @@
         <v>29</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>32</v>
@@ -2694,30 +6921,33 @@
         <v>29</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>32</v>
@@ -2726,30 +6956,33 @@
         <v>29</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>32</v>
@@ -2758,30 +6991,33 @@
         <v>29</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>32</v>
@@ -2790,30 +7026,33 @@
         <v>29</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>32</v>
@@ -2822,30 +7061,33 @@
         <v>29</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>32</v>
@@ -2854,30 +7096,33 @@
         <v>29</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>32</v>
@@ -2886,30 +7131,33 @@
         <v>29</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>32</v>
@@ -2918,30 +7166,33 @@
         <v>29</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>44</v>
@@ -2950,33 +7201,36 @@
         <v>29</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>44</v>
@@ -2985,33 +7239,36 @@
         <v>29</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K42" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>44</v>
@@ -3020,33 +7277,36 @@
         <v>29</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>44</v>
@@ -3055,33 +7315,36 @@
         <v>29</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K44" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>44</v>
@@ -3090,33 +7353,36 @@
         <v>29</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="F46" s="7" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>44</v>
@@ -3125,30 +7391,33 @@
         <v>29</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>44</v>
@@ -3157,33 +7426,36 @@
         <v>29</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K47" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L47" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>44</v>
@@ -3192,30 +7464,33 @@
         <v>29</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>44</v>
@@ -3224,30 +7499,33 @@
         <v>29</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="F50" s="7" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>44</v>
@@ -3258,11 +7536,14 @@
       <c r="J50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>45</v>
       </c>
@@ -3270,10 +7551,10 @@
         <v>74</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>46</v>
@@ -3290,14 +7571,17 @@
       <c r="J51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="5" t="b">
+      <c r="K51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3305,10 +7589,10 @@
         <v>75</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>42</v>
@@ -3325,14 +7609,17 @@
       <c r="J52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="5" t="b">
+      <c r="K52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L52" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -3340,10 +7627,10 @@
         <v>76</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>43</v>
@@ -3360,11 +7647,14 @@
       <c r="J53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
@@ -3372,10 +7662,10 @@
         <v>77</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>33</v>
@@ -3392,14 +7682,17 @@
       <c r="J54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="5" t="b">
+      <c r="K54" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -3407,10 +7700,10 @@
         <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>35</v>
@@ -3427,11 +7720,14 @@
       <c r="J55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K55" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
@@ -3439,10 +7735,10 @@
         <v>80</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>36</v>
@@ -3459,11 +7755,14 @@
       <c r="J56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K56" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -3471,10 +7770,10 @@
         <v>81</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>37</v>
@@ -3491,11 +7790,14 @@
       <c r="J57" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -3503,10 +7805,10 @@
         <v>83</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>33</v>
@@ -3523,14 +7825,17 @@
       <c r="J58" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="5" t="b">
+      <c r="K58" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
@@ -3538,10 +7843,10 @@
         <v>84</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>38</v>
@@ -3558,11 +7863,14 @@
       <c r="J59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3570,10 +7878,10 @@
         <v>85</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>39</v>
@@ -3590,11 +7898,14 @@
       <c r="J60" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>25</v>
       </c>
@@ -3602,10 +7913,10 @@
         <v>86</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>40</v>
@@ -3622,11 +7933,14 @@
       <c r="J61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K61" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -3634,10 +7948,10 @@
         <v>79</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>34</v>
@@ -3654,11 +7968,14 @@
       <c r="J62" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -3666,10 +7983,10 @@
         <v>82</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>41</v>
@@ -3686,11 +8003,14 @@
       <c r="J63" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K63" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>48</v>
       </c>
@@ -3698,16 +8018,16 @@
         <v>87</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>44</v>
@@ -3718,14 +8038,17 @@
       <c r="J64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="5" t="b">
+      <c r="K64" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L64" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L64" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>49</v>
       </c>
@@ -3733,10 +8056,10 @@
         <v>88</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>50</v>
@@ -3753,14 +8076,17 @@
       <c r="J65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="5" t="b">
+      <c r="K65" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L65" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>51</v>
       </c>
@@ -3768,10 +8094,10 @@
         <v>89</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>52</v>
@@ -3788,14 +8114,17 @@
       <c r="J66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="5" t="b">
+      <c r="K66" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L66" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
@@ -3803,10 +8132,10 @@
         <v>90</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>110</v>
@@ -3820,14 +8149,17 @@
       <c r="J67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="5" t="b">
+      <c r="K67" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L67" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -3835,10 +8167,10 @@
         <v>73</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>55</v>
@@ -3855,14 +8187,17 @@
       <c r="J68" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="5" t="b">
+      <c r="K68" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L68" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -3870,16 +8205,16 @@
         <v>91</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>44</v>
@@ -3888,16 +8223,19 @@
         <v>29</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K69" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L69" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L69" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -3905,16 +8243,16 @@
         <v>92</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>59</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>44</v>
@@ -3923,16 +8261,19 @@
         <v>29</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K70" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L70" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L70" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
@@ -3940,16 +8281,16 @@
         <v>93</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>44</v>
@@ -3961,14 +8302,17 @@
         <v>29</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>62</v>
       </c>
@@ -3976,10 +8320,10 @@
         <v>94</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>63</v>
@@ -3996,14 +8340,17 @@
       <c r="J72" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K72" s="5" t="b">
+      <c r="K72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L72" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>64</v>
       </c>
@@ -4011,10 +8358,10 @@
         <v>95</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>65</v>
@@ -4031,14 +8378,17 @@
       <c r="J73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K73" s="5" t="b">
+      <c r="K73" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L73" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
@@ -4046,16 +8396,16 @@
         <v>106</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>44</v>
@@ -4066,14 +8416,17 @@
       <c r="J74" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="5" t="b">
+      <c r="K74" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L74" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L74" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>68</v>
       </c>
@@ -4081,10 +8434,10 @@
         <v>108</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>107</v>
@@ -4099,16 +8452,19 @@
         <v>29</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K75" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L75" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L75" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4116,10 +8472,10 @@
         <v>109</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>70</v>
@@ -4136,14 +8492,17 @@
       <c r="J76" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K76" s="5" t="b">
+      <c r="K76" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L76" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L76" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -4151,16 +8510,16 @@
         <v>97</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>44</v>
@@ -4171,25 +8530,28 @@
       <c r="J77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="5" t="b">
+      <c r="K77" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L77" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L77" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>100</v>
@@ -4204,33 +8566,36 @@
         <v>29</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K78" s="5" t="b">
+        <v>117</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L78" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L78" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="F79" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>44</v>
@@ -4239,27 +8604,30 @@
         <v>29</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>105</v>
@@ -4273,25 +8641,28 @@
       <c r="J80" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K80" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="D81" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>105</v>
@@ -4305,25 +8676,28 @@
       <c r="J81" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L81" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>105</v>
@@ -4337,25 +8711,28 @@
       <c r="J82" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L82" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K82" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>105</v>
@@ -4369,26 +8746,29 @@
       <c r="J83" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K83" s="5" t="b">
+      <c r="K83" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L83" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>105</v>
@@ -4402,26 +8782,29 @@
       <c r="J84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K84" s="5" t="b">
+      <c r="K84" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L84" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>110</v>
@@ -4435,23 +8818,26 @@
       <c r="J85" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K85" s="5" t="b">
+      <c r="K85" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="L85" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>105</v>
@@ -4462,20 +8848,23 @@
       <c r="J86" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="6"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K86" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>105</v>
@@ -4486,20 +8875,23 @@
       <c r="J87" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K87" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>105</v>
@@ -4510,21 +8902,24 @@
       <c r="J88" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L88" s="6"/>
+      <c r="K88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M88" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>$K2=TRUE</formula>
+  <conditionalFormatting sqref="M2:M88">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$L2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K88">
-    <cfRule type="expression" dxfId="15" priority="2">
+  <conditionalFormatting sqref="L2:L88">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4536,7 +8931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="B1:P3"/>
   <sheetViews>
@@ -4617,7 +9012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C702AB-733A-4F06-A26B-F3AA9CF0214F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A029381-0BA5-4126-92AB-41E552D27003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463BB7A-9BB6-407E-B354-2C4ADEE6C361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="355">
   <si>
     <t>gdp</t>
   </si>
@@ -991,6 +991,117 @@
   </si>
   <si>
     <t>d2</t>
+  </si>
+  <si>
+    <t>%5EGSPC</t>
+  </si>
+  <si>
+    <t>%5EVIX</t>
+  </si>
+  <si>
+    <t>snyfed</t>
+  </si>
+  <si>
+    <t>stxfed</t>
+  </si>
+  <si>
+    <t>sphfed</t>
+  </si>
+  <si>
+    <t>Philadelphia Fed: Future Capital Expenditures Survey</t>
+  </si>
+  <si>
+    <t>CEFDFSA066MSFRBPHI</t>
+  </si>
+  <si>
+    <t>Dallas Fed: Current General Business Activity</t>
+  </si>
+  <si>
+    <t>houst</t>
+  </si>
+  <si>
+    <t>Housing Starts</t>
+  </si>
+  <si>
+    <t>HOUST</t>
+  </si>
+  <si>
+    <t>thousands of houses</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>All Employees (Nonfarm)</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>PAYEMS</t>
+  </si>
+  <si>
+    <t>thousands of persons</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>Total Construction Spending</t>
+  </si>
+  <si>
+    <t>Business Sector</t>
+  </si>
+  <si>
+    <t>TTLCONS</t>
+  </si>
+  <si>
+    <t>millions of dollars</t>
+  </si>
+  <si>
+    <t>hsold</t>
+  </si>
+  <si>
+    <t>Houses Sold</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>HSN1F</t>
+  </si>
+  <si>
+    <t>thousands</t>
+  </si>
+  <si>
+    <t>mnodg</t>
+  </si>
+  <si>
+    <t>DGORDER</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>Capacity Utilization: Total Index</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>% of total capacity</t>
+  </si>
+  <si>
+    <t>hpermits</t>
+  </si>
+  <si>
+    <t>New Private Housing Permits</t>
+  </si>
+  <si>
+    <t>PERMIT</t>
+  </si>
+  <si>
+    <t>Manufacturers New Orders: Durable Goods</t>
   </si>
 </sst>
 </file>
@@ -1059,25 +1170,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color theme="9"/>
@@ -1381,6 +1473,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1397,20 +1503,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1545,6 +1637,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1618,45 +1729,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N85" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:N85" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N93" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:N93" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="34"/>
     <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1959,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3825,7 +3936,7 @@
         <v>30</v>
       </c>
       <c r="M42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>170</v>
@@ -3869,7 +3980,7 @@
         <v>30</v>
       </c>
       <c r="M43" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>170</v>
@@ -3913,7 +4024,7 @@
         <v>30</v>
       </c>
       <c r="M44" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>170</v>
@@ -3957,7 +4068,7 @@
         <v>30</v>
       </c>
       <c r="M45" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>170</v>
@@ -4194,7 +4305,7 @@
         <v>182</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>178</v>
@@ -4229,25 +4340,25 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>178</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>44</v>
@@ -4256,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>30</v>
@@ -4268,30 +4379,30 @@
         <v>1</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>178</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>44</v>
@@ -4300,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>30</v>
@@ -4309,33 +4420,33 @@
         <v>311</v>
       </c>
       <c r="M53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>18</v>
+        <v>351</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>178</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>44</v>
@@ -4344,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>30</v>
@@ -4356,18 +4467,18 @@
         <v>1</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>311</v>
@@ -4376,10 +4487,10 @@
         <v>178</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>44</v>
@@ -4388,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>30</v>
@@ -4397,21 +4508,21 @@
         <v>311</v>
       </c>
       <c r="M55" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>311</v>
@@ -4420,10 +4531,10 @@
         <v>178</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>36</v>
+        <v>349</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>44</v>
@@ -4432,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>30</v>
@@ -4441,21 +4552,21 @@
         <v>311</v>
       </c>
       <c r="M56" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>311</v>
@@ -4464,10 +4575,10 @@
         <v>178</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>37</v>
+        <v>338</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>44</v>
@@ -4476,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>30</v>
@@ -4485,18 +4596,18 @@
         <v>311</v>
       </c>
       <c r="M57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>183</v>
@@ -4508,7 +4619,7 @@
         <v>178</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>105</v>
@@ -4537,10 +4648,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>183</v>
@@ -4552,7 +4663,7 @@
         <v>178</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>105</v>
@@ -4581,10 +4692,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>183</v>
@@ -4596,7 +4707,7 @@
         <v>178</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>105</v>
@@ -4617,7 +4728,7 @@
         <v>311</v>
       </c>
       <c r="M60" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>190</v>
@@ -4625,10 +4736,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>183</v>
@@ -4640,7 +4751,7 @@
         <v>178</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>105</v>
@@ -4669,10 +4780,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>183</v>
@@ -4684,7 +4795,7 @@
         <v>178</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>105</v>
@@ -4713,10 +4824,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>183</v>
@@ -4728,7 +4839,7 @@
         <v>178</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>105</v>
@@ -4757,13 +4868,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>311</v>
@@ -4772,10 +4883,10 @@
         <v>178</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>44</v>
@@ -4796,18 +4907,18 @@
         <v>1</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>311</v>
@@ -4816,7 +4927,7 @@
         <v>178</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>105</v>
@@ -4828,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>30</v>
@@ -4837,21 +4948,21 @@
         <v>311</v>
       </c>
       <c r="M65" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>311</v>
@@ -4860,10 +4971,10 @@
         <v>178</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>44</v>
@@ -4881,30 +4992,33 @@
         <v>311</v>
       </c>
       <c r="M66" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>275</v>
+        <v>178</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>44</v>
@@ -4913,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>30</v>
@@ -4922,21 +5036,21 @@
         <v>311</v>
       </c>
       <c r="M67" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>311</v>
@@ -4945,10 +5059,10 @@
         <v>178</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>44</v>
@@ -4966,21 +5080,21 @@
         <v>311</v>
       </c>
       <c r="M68" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>311</v>
@@ -4989,10 +5103,10 @@
         <v>178</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>44</v>
@@ -5001,27 +5115,27 @@
         <v>0</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M69" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>184</v>
@@ -5033,10 +5147,10 @@
         <v>178</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>44</v>
@@ -5045,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>311</v>
@@ -5062,13 +5176,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>311</v>
@@ -5077,28 +5191,28 @@
         <v>178</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M71" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M71" s="6" t="b">
-        <v>0</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>170</v>
@@ -5106,13 +5220,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>94</v>
+        <v>331</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>311</v>
@@ -5121,10 +5235,10 @@
         <v>178</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>44</v>
@@ -5133,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>30</v>
@@ -5150,13 +5264,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>311</v>
@@ -5165,7 +5279,7 @@
         <v>178</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>110</v>
@@ -5194,25 +5308,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>44</v>
@@ -5221,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>30</v>
@@ -5238,25 +5352,25 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>44</v>
@@ -5265,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>311</v>
@@ -5282,13 +5396,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>311</v>
@@ -5297,10 +5411,10 @@
         <v>178</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>44</v>
@@ -5309,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>311</v>
@@ -5326,10 +5440,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>184</v>
@@ -5341,10 +5455,10 @@
         <v>178</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>44</v>
@@ -5353,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>311</v>
@@ -5370,13 +5484,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>311</v>
@@ -5385,16 +5499,16 @@
         <v>178</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I78" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>29</v>
@@ -5405,8 +5519,8 @@
       <c r="L78" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M78" s="5" t="b">
-        <v>1</v>
+      <c r="M78" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>170</v>
@@ -5414,13 +5528,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>311</v>
@@ -5429,10 +5543,10 @@
         <v>178</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>44</v>
@@ -5441,16 +5555,16 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L79" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M79" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>170</v>
@@ -5458,10 +5572,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>261</v>
@@ -5473,13 +5587,13 @@
         <v>178</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I80" s="6" t="b">
         <v>0</v>
@@ -5494,21 +5608,21 @@
         <v>311</v>
       </c>
       <c r="M80" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>311</v>
@@ -5517,13 +5631,13 @@
         <v>178</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I81" s="6" t="b">
         <v>0</v>
@@ -5538,21 +5652,21 @@
         <v>311</v>
       </c>
       <c r="M81" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>311</v>
@@ -5561,42 +5675,42 @@
         <v>178</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I82" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M82" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>311</v>
@@ -5605,10 +5719,10 @@
         <v>178</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>44</v>
@@ -5634,13 +5748,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>280</v>
+        <v>97</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>311</v>
@@ -5649,10 +5763,10 @@
         <v>178</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>44</v>
@@ -5678,10 +5792,10 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>181</v>
@@ -5693,7 +5807,7 @@
         <v>178</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>110</v>
@@ -5705,10 +5819,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>311</v>
@@ -5720,19 +5834,371 @@
         <v>170</v>
       </c>
     </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M89" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I90" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M91" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M93" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N85">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="N2:N93">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M85">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="M2:M93">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8909,17 +9375,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$L2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463BB7A-9BB6-407E-B354-2C4ADEE6C361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C3CAB-D32B-436E-979F-A85516F0190C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="361">
   <si>
     <t>gdp</t>
   </si>
@@ -1102,6 +1102,24 @@
   </si>
   <si>
     <t>Manufacturers New Orders: Durable Goods</t>
+  </si>
+  <si>
+    <t>jolts</t>
+  </si>
+  <si>
+    <t>Job Openings: Total Nonfarm</t>
+  </si>
+  <si>
+    <t>JTSJOL</t>
+  </si>
+  <si>
+    <t>joltshires</t>
+  </si>
+  <si>
+    <t>Hires: Total Nonfarm</t>
+  </si>
+  <si>
+    <t>JTSHIL</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N93" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:N93" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N95" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:N95" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="34"/>
     <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="33"/>
@@ -2070,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5264,13 +5282,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>311</v>
@@ -5279,10 +5297,10 @@
         <v>178</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>52</v>
+        <v>357</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>44</v>
@@ -5291,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>30</v>
@@ -5308,25 +5326,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>358</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>44</v>
@@ -5335,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>30</v>
@@ -5352,22 +5370,22 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>110</v>
@@ -5396,25 +5414,25 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>44</v>
@@ -5426,7 +5444,7 @@
         <v>29</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>311</v>
@@ -5440,25 +5458,25 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>44</v>
@@ -5467,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>311</v>
@@ -5484,10 +5502,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>182</v>
@@ -5499,28 +5517,28 @@
         <v>178</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M78" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M78" s="6" t="b">
-        <v>0</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>170</v>
@@ -5528,13 +5546,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>311</v>
@@ -5543,10 +5561,10 @@
         <v>178</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>44</v>
@@ -5555,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L79" s="6" t="s">
         <v>311</v>
@@ -5572,13 +5590,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>311</v>
@@ -5587,28 +5605,28 @@
         <v>178</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I80" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M80" s="5" t="b">
-        <v>1</v>
+      <c r="M80" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>170</v>
@@ -5616,13 +5634,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>311</v>
@@ -5631,10 +5649,10 @@
         <v>178</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>44</v>
@@ -5660,13 +5678,13 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>311</v>
@@ -5675,10 +5693,10 @@
         <v>178</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>44</v>
@@ -5687,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L82" s="6" t="s">
         <v>311</v>
@@ -5704,10 +5722,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>278</v>
@@ -5719,10 +5737,10 @@
         <v>178</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>44</v>
@@ -5748,10 +5766,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>184</v>
@@ -5763,10 +5781,10 @@
         <v>178</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>44</v>
@@ -5775,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L84" s="6" t="s">
         <v>311</v>
@@ -5792,13 +5810,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>311</v>
@@ -5807,7 +5825,7 @@
         <v>178</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>110</v>
@@ -5819,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>311</v>
@@ -5836,13 +5854,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>311</v>
@@ -5851,10 +5869,10 @@
         <v>178</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>44</v>
@@ -5863,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L86" s="6" t="s">
         <v>311</v>
@@ -5880,13 +5898,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>311</v>
@@ -5895,42 +5913,42 @@
         <v>178</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L87" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M87" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>311</v>
@@ -5939,39 +5957,39 @@
         <v>178</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L88" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M88" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>261</v>
@@ -5983,7 +6001,7 @@
         <v>178</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>105</v>
@@ -6012,13 +6030,13 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>311</v>
@@ -6027,13 +6045,13 @@
         <v>178</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I90" s="6" t="b">
         <v>0</v>
@@ -6048,21 +6066,21 @@
         <v>311</v>
       </c>
       <c r="M90" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>311</v>
@@ -6071,13 +6089,13 @@
         <v>178</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I91" s="6" t="b">
         <v>0</v>
@@ -6092,18 +6110,18 @@
         <v>311</v>
       </c>
       <c r="M91" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>265</v>
@@ -6115,7 +6133,7 @@
         <v>178</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>110</v>
@@ -6144,13 +6162,13 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>311</v>
@@ -6159,7 +6177,7 @@
         <v>178</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>110</v>
@@ -6186,13 +6204,101 @@
         <v>170</v>
       </c>
     </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M94" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N93">
+  <conditionalFormatting sqref="N2:N95">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M93">
+  <conditionalFormatting sqref="M2:M95">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C3CAB-D32B-436E-979F-A85516F0190C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837DE5D1-F9C5-43A0-8251-67A51A6EE41F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="371">
   <si>
     <t>gdp</t>
   </si>
@@ -1120,6 +1120,36 @@
   </si>
   <si>
     <t>JTSHIL</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>Crude Oil Price (West Texas Intermediate)</t>
+  </si>
+  <si>
+    <t>DCOILWTICO</t>
+  </si>
+  <si>
+    <t>dollars per barrel</t>
+  </si>
+  <si>
+    <t>baa</t>
+  </si>
+  <si>
+    <t>Baa Corporate Bond Yield</t>
+  </si>
+  <si>
+    <t>DBAA</t>
+  </si>
+  <si>
+    <t>lfpr</t>
+  </si>
+  <si>
+    <t>Labor Force Participation Rate</t>
+  </si>
+  <si>
+    <t>CIVPART</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1217,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="9"/>
@@ -1747,45 +1791,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N95" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:N95" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N98" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:N98" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2088,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5274,7 +5318,7 @@
         <v>311</v>
       </c>
       <c r="M72" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>170</v>
@@ -5318,7 +5362,7 @@
         <v>311</v>
       </c>
       <c r="M73" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>170</v>
@@ -5502,13 +5546,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>311</v>
@@ -5517,10 +5561,10 @@
         <v>178</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>57</v>
+        <v>363</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>44</v>
@@ -5529,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>311</v>
@@ -5546,13 +5590,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>311</v>
@@ -5561,7 +5605,7 @@
         <v>178</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>313</v>
@@ -5590,13 +5634,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>311</v>
@@ -5605,28 +5649,28 @@
         <v>178</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M80" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M80" s="6" t="b">
-        <v>0</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>170</v>
@@ -5634,13 +5678,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>311</v>
@@ -5649,28 +5693,28 @@
         <v>178</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I81" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M81" s="5" t="b">
-        <v>1</v>
+      <c r="M81" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="N81" s="6" t="s">
         <v>170</v>
@@ -5678,10 +5722,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>261</v>
@@ -5693,7 +5737,7 @@
         <v>178</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>110</v>
@@ -5722,13 +5766,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>311</v>
@@ -5737,10 +5781,10 @@
         <v>178</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>44</v>
@@ -5766,13 +5810,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>311</v>
@@ -5781,10 +5825,10 @@
         <v>178</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>44</v>
@@ -5793,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L84" s="6" t="s">
         <v>311</v>
@@ -5810,13 +5854,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>311</v>
@@ -5825,10 +5869,10 @@
         <v>178</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>44</v>
@@ -5837,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L85" s="6" t="s">
         <v>311</v>
@@ -5854,13 +5898,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>311</v>
@@ -5869,10 +5913,10 @@
         <v>178</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>44</v>
@@ -5898,13 +5942,13 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>311</v>
@@ -5913,10 +5957,10 @@
         <v>178</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>44</v>
@@ -5925,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="L87" s="6" t="s">
         <v>311</v>
@@ -5942,13 +5986,13 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>311</v>
@@ -5957,10 +6001,10 @@
         <v>178</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>44</v>
@@ -5986,13 +6030,13 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>311</v>
@@ -6001,39 +6045,39 @@
         <v>178</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L89" s="6" t="s">
         <v>311</v>
       </c>
       <c r="M89" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>261</v>
@@ -6045,7 +6089,7 @@
         <v>178</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>105</v>
@@ -6074,10 +6118,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>261</v>
@@ -6089,7 +6133,7 @@
         <v>178</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>105</v>
@@ -6118,13 +6162,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>311</v>
@@ -6133,13 +6177,13 @@
         <v>178</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I92" s="6" t="b">
         <v>0</v>
@@ -6154,18 +6198,18 @@
         <v>311</v>
       </c>
       <c r="M92" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>265</v>
@@ -6177,7 +6221,7 @@
         <v>178</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>110</v>
@@ -6206,10 +6250,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>265</v>
@@ -6221,7 +6265,7 @@
         <v>178</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>110</v>
@@ -6250,13 +6294,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>311</v>
@@ -6265,7 +6309,7 @@
         <v>178</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>110</v>
@@ -6292,19 +6336,151 @@
         <v>170</v>
       </c>
     </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M97" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M98" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N95">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="N2:N98">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M95">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="M2:M98">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9481,17 +9657,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$L2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$G2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF713D5A-0567-46DC-AA73-C8351F01254F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93DED7-C574-4B60-8F2A-C90DDF4BF66F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5010" yWindow="2175" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
-    <sheet name="params (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="baseline-variables" sheetId="5" r:id="rId2"/>
+    <sheet name="baseline-forecasts" sheetId="3" r:id="rId3"/>
+    <sheet name="etc" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="422">
   <si>
     <t>gdp</t>
   </si>
@@ -204,9 +204,6 @@
     <t>vix</t>
   </si>
   <si>
-    <t>VIXCLS</t>
-  </si>
-  <si>
     <t>loansre</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>Vehicle Sales</t>
   </si>
   <si>
-    <t>Unemployment rate</t>
-  </si>
-  <si>
     <t>Weekly Economic Index</t>
   </si>
   <si>
@@ -552,24 +546,6 @@
     <t>dfm.m</t>
   </si>
   <si>
-    <t>dns1</t>
-  </si>
-  <si>
-    <t>dns2</t>
-  </si>
-  <si>
-    <t>dns3</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 1</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 2</t>
-  </si>
-  <si>
-    <t>Dynamic Nelson Siegel Factor 3</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -843,12 +819,6 @@
     <t>GACDISA066MSFRBNY</t>
   </si>
   <si>
-    <t>sny</t>
-  </si>
-  <si>
-    <t>stx</t>
-  </si>
-  <si>
     <t>BACTSAMFRBDAL</t>
   </si>
   <si>
@@ -879,9 +849,6 @@
     <t>CFNAI</t>
   </si>
   <si>
-    <t>Current General Business Activity, Diffusion Index for Texas</t>
-  </si>
-  <si>
     <t>Government Spending</t>
   </si>
   <si>
@@ -1150,6 +1117,192 @@
   </si>
   <si>
     <t>flat</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>mort15y</t>
+  </si>
+  <si>
+    <t>mort30y</t>
+  </si>
+  <si>
+    <t>hstarts</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>10-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>30-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>5-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>2-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>1-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>6-Month Treasury Yield</t>
+  </si>
+  <si>
+    <t>3-Month Treasury Yield</t>
+  </si>
+  <si>
+    <t>1-Month Treasury Yield</t>
+  </si>
+  <si>
+    <t>20-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>7-Year Treasury Yield</t>
+  </si>
+  <si>
+    <t>Mortgage 15-Year</t>
+  </si>
+  <si>
+    <t>Mortgage 30-Year</t>
+  </si>
+  <si>
+    <t>5/1-Year Mortgage Rate</t>
+  </si>
+  <si>
+    <t>CPI-U</t>
+  </si>
+  <si>
+    <t>A191RL1Q225SBEA</t>
+  </si>
+  <si>
+    <t>DGS1</t>
+  </si>
+  <si>
+    <t>MORTGAGE15US</t>
+  </si>
+  <si>
+    <t>MORTGAGE30US</t>
+  </si>
+  <si>
+    <t>MORTGAGE5US</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>forecasters</t>
+  </si>
+  <si>
+    <t>Housint</t>
+  </si>
+  <si>
+    <t>fcname</t>
+  </si>
+  <si>
+    <t>shortname</t>
+  </si>
+  <si>
+    <t>atl</t>
+  </si>
+  <si>
+    <t>Atlanta Fed GDPNow</t>
+  </si>
+  <si>
+    <t>GDPNow</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>St. Louis Fed Economic News Index</t>
+  </si>
+  <si>
+    <t>St. Louis Fed</t>
+  </si>
+  <si>
+    <t>nyf</t>
+  </si>
+  <si>
+    <t>New York Fed Staff Nowcast</t>
+  </si>
+  <si>
+    <t>New York Fed</t>
+  </si>
+  <si>
+    <t>spf</t>
+  </si>
+  <si>
+    <t>Philadelphia Fed Survey of Professional Forecasters</t>
+  </si>
+  <si>
+    <t>Survey of Forecasters</t>
+  </si>
+  <si>
+    <t>wsj</t>
+  </si>
+  <si>
+    <t>Wall Street Journal Consensus Survey</t>
+  </si>
+  <si>
+    <t>Wall Street Journal</t>
+  </si>
+  <si>
+    <t>wfc</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>fnm</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>gsu</t>
+  </si>
+  <si>
+    <t>Georgia State University</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>cbo</t>
+  </si>
+  <si>
+    <t>Congressional Budget Office</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>cme</t>
+  </si>
+  <si>
+    <t>CMEFI Consensus Interest Rate Model</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>mrt</t>
+  </si>
+  <si>
+    <t>cle</t>
+  </si>
+  <si>
+    <t>CMEFI Consensus Inflations Market</t>
+  </si>
+  <si>
+    <t>mort5y</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1371,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="36">
     <dxf>
       <font>
         <color theme="9"/>
@@ -1256,25 +1409,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1778,45 +1912,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="dfminput" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D4ABD328-708F-41CD-A15C-D1F52F9E510D}" name="nowcast" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:L88" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:L88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="forecasters" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2121,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2148,43 +2281,43 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2192,22 +2325,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>32</v>
@@ -2219,7 +2352,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>30</v>
@@ -2228,30 +2361,30 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>32</v>
@@ -2263,7 +2396,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>30</v>
@@ -2272,30 +2405,30 @@
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>32</v>
@@ -2307,7 +2440,7 @@
         <v>29</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>30</v>
@@ -2316,30 +2449,30 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>32</v>
@@ -2351,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>30</v>
@@ -2360,30 +2493,30 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>32</v>
@@ -2395,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>30</v>
@@ -2404,30 +2537,30 @@
         <v>0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>32</v>
@@ -2439,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>30</v>
@@ -2448,30 +2581,30 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>32</v>
@@ -2483,7 +2616,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>30</v>
@@ -2492,30 +2625,30 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>32</v>
@@ -2527,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>30</v>
@@ -2536,30 +2669,30 @@
         <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>32</v>
@@ -2571,7 +2704,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>30</v>
@@ -2580,30 +2713,30 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>32</v>
@@ -2615,7 +2748,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>30</v>
@@ -2624,30 +2757,30 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
@@ -2659,7 +2792,7 @@
         <v>29</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>30</v>
@@ -2668,30 +2801,30 @@
         <v>0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>32</v>
@@ -2703,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>30</v>
@@ -2712,30 +2845,30 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>32</v>
@@ -2747,7 +2880,7 @@
         <v>29</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>30</v>
@@ -2756,30 +2889,30 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>32</v>
@@ -2791,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>30</v>
@@ -2800,30 +2933,30 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>32</v>
@@ -2835,7 +2968,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>30</v>
@@ -2844,30 +2977,30 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>32</v>
@@ -2879,7 +3012,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>30</v>
@@ -2888,30 +3021,30 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>32</v>
@@ -2923,7 +3056,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>30</v>
@@ -2932,30 +3065,30 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>32</v>
@@ -2967,7 +3100,7 @@
         <v>29</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>30</v>
@@ -2976,30 +3109,30 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>32</v>
@@ -3011,7 +3144,7 @@
         <v>29</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>30</v>
@@ -3020,30 +3153,30 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>32</v>
@@ -3055,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>30</v>
@@ -3064,30 +3197,30 @@
         <v>0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>32</v>
@@ -3099,7 +3232,7 @@
         <v>29</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>30</v>
@@ -3108,30 +3241,30 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>32</v>
@@ -3143,7 +3276,7 @@
         <v>29</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>30</v>
@@ -3152,30 +3285,30 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>32</v>
@@ -3187,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>30</v>
@@ -3196,30 +3329,30 @@
         <v>0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>32</v>
@@ -3231,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>30</v>
@@ -3240,30 +3373,30 @@
         <v>0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>32</v>
@@ -3275,7 +3408,7 @@
         <v>29</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>30</v>
@@ -3284,30 +3417,30 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>32</v>
@@ -3319,7 +3452,7 @@
         <v>29</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>30</v>
@@ -3328,30 +3461,30 @@
         <v>0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>32</v>
@@ -3363,7 +3496,7 @@
         <v>29</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>30</v>
@@ -3372,30 +3505,30 @@
         <v>0</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>32</v>
@@ -3407,7 +3540,7 @@
         <v>29</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>30</v>
@@ -3416,30 +3549,30 @@
         <v>0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>32</v>
@@ -3460,30 +3593,30 @@
         <v>0</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>32</v>
@@ -3504,30 +3637,30 @@
         <v>0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>32</v>
@@ -3539,7 +3672,7 @@
         <v>29</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>30</v>
@@ -3548,30 +3681,30 @@
         <v>0</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>32</v>
@@ -3583,7 +3716,7 @@
         <v>29</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>30</v>
@@ -3592,30 +3725,30 @@
         <v>0</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>32</v>
@@ -3627,7 +3760,7 @@
         <v>29</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>30</v>
@@ -3636,30 +3769,30 @@
         <v>0</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>32</v>
@@ -3671,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>30</v>
@@ -3680,30 +3813,30 @@
         <v>0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>32</v>
@@ -3715,7 +3848,7 @@
         <v>29</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>30</v>
@@ -3724,30 +3857,30 @@
         <v>0</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>32</v>
@@ -3759,7 +3892,7 @@
         <v>29</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>30</v>
@@ -3768,30 +3901,30 @@
         <v>0</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>32</v>
@@ -3803,7 +3936,7 @@
         <v>29</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>30</v>
@@ -3812,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>32</v>
@@ -3847,7 +3980,7 @@
         <v>29</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>30</v>
@@ -3856,30 +3989,30 @@
         <v>0</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>32</v>
@@ -3891,7 +4024,7 @@
         <v>29</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>30</v>
@@ -3900,30 +4033,30 @@
         <v>0</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>44</v>
@@ -3935,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>30</v>
@@ -3944,30 +4077,30 @@
         <v>1</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>44</v>
@@ -3979,7 +4112,7 @@
         <v>29</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>30</v>
@@ -3988,30 +4121,30 @@
         <v>0</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>44</v>
@@ -4023,7 +4156,7 @@
         <v>29</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>30</v>
@@ -4032,30 +4165,30 @@
         <v>0</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>44</v>
@@ -4067,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>30</v>
@@ -4076,30 +4209,30 @@
         <v>0</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>44</v>
@@ -4111,7 +4244,7 @@
         <v>29</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>30</v>
@@ -4120,30 +4253,30 @@
         <v>0</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>44</v>
@@ -4155,39 +4288,39 @@
         <v>29</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M46" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>44</v>
@@ -4199,39 +4332,39 @@
         <v>29</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M47" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>44</v>
@@ -4243,39 +4376,39 @@
         <v>29</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M48" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>44</v>
@@ -4287,39 +4420,39 @@
         <v>29</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M49" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>44</v>
@@ -4334,13 +4467,13 @@
         <v>30</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M50" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4348,22 +4481,22 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>44</v>
@@ -4378,36 +4511,36 @@
         <v>30</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M51" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>44</v>
@@ -4422,36 +4555,36 @@
         <v>30</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M52" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>44</v>
@@ -4466,36 +4599,36 @@
         <v>30</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M53" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="G54" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>44</v>
@@ -4510,36 +4643,36 @@
         <v>30</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M54" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>44</v>
@@ -4554,36 +4687,36 @@
         <v>30</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M55" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>44</v>
@@ -4598,36 +4731,36 @@
         <v>30</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M56" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>44</v>
@@ -4642,13 +4775,13 @@
         <v>30</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M57" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -4656,22 +4789,22 @@
         <v>16</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>44</v>
@@ -4686,13 +4819,13 @@
         <v>30</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M58" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4700,22 +4833,22 @@
         <v>17</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>44</v>
@@ -4730,13 +4863,13 @@
         <v>30</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M59" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4744,22 +4877,22 @@
         <v>18</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>44</v>
@@ -4774,13 +4907,13 @@
         <v>30</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M60" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4788,22 +4921,22 @@
         <v>19</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>44</v>
@@ -4818,13 +4951,13 @@
         <v>30</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M61" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4832,22 +4965,22 @@
         <v>20</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>44</v>
@@ -4862,13 +4995,13 @@
         <v>30</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4876,22 +5009,22 @@
         <v>21</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>44</v>
@@ -4906,13 +5039,13 @@
         <v>30</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4920,22 +5053,22 @@
         <v>22</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>44</v>
@@ -4950,13 +5083,13 @@
         <v>30</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M64" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4964,22 +5097,22 @@
         <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>44</v>
@@ -4994,13 +5127,13 @@
         <v>30</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -5008,22 +5141,22 @@
         <v>24</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>44</v>
@@ -5038,13 +5171,13 @@
         <v>30</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M66" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5052,22 +5185,22 @@
         <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>44</v>
@@ -5082,13 +5215,13 @@
         <v>30</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5096,22 +5229,22 @@
         <v>26</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>44</v>
@@ -5126,13 +5259,13 @@
         <v>30</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M68" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5140,22 +5273,22 @@
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>44</v>
@@ -5170,13 +5303,13 @@
         <v>30</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M69" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -5184,22 +5317,22 @@
         <v>48</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>44</v>
@@ -5214,13 +5347,13 @@
         <v>30</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M70" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -5228,22 +5361,22 @@
         <v>49</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>44</v>
@@ -5258,36 +5391,36 @@
         <v>30</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M71" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>44</v>
@@ -5302,36 +5435,36 @@
         <v>30</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M72" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>44</v>
@@ -5346,13 +5479,13 @@
         <v>30</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M73" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -5360,22 +5493,22 @@
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>44</v>
@@ -5390,13 +5523,13 @@
         <v>30</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M74" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -5404,22 +5537,22 @@
         <v>53</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>44</v>
@@ -5434,13 +5567,13 @@
         <v>30</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M75" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -5448,22 +5581,22 @@
         <v>54</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>44</v>
@@ -5478,36 +5611,36 @@
         <v>30</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M76" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>44</v>
@@ -5522,36 +5655,36 @@
         <v>30</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M77" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="G78" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>44</v>
@@ -5563,39 +5696,39 @@
         <v>29</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M78" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="G79" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>44</v>
@@ -5607,39 +5740,39 @@
         <v>29</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M79" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="G80" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>44</v>
@@ -5651,39 +5784,39 @@
         <v>29</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M80" s="5" t="b">
         <v>0</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G81" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>44</v>
@@ -5698,36 +5831,36 @@
         <v>30</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M81" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G82" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>44</v>
@@ -5742,36 +5875,36 @@
         <v>30</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M82" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G83" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>44</v>
@@ -5786,36 +5919,36 @@
         <v>30</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M83" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>44</v>
@@ -5827,39 +5960,39 @@
         <v>29</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M84" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G85" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>44</v>
@@ -5874,36 +6007,36 @@
         <v>30</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M85" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="G86" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>44</v>
@@ -5918,36 +6051,36 @@
         <v>30</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M86" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>44</v>
@@ -5959,39 +6092,39 @@
         <v>29</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M87" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>44</v>
@@ -6003,39 +6136,39 @@
         <v>29</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M88" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>32</v>
@@ -6050,36 +6183,36 @@
         <v>30</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M89" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>32</v>
@@ -6094,36 +6227,36 @@
         <v>30</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M90" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>32</v>
@@ -6138,36 +6271,36 @@
         <v>30</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M91" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>44</v>
@@ -6182,36 +6315,36 @@
         <v>30</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M92" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>44</v>
@@ -6226,36 +6359,36 @@
         <v>30</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M93" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>44</v>
@@ -6270,36 +6403,36 @@
         <v>30</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M94" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>44</v>
@@ -6314,36 +6447,36 @@
         <v>30</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M95" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>44</v>
@@ -6358,36 +6491,36 @@
         <v>30</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M96" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>44</v>
@@ -6402,28 +6535,28 @@
         <v>30</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M97" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6437,10 +6570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6456,3164 +6589,748 @@
     <col min="9" max="9" width="7.5703125" style="5" customWidth="1"/>
     <col min="10" max="11" width="9.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>380</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>127</v>
+        <v>382</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>363</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>421</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>129</v>
+        <v>384</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L41" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L42" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L43" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L44" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L45" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L47" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L51" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L54" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L58" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L64" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L65" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L66" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L67" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L68" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L69" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L70" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>311</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="5"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="5"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="5"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="5"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="5"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="5"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="5"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="5"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="5"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="5"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="5"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="5"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="5"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="5"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D63" s="5"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="5"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D65" s="5"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D66" s="5"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D67" s="5"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D68" s="5"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D69" s="5"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D70" s="5"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D71" s="5"/>
+      <c r="F71" s="6"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L72" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L73" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L74" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L75" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L76" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L77" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L78" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L83" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L84" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" s="5"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="L85" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M86" s="5"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M87" s="5"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M88" s="5"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D72" s="5"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D73" s="5"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D74" s="5"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D76" s="5"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D77" s="5"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D78" s="5"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D79" s="5"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D80" s="5"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D81" s="5"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D82" s="5"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D83" s="5"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D84" s="5"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D85" s="5"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D86" s="5"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="5"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D88" s="5"/>
+      <c r="F88" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M88">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$L2=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L88">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$G2 = "q"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"calc"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -9623,11 +7340,267 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C702AB-733A-4F06-A26B-F3AA9CF0214F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9684,19 +7657,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -9713,18 +7686,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C702AB-733A-4F06-A26B-F3AA9CF0214F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93DED7-C574-4B60-8F2A-C90DDF4BF66F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6FD2A3-85D3-460C-9DC5-61A8302BE096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="412">
   <si>
     <t>gdp</t>
   </si>
@@ -576,9 +576,6 @@
     <t>sckey</t>
   </si>
   <si>
-    <t>stat</t>
-  </si>
-  <si>
     <t>weeks</t>
   </si>
   <si>
@@ -933,12 +930,6 @@
     <t>Imports: Imported Services</t>
   </si>
   <si>
-    <t>disp</t>
-  </si>
-  <si>
-    <t>disp2</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1137,36 +1128,6 @@
     <t>cpi</t>
   </si>
   <si>
-    <t>10-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>30-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>5-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>2-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>1-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>6-Month Treasury Yield</t>
-  </si>
-  <si>
-    <t>3-Month Treasury Yield</t>
-  </si>
-  <si>
-    <t>1-Month Treasury Yield</t>
-  </si>
-  <si>
-    <t>20-Year Treasury Yield</t>
-  </si>
-  <si>
-    <t>7-Year Treasury Yield</t>
-  </si>
-  <si>
     <t>Mortgage 15-Year</t>
   </si>
   <si>
@@ -1182,9 +1143,6 @@
     <t>A191RL1Q225SBEA</t>
   </si>
   <si>
-    <t>DGS1</t>
-  </si>
-  <si>
     <t>MORTGAGE15US</t>
   </si>
   <si>
@@ -1200,9 +1158,6 @@
     <t>forecasters</t>
   </si>
   <si>
-    <t>Housint</t>
-  </si>
-  <si>
     <t>fcname</t>
   </si>
   <si>
@@ -1303,13 +1258,28 @@
   </si>
   <si>
     <t>mort5y</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>1-Year CPI Inflation</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>append_eom_with_currentval</t>
+  </si>
+  <si>
+    <t>pchg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1299,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1373,21 +1349,9 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1409,6 +1373,32 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1935,9 +1925,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:L88" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:L88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="17"/>
     <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="15"/>
@@ -1946,9 +1936,10 @@
     <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="11"/>
     <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="stat" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="disp" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="disp2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="forecasters" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2254,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2287,7 +2278,7 @@
         <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>169</v>
@@ -2302,16 +2293,16 @@
         <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>165</v>
@@ -2340,7 +2331,7 @@
         <v>28</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>32</v>
@@ -2361,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2369,7 +2360,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>173</v>
@@ -2384,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>32</v>
@@ -2405,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2413,7 +2404,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>173</v>
@@ -2428,7 +2419,7 @@
         <v>121</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>32</v>
@@ -2449,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2457,7 +2448,7 @@
         <v>143</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>173</v>
@@ -2472,7 +2463,7 @@
         <v>122</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>32</v>
@@ -2493,15 +2484,15 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>173</v>
@@ -2513,10 +2504,10 @@
         <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>32</v>
@@ -2542,10 +2533,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>173</v>
@@ -2557,10 +2548,10 @@
         <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>32</v>
@@ -2586,10 +2577,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>173</v>
@@ -2601,10 +2592,10 @@
         <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>32</v>
@@ -2630,10 +2621,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>173</v>
@@ -2645,10 +2636,10 @@
         <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>32</v>
@@ -2677,7 +2668,7 @@
         <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>173</v>
@@ -2692,7 +2683,7 @@
         <v>123</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>32</v>
@@ -2713,15 +2704,15 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>173</v>
@@ -2736,7 +2727,7 @@
         <v>124</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>32</v>
@@ -2762,10 +2753,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>173</v>
@@ -2777,10 +2768,10 @@
         <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
@@ -2806,10 +2797,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>173</v>
@@ -2821,10 +2812,10 @@
         <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>32</v>
@@ -2850,10 +2841,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>173</v>
@@ -2865,10 +2856,10 @@
         <v>170</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>32</v>
@@ -2897,7 +2888,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>173</v>
@@ -2912,7 +2903,7 @@
         <v>125</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>32</v>
@@ -2933,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2941,7 +2932,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>173</v>
@@ -2956,7 +2947,7 @@
         <v>126</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>32</v>
@@ -2985,7 +2976,7 @@
         <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>173</v>
@@ -3000,7 +2991,7 @@
         <v>127</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>32</v>
@@ -3026,10 +3017,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>173</v>
@@ -3044,7 +3035,7 @@
         <v>128</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>32</v>
@@ -3073,7 +3064,7 @@
         <v>151</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>173</v>
@@ -3088,7 +3079,7 @@
         <v>129</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>32</v>
@@ -3117,7 +3108,7 @@
         <v>146</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>173</v>
@@ -3132,7 +3123,7 @@
         <v>130</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>32</v>
@@ -3161,7 +3152,7 @@
         <v>148</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>173</v>
@@ -3176,7 +3167,7 @@
         <v>131</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>32</v>
@@ -3205,7 +3196,7 @@
         <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>173</v>
@@ -3220,7 +3211,7 @@
         <v>132</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>32</v>
@@ -3249,7 +3240,7 @@
         <v>152</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>173</v>
@@ -3264,7 +3255,7 @@
         <v>133</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>32</v>
@@ -3308,7 +3299,7 @@
         <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>32</v>
@@ -3329,12 +3320,12 @@
         <v>0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>155</v>
@@ -3352,7 +3343,7 @@
         <v>134</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>32</v>
@@ -3373,15 +3364,15 @@
         <v>0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>173</v>
@@ -3393,10 +3384,10 @@
         <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>32</v>
@@ -3422,10 +3413,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>173</v>
@@ -3437,10 +3428,10 @@
         <v>170</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>32</v>
@@ -3466,10 +3457,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>173</v>
@@ -3481,10 +3472,10 @@
         <v>170</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>32</v>
@@ -3528,7 +3519,7 @@
         <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>32</v>
@@ -3572,7 +3563,7 @@
         <v>136</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>32</v>
@@ -3616,7 +3607,7 @@
         <v>137</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>32</v>
@@ -3637,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3657,10 +3648,10 @@
         <v>170</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>32</v>
@@ -3681,15 +3672,15 @@
         <v>0</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>173</v>
@@ -3701,10 +3692,10 @@
         <v>170</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>32</v>
@@ -3730,10 +3721,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>173</v>
@@ -3745,10 +3736,10 @@
         <v>170</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>32</v>
@@ -3789,10 +3780,10 @@
         <v>170</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>32</v>
@@ -3813,15 +3804,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>173</v>
@@ -3833,10 +3824,10 @@
         <v>170</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>32</v>
@@ -3862,10 +3853,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>173</v>
@@ -3877,10 +3868,10 @@
         <v>170</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>32</v>
@@ -3909,7 +3900,7 @@
         <v>162</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>173</v>
@@ -3924,7 +3915,7 @@
         <v>138</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>32</v>
@@ -3945,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,7 +3944,7 @@
         <v>163</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>173</v>
@@ -3968,7 +3959,7 @@
         <v>139</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>32</v>
@@ -3997,7 +3988,7 @@
         <v>164</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>173</v>
@@ -4012,7 +4003,7 @@
         <v>140</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>32</v>
@@ -4038,7 +4029,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>100</v>
@@ -4047,7 +4038,7 @@
         <v>176</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>170</v>
@@ -4056,7 +4047,7 @@
         <v>114</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>44</v>
@@ -4082,25 +4073,25 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>44</v>
@@ -4126,25 +4117,25 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>44</v>
@@ -4170,25 +4161,25 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>44</v>
@@ -4214,25 +4205,25 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>44</v>
@@ -4258,10 +4249,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>176</v>
@@ -4273,10 +4264,10 @@
         <v>170</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>44</v>
@@ -4291,7 +4282,7 @@
         <v>115</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M46" s="4" t="b">
         <v>0</v>
@@ -4302,10 +4293,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>176</v>
@@ -4320,7 +4311,7 @@
         <v>101</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>44</v>
@@ -4335,7 +4326,7 @@
         <v>115</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M47" s="4" t="b">
         <v>1</v>
@@ -4346,10 +4337,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>176</v>
@@ -4361,10 +4352,10 @@
         <v>170</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>44</v>
@@ -4379,7 +4370,7 @@
         <v>115</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M48" s="4" t="b">
         <v>0</v>
@@ -4390,10 +4381,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>176</v>
@@ -4405,10 +4396,10 @@
         <v>170</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>44</v>
@@ -4423,7 +4414,7 @@
         <v>115</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M49" s="4" t="b">
         <v>0</v>
@@ -4434,10 +4425,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>176</v>
@@ -4449,10 +4440,10 @@
         <v>170</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>44</v>
@@ -4467,13 +4458,13 @@
         <v>30</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M50" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4487,7 +4478,7 @@
         <v>174</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>170</v>
@@ -4511,7 +4502,7 @@
         <v>30</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M51" s="4" t="b">
         <v>1</v>
@@ -4522,25 +4513,25 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>44</v>
@@ -4555,7 +4546,7 @@
         <v>30</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M52" s="4" t="b">
         <v>1</v>
@@ -4566,25 +4557,25 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>44</v>
@@ -4599,7 +4590,7 @@
         <v>30</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M53" s="4" t="b">
         <v>1</v>
@@ -4610,25 +4601,25 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>44</v>
@@ -4643,7 +4634,7 @@
         <v>30</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M54" s="4" t="b">
         <v>1</v>
@@ -4654,25 +4645,25 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>44</v>
@@ -4687,7 +4678,7 @@
         <v>30</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M55" s="4" t="b">
         <v>1</v>
@@ -4698,25 +4689,25 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>44</v>
@@ -4731,7 +4722,7 @@
         <v>30</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M56" s="4" t="b">
         <v>1</v>
@@ -4742,25 +4733,25 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="G57" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>44</v>
@@ -4775,7 +4766,7 @@
         <v>30</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M57" s="4" t="b">
         <v>1</v>
@@ -4795,7 +4786,7 @@
         <v>175</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>170</v>
@@ -4819,13 +4810,13 @@
         <v>30</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M58" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4839,7 +4830,7 @@
         <v>175</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>170</v>
@@ -4863,13 +4854,13 @@
         <v>30</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M59" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4883,7 +4874,7 @@
         <v>175</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>170</v>
@@ -4907,13 +4898,13 @@
         <v>30</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M60" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4927,7 +4918,7 @@
         <v>175</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>170</v>
@@ -4951,13 +4942,13 @@
         <v>30</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M61" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4971,7 +4962,7 @@
         <v>175</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>170</v>
@@ -4995,13 +4986,13 @@
         <v>30</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M62" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -5015,7 +5006,7 @@
         <v>175</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>170</v>
@@ -5039,13 +5030,13 @@
         <v>30</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M63" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -5059,7 +5050,7 @@
         <v>175</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>170</v>
@@ -5083,13 +5074,13 @@
         <v>30</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M64" s="4" t="b">
         <v>1</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -5103,7 +5094,7 @@
         <v>175</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>170</v>
@@ -5127,13 +5118,13 @@
         <v>30</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M65" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -5147,7 +5138,7 @@
         <v>175</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>170</v>
@@ -5171,13 +5162,13 @@
         <v>30</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M66" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5191,7 +5182,7 @@
         <v>175</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>170</v>
@@ -5215,13 +5206,13 @@
         <v>30</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M67" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5235,7 +5226,7 @@
         <v>175</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>170</v>
@@ -5259,13 +5250,13 @@
         <v>30</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M68" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5279,7 +5270,7 @@
         <v>175</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>170</v>
@@ -5303,13 +5294,13 @@
         <v>30</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M69" s="4" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -5323,7 +5314,7 @@
         <v>176</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>170</v>
@@ -5332,7 +5323,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>44</v>
@@ -5347,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M70" s="4" t="b">
         <v>1</v>
@@ -5361,13 +5352,13 @@
         <v>49</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>170</v>
@@ -5391,7 +5382,7 @@
         <v>30</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M71" s="4" t="b">
         <v>1</v>
@@ -5402,25 +5393,25 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="G72" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>44</v>
@@ -5435,7 +5426,7 @@
         <v>30</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M72" s="4" t="b">
         <v>0</v>
@@ -5446,25 +5437,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>44</v>
@@ -5479,7 +5470,7 @@
         <v>30</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M73" s="4" t="b">
         <v>0</v>
@@ -5499,7 +5490,7 @@
         <v>173</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>170</v>
@@ -5523,7 +5514,7 @@
         <v>30</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M74" s="4" t="b">
         <v>1</v>
@@ -5540,16 +5531,16 @@
         <v>88</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>108</v>
@@ -5567,7 +5558,7 @@
         <v>30</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M75" s="4" t="b">
         <v>1</v>
@@ -5584,16 +5575,16 @@
         <v>72</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>108</v>
@@ -5611,7 +5602,7 @@
         <v>30</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M76" s="4" t="b">
         <v>1</v>
@@ -5622,25 +5613,25 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>44</v>
@@ -5655,7 +5646,7 @@
         <v>30</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M77" s="4" t="b">
         <v>1</v>
@@ -5675,7 +5666,7 @@
         <v>174</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>170</v>
@@ -5684,7 +5675,7 @@
         <v>56</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>44</v>
@@ -5699,7 +5690,7 @@
         <v>115</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M78" s="4" t="b">
         <v>1</v>
@@ -5719,7 +5710,7 @@
         <v>176</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>170</v>
@@ -5728,7 +5719,7 @@
         <v>58</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>44</v>
@@ -5743,7 +5734,7 @@
         <v>115</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M79" s="4" t="b">
         <v>1</v>
@@ -5763,7 +5754,7 @@
         <v>174</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>170</v>
@@ -5772,7 +5763,7 @@
         <v>60</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>44</v>
@@ -5787,7 +5778,7 @@
         <v>115</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M80" s="5" t="b">
         <v>0</v>
@@ -5804,10 +5795,10 @@
         <v>92</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>170</v>
@@ -5831,7 +5822,7 @@
         <v>30</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M81" s="4" t="b">
         <v>1</v>
@@ -5848,10 +5839,10 @@
         <v>93</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>170</v>
@@ -5875,7 +5866,7 @@
         <v>30</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M82" s="4" t="b">
         <v>1</v>
@@ -5892,10 +5883,10 @@
         <v>104</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>170</v>
@@ -5904,7 +5895,7 @@
         <v>66</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>44</v>
@@ -5919,7 +5910,7 @@
         <v>30</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M83" s="4" t="b">
         <v>1</v>
@@ -5939,7 +5930,7 @@
         <v>176</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>170</v>
@@ -5963,7 +5954,7 @@
         <v>115</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M84" s="4" t="b">
         <v>1</v>
@@ -5980,10 +5971,10 @@
         <v>107</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>170</v>
@@ -6007,7 +5998,7 @@
         <v>30</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M85" s="4" t="b">
         <v>1</v>
@@ -6027,7 +6018,7 @@
         <v>176</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>170</v>
@@ -6036,7 +6027,7 @@
         <v>96</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>44</v>
@@ -6051,7 +6042,7 @@
         <v>30</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M86" s="4" t="b">
         <v>1</v>
@@ -6062,7 +6053,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>97</v>
@@ -6071,7 +6062,7 @@
         <v>173</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>170</v>
@@ -6095,7 +6086,7 @@
         <v>115</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M87" s="4" t="b">
         <v>1</v>
@@ -6115,7 +6106,7 @@
         <v>177</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>170</v>
@@ -6139,7 +6130,7 @@
         <v>115</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M88" s="4" t="b">
         <v>1</v>
@@ -6150,22 +6141,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="C89" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>103</v>
@@ -6183,7 +6174,7 @@
         <v>30</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M89" s="4" t="b">
         <v>0</v>
@@ -6194,22 +6185,22 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>103</v>
@@ -6227,7 +6218,7 @@
         <v>30</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M90" s="4" t="b">
         <v>0</v>
@@ -6238,22 +6229,22 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D91" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>103</v>
@@ -6271,7 +6262,7 @@
         <v>30</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M91" s="4" t="b">
         <v>0</v>
@@ -6282,22 +6273,22 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>108</v>
@@ -6315,7 +6306,7 @@
         <v>30</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M92" s="4" t="b">
         <v>1</v>
@@ -6326,22 +6317,22 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>108</v>
@@ -6359,7 +6350,7 @@
         <v>30</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M93" s="4" t="b">
         <v>1</v>
@@ -6370,22 +6361,22 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>108</v>
@@ -6403,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M94" s="4" t="b">
         <v>1</v>
@@ -6414,22 +6405,22 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>173</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>108</v>
@@ -6447,7 +6438,7 @@
         <v>30</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M95" s="4" t="b">
         <v>1</v>
@@ -6458,22 +6449,22 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>103</v>
@@ -6491,7 +6482,7 @@
         <v>30</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M96" s="4" t="b">
         <v>1</v>
@@ -6502,22 +6493,22 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>103</v>
@@ -6535,7 +6526,7 @@
         <v>30</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M97" s="4" t="b">
         <v>1</v>
@@ -6546,17 +6537,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6570,10 +6561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6588,11 +6579,12 @@
     <col min="8" max="8" width="6.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="5" customWidth="1"/>
     <col min="10" max="11" width="9.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="12" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -6615,27 +6607,30 @@
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>71</v>
@@ -6644,10 +6639,10 @@
         <v>170</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>32</v>
@@ -6662,7 +6657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -6682,10 +6677,22 @@
         <v>103</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -6705,15 +6712,27 @@
         <v>103</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>175</v>
@@ -6728,15 +6747,27 @@
         <v>103</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>175</v>
@@ -6751,15 +6782,27 @@
         <v>103</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>175</v>
@@ -6774,15 +6817,27 @@
         <v>103</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>175</v>
@@ -6797,15 +6852,27 @@
         <v>103</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>175</v>
@@ -6814,21 +6881,33 @@
         <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>371</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>175</v>
@@ -6843,15 +6922,27 @@
         <v>103</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>175</v>
@@ -6866,15 +6957,27 @@
         <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>175</v>
@@ -6889,15 +6992,27 @@
         <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>175</v>
@@ -6912,15 +7027,27 @@
         <v>103</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>175</v>
@@ -6935,15 +7062,27 @@
         <v>103</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>175</v>
@@ -6952,21 +7091,33 @@
         <v>170</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>175</v>
@@ -6975,21 +7126,33 @@
         <v>170</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>175</v>
@@ -6998,44 +7161,65 @@
         <v>170</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>177</v>
@@ -7044,64 +7228,160 @@
         <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="5"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D31" s="5"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D32" s="5"/>
       <c r="F32" s="6"/>
     </row>
@@ -7233,68 +7513,68 @@
       <c r="D64" s="5"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D65" s="5"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D66" s="5"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D67" s="5"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D68" s="5"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D69" s="5"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D70" s="5"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D71" s="5"/>
       <c r="F71" s="6"/>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D72" s="5"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D73" s="5"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D74" s="5"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D75" s="5"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D76" s="5"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D77" s="5"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D78" s="5"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D79" s="5"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D80" s="5"/>
       <c r="F80" s="6"/>
     </row>
@@ -7331,6 +7611,12 @@
       <c r="F88" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L9999">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($G2 &lt;&gt;"d", $G2 &lt;&gt; "w")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7354,7 +7640,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -7363,180 +7649,180 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7547,47 +7833,47 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7657,19 +7943,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6FD2A3-85D3-460C-9DC5-61A8302BE096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FDC19-5E6C-4A24-8B14-9709C315030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
     <sheet name="baseline-variables" sheetId="5" r:id="rId2"/>
-    <sheet name="baseline-forecasts" sheetId="3" r:id="rId3"/>
+    <sheet name="external-forecasts" sheetId="3" r:id="rId3"/>
     <sheet name="etc" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="415">
   <si>
     <t>gdp</t>
   </si>
@@ -1273,6 +1273,15 @@
   </si>
   <si>
     <t>pchg</t>
+  </si>
+  <si>
+    <t>dns1</t>
+  </si>
+  <si>
+    <t>dns2</t>
+  </si>
+  <si>
+    <t>dns3</t>
   </si>
 </sst>
 </file>
@@ -1347,39 +1356,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
-        <color theme="9"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1399,20 +1389,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1624,6 +1600,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1888,6 +1871,25 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1902,45 +1904,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:M88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M88" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="forecasters" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{790E276A-478E-4C37-8E23-268EBECBD586}" name="forecasters" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6537,17 +6539,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6564,7 +6566,7 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7346,14 +7348,23 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="F25" s="6"/>
     </row>
@@ -7613,7 +7624,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L9999">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND($G2 &lt;&gt;"d", $G2 &lt;&gt; "w")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FDC19-5E6C-4A24-8B14-9709C315030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA5C51-7544-4AC9-A874-CADF672C3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="418">
   <si>
     <t>gdp</t>
   </si>
@@ -1275,13 +1275,22 @@
     <t>pchg</t>
   </si>
   <si>
-    <t>dns1</t>
-  </si>
-  <si>
-    <t>dns2</t>
-  </si>
-  <si>
-    <t>dns3</t>
+    <t>tdns1</t>
+  </si>
+  <si>
+    <t>tdns2</t>
+  </si>
+  <si>
+    <t>tdns3</t>
+  </si>
+  <si>
+    <t>Treasury-FFR Spread Level (10-Year Level)</t>
+  </si>
+  <si>
+    <t>Treasury-FFR Spread Slope (Negative of 10Y-3M Spread)</t>
+  </si>
+  <si>
+    <t>Treasury-FFR Spread Curvature</t>
   </si>
 </sst>
 </file>
@@ -6566,7 +6575,7 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7351,22 +7360,88 @@
       <c r="A23" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="5"/>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA5C51-7544-4AC9-A874-CADF672C3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11C612B-5830-4AF4-B3A6-EA344FE13EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
-    <sheet name="baseline-variables" sheetId="5" r:id="rId2"/>
+    <sheet name="all-variables" sheetId="5" r:id="rId2"/>
     <sheet name="external-forecasts" sheetId="3" r:id="rId3"/>
     <sheet name="etc" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -1140,9 +1140,6 @@
     <t>CPI-U</t>
   </si>
   <si>
-    <t>A191RL1Q225SBEA</t>
-  </si>
-  <si>
     <t>MORTGAGE15US</t>
   </si>
   <si>
@@ -1291,6 +1288,9 @@
   </si>
   <si>
     <t>Treasury-FFR Spread Curvature</t>
+  </si>
+  <si>
+    <t>diff1</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
@@ -6575,7 +6575,7 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6630,10 +6630,10 @@
         <v>303</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -6650,7 +6650,7 @@
         <v>170</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>367</v>
+        <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>298</v>
@@ -7102,13 +7102,13 @@
         <v>170</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>30</v>
@@ -7137,13 +7137,13 @@
         <v>170</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>30</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>365</v>
@@ -7172,13 +7172,13 @@
         <v>170</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>30</v>
@@ -7239,7 +7239,7 @@
         <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>108</v>
@@ -7259,10 +7259,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>177</v>
@@ -7309,10 +7309,10 @@
         <v>358</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>297</v>
@@ -7358,10 +7358,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>175</v>
@@ -7376,7 +7376,7 @@
         <v>44</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>30</v>
@@ -7387,10 +7387,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>175</v>
@@ -7405,7 +7405,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>30</v>
@@ -7416,10 +7416,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>175</v>
@@ -7434,7 +7434,7 @@
         <v>44</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>30</v>
@@ -7726,7 +7726,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -7738,177 +7738,177 @@
         <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>376</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>379</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>382</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>385</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>388</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>395</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>398</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7919,47 +7919,47 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE66744-7CF6-420F-89B8-FE32EB361C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C2E5E-B9DE-46BD-AE22-43745426DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="433">
   <si>
     <t>gdp</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>use_nowcast</t>
+  </si>
+  <si>
+    <t>DGS1</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1416,56 +1419,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -1521,44 +1482,49 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1704,6 +1670,25 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2086,49 +2071,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Q30" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:Q30" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:Q31" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{76C1F842-CBA6-48BF-9BF9-40A610019A16}" name="initial_forecast" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="dfm_input" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nowcast.method" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{2DF3733D-2972-4623-B6A5-9F29AA386FF9}" name="use_nowcast" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{76C1F842-CBA6-48BF-9BF9-40A610019A16}" name="initial_forecast" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="dfm_input" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nowcast.method" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{2DF3733D-2972-4623-B6A5-9F29AA386FF9}" name="use_nowcast" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2141,7 +2126,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2447,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:N97"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5258,7 +5243,7 @@
         <v>158</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>21</v>
+        <v>432</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>91</v>
@@ -6739,17 +6724,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6763,10 +6748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6911,7 +6896,9 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -7125,7 +7112,7 @@
         <v>158</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>432</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>91</v>
@@ -7529,7 +7516,9 @@
       <c r="L19" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -7562,7 +7551,9 @@
       <c r="L20" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -7601,7 +7592,9 @@
       <c r="M21" s="4">
         <v>1</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -7706,7 +7699,9 @@
       <c r="L24" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -7772,7 +7767,9 @@
       <c r="L26" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -7805,7 +7802,9 @@
       <c r="L27" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -7877,31 +7876,109 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="A30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10"/>
       <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M9941">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="M2:M9942">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>OR($H2="q", $H2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7918,7 +7995,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C2E5E-B9DE-46BD-AE22-43745426DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144AB7F0-7308-4DCE-B889-DD5808BBEEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="439">
   <si>
     <t>gdp</t>
   </si>
@@ -1245,9 +1245,6 @@
     <t>diff1</t>
   </si>
   <si>
-    <t>initial_forecast</t>
-  </si>
-  <si>
     <t>2021Q2</t>
   </si>
   <si>
@@ -1336,13 +1333,34 @@
   </si>
   <si>
     <t>DGS1</t>
+  </si>
+  <si>
+    <t>is_structural_exog</t>
+  </si>
+  <si>
+    <t>initial_baseline_forecast</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>alt_forecasts</t>
+  </si>
+  <si>
+    <t>[mkt-tips]</t>
+  </si>
+  <si>
+    <t>[mkt-cme]</t>
+  </si>
+  <si>
+    <t>[mkt-dns]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,10 +1388,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1396,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,7 +1436,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1419,14 +1445,376 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1482,312 +1870,42 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2071,49 +2189,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:Q31" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{76C1F842-CBA6-48BF-9BF9-40A610019A16}" name="initial_forecast" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="dfm_input" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nowcast.method" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{2DF3733D-2972-4623-B6A5-9F29AA386FF9}" name="use_nowcast" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:S32" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S32" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{7644543C-F53E-41A3-9741-5823C35DBF8E}" name="alt_forecasts" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{76C1F842-CBA6-48BF-9BF9-40A610019A16}" name="initial_baseline_forecast" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{63362F49-212F-4D3E-BAB0-24630677D21D}" name="is_structural_exog" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nowcast.method" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{2DF3733D-2972-4623-B6A5-9F29AA386FF9}" name="use_nowcast" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2126,7 +2246,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2432,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:N47"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5243,7 +5363,7 @@
         <v>158</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>91</v>
@@ -6724,17 +6844,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6748,1238 +6868,1441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="11" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="12" customWidth="1"/>
+    <col min="11" max="13" width="9.28515625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="12"/>
+    <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="E30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L30" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="L31" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" s="13">
+        <v>1</v>
+      </c>
+      <c r="P31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>1</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="H32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" s="13">
         <v>1</v>
       </c>
-      <c r="N3" s="6" t="b">
+      <c r="P32" s="13">
         <v>1</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="Q32" s="13">
         <v>1</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="6"/>
+      <c r="R32" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="S32" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M9942">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="N2:N9942">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>OR($H2="q", $H2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"d"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:P1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P9942">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>$O2 &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7994,7 +8317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C702AB-733A-4F06-A26B-F3AA9CF0214F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8002,7 +8325,7 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8016,7 +8339,7 @@
       <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>169</v>
       </c>
       <c r="E1" t="s">
@@ -8033,7 +8356,7 @@
       <c r="C2" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="7" t="b">
+      <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -8050,7 +8373,7 @@
       <c r="C3" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="7" t="b">
+      <c r="D3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -8067,7 +8390,7 @@
       <c r="C4" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="7" t="b">
+      <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -8084,7 +8407,7 @@
       <c r="C5" t="s">
         <v>368</v>
       </c>
-      <c r="D5" s="7" t="b">
+      <c r="D5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
@@ -8101,7 +8424,7 @@
       <c r="C6" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="7" t="b">
+      <c r="D6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -8118,7 +8441,7 @@
       <c r="C7" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="7" t="b">
+      <c r="D7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
@@ -8135,7 +8458,7 @@
       <c r="C8" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="7" t="b">
+      <c r="D8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -8152,7 +8475,7 @@
       <c r="C9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="7" t="b">
+      <c r="D9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -8169,7 +8492,7 @@
       <c r="C10" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="7" t="b">
+      <c r="D10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -8186,7 +8509,7 @@
       <c r="C11" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="7" t="b">
+      <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
@@ -8203,7 +8526,7 @@
       <c r="C12" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="7" t="b">
+      <c r="D12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -8220,7 +8543,7 @@
       <c r="C13" t="s">
         <v>384</v>
       </c>
-      <c r="D13" s="7" t="b">
+      <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -8237,7 +8560,7 @@
       <c r="C14" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="7" t="b">
+      <c r="D14" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -8262,50 +8585,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="F2" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -8313,14 +8636,14 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>420</v>
+        <v>403</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
@@ -8328,109 +8651,109 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>416</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9491E-6859-47D9-8DA2-756031BFDB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF14CB-D9F2-43A8-91AB-3917F1885A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="all-variables" sheetId="5" r:id="rId3"/>
     <sheet name="ext-forecasts" sheetId="7" r:id="rId4"/>
     <sheet name="initial-forecasts-qual" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="474">
   <si>
     <t>gdp</t>
   </si>
@@ -1285,15 +1286,6 @@
     <t>2024Q4</t>
   </si>
   <si>
-    <t>t10y3mspread</t>
-  </si>
-  <si>
-    <t>tffr3mspread</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>Treasury Bill - FFR Spread</t>
   </si>
   <si>
@@ -1457,6 +1449,18 @@
   </si>
   <si>
     <t>[cme]-.25</t>
+  </si>
+  <si>
+    <t>inf.d1_baseline</t>
+  </si>
+  <si>
+    <t>inf.d1_strong</t>
+  </si>
+  <si>
+    <t>tdns1.d1_baseline</t>
+  </si>
+  <si>
+    <t>[cmef.tdns1]</t>
   </si>
 </sst>
 </file>
@@ -1580,140 +1584,6 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1967,6 +1837,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1998,6 +1887,25 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2127,6 +2035,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2394,6 +2379,25 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2414,23 +2418,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2443,7 +2447,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="38"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2451,33 +2455,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X110" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X110" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:X110" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="35"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="27"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="26"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="23"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="22"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="21"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2490,7 +2494,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5607,7 +5611,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>89</v>
@@ -7088,17 +7092,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7115,7 +7119,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7377,7 +7381,7 @@
   <dimension ref="A1:X110"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,7 +7418,7 @@
         <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -7444,34 +7448,34 @@
         <v>289</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>431</v>
-      </c>
       <c r="S1" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>440</v>
-      </c>
       <c r="X1" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7503,7 +7507,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>15</v>
@@ -7542,7 +7546,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -7566,7 +7570,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
@@ -7617,7 +7621,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>15</v>
@@ -7662,7 +7666,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>15</v>
@@ -7707,7 +7711,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>15</v>
@@ -7752,7 +7756,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>15</v>
@@ -7797,7 +7801,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>15</v>
@@ -7842,7 +7846,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>15</v>
@@ -7887,7 +7891,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>15</v>
@@ -7932,7 +7936,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>15</v>
@@ -7977,7 +7981,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>15</v>
@@ -8022,7 +8026,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>15</v>
@@ -8067,7 +8071,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -8112,7 +8116,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>15</v>
@@ -8157,7 +8161,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>15</v>
@@ -8202,7 +8206,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>15</v>
@@ -8247,7 +8251,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>15</v>
@@ -8292,7 +8296,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8337,7 +8341,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>15</v>
@@ -8382,7 +8386,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>15</v>
@@ -8427,7 +8431,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>15</v>
@@ -8472,7 +8476,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>15</v>
@@ -8517,7 +8521,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>15</v>
@@ -8562,7 +8566,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>15</v>
@@ -8607,7 +8611,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>15</v>
@@ -8652,7 +8656,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>15</v>
@@ -8697,7 +8701,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>15</v>
@@ -8742,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>15</v>
@@ -8787,7 +8791,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>16</v>
@@ -8832,7 +8836,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>16</v>
@@ -8877,7 +8881,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>15</v>
@@ -8922,7 +8926,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>15</v>
@@ -8967,7 +8971,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>15</v>
@@ -9012,7 +9016,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>15</v>
@@ -9057,7 +9061,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>15</v>
@@ -9102,7 +9106,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>15</v>
@@ -9147,7 +9151,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -9192,7 +9196,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>15</v>
@@ -9237,7 +9241,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>15</v>
@@ -9264,7 +9268,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>156</v>
@@ -9279,7 +9283,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>15</v>
@@ -9308,7 +9312,7 @@
         <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>156</v>
@@ -9323,7 +9327,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>15</v>
@@ -9352,7 +9356,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>156</v>
@@ -9367,7 +9371,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>15</v>
@@ -9396,7 +9400,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>156</v>
@@ -9411,7 +9415,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>15</v>
@@ -9440,7 +9444,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>156</v>
@@ -9455,7 +9459,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>15</v>
@@ -9502,7 +9506,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>15</v>
@@ -9549,7 +9553,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>15</v>
@@ -9596,7 +9600,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>16</v>
@@ -9640,7 +9644,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>15</v>
@@ -9684,7 +9688,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>15</v>
@@ -9728,7 +9732,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>15</v>
@@ -9772,7 +9776,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>15</v>
@@ -9801,7 +9805,7 @@
         <v>309</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>156</v>
@@ -9816,7 +9820,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>15</v>
@@ -9845,7 +9849,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>156</v>
@@ -9860,7 +9864,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>15</v>
@@ -9889,7 +9893,7 @@
         <v>309</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>156</v>
@@ -9904,7 +9908,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>15</v>
@@ -9933,7 +9937,7 @@
         <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>156</v>
@@ -9948,7 +9952,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -9977,7 +9981,7 @@
         <v>253</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>156</v>
@@ -9992,7 +9996,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>15</v>
@@ -10021,7 +10025,7 @@
         <v>253</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>156</v>
@@ -10036,7 +10040,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>15</v>
@@ -10065,7 +10069,7 @@
         <v>253</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>156</v>
@@ -10080,7 +10084,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>15</v>
@@ -10109,7 +10113,7 @@
         <v>159</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>156</v>
@@ -10124,7 +10128,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>16</v>
@@ -10153,7 +10157,7 @@
         <v>238</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>156</v>
@@ -10168,7 +10172,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>16</v>
@@ -10197,7 +10201,7 @@
         <v>160</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>156</v>
@@ -10212,7 +10216,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>15</v>
@@ -10241,7 +10245,7 @@
         <v>162</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>156</v>
@@ -10256,7 +10260,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>15</v>
@@ -10285,7 +10289,7 @@
         <v>238</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>156</v>
@@ -10300,7 +10304,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>16</v>
@@ -10329,7 +10333,7 @@
         <v>238</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>156</v>
@@ -10344,7 +10348,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>16</v>
@@ -10373,7 +10377,7 @@
         <v>253</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>156</v>
@@ -10388,7 +10392,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>16</v>
@@ -10417,7 +10421,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>156</v>
@@ -10432,7 +10436,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>15</v>
@@ -10461,7 +10465,7 @@
         <v>253</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>156</v>
@@ -10476,7 +10480,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>16</v>
@@ -10505,7 +10509,7 @@
         <v>162</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>156</v>
@@ -10520,7 +10524,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>16</v>
@@ -10549,7 +10553,7 @@
         <v>159</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>156</v>
@@ -10564,7 +10568,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>15</v>
@@ -10593,7 +10597,7 @@
         <v>163</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>156</v>
@@ -10608,7 +10612,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>15</v>
@@ -10637,7 +10641,7 @@
         <v>238</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>156</v>
@@ -10652,7 +10656,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>16</v>
@@ -10679,7 +10683,7 @@
         <v>238</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>156</v>
@@ -10694,7 +10698,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>16</v>
@@ -10721,7 +10725,7 @@
         <v>238</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>156</v>
@@ -10736,7 +10740,7 @@
         <v>18</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>16</v>
@@ -10763,7 +10767,7 @@
         <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>156</v>
@@ -10778,7 +10782,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>16</v>
@@ -10807,7 +10811,7 @@
         <v>242</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>156</v>
@@ -10822,7 +10826,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>16</v>
@@ -10851,7 +10855,7 @@
         <v>242</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>156</v>
@@ -10866,7 +10870,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
@@ -10895,7 +10899,7 @@
         <v>159</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>156</v>
@@ -10910,7 +10914,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>16</v>
@@ -10939,7 +10943,7 @@
         <v>161</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>156</v>
@@ -10954,7 +10958,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>16</v>
@@ -10983,7 +10987,7 @@
         <v>253</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>156</v>
@@ -10998,7 +11002,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>16</v>
@@ -11027,7 +11031,7 @@
         <v>161</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>156</v>
@@ -11045,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>399</v>
@@ -11063,13 +11067,13 @@
         <v>1</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W81" s="11">
         <v>1</v>
       </c>
       <c r="X81" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -11083,7 +11087,7 @@
         <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>156</v>
@@ -11101,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>399</v>
@@ -11116,13 +11120,13 @@
         <v>1</v>
       </c>
       <c r="V82" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W82" s="11">
         <v>0</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -11136,7 +11140,7 @@
         <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>156</v>
@@ -11154,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>399</v>
@@ -11178,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -11192,7 +11196,7 @@
         <v>161</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>156</v>
@@ -11210,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>399</v>
@@ -11228,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -11242,7 +11246,7 @@
         <v>161</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>156</v>
@@ -11260,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>399</v>
@@ -11278,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -11292,7 +11296,7 @@
         <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>156</v>
@@ -11310,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>399</v>
@@ -11328,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -11342,13 +11346,13 @@
         <v>161</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>89</v>
@@ -11360,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>399</v>
@@ -11381,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="X87" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -11395,7 +11399,7 @@
         <v>161</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>156</v>
@@ -11413,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>399</v>
@@ -11431,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -11445,7 +11449,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>156</v>
@@ -11463,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>399</v>
@@ -11484,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -11498,7 +11502,7 @@
         <v>161</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>156</v>
@@ -11516,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>399</v>
@@ -11534,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -11548,7 +11552,7 @@
         <v>161</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>156</v>
@@ -11566,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>399</v>
@@ -11584,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -11598,7 +11602,7 @@
         <v>161</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>156</v>
@@ -11616,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>399</v>
@@ -11634,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -11648,7 +11652,7 @@
         <v>314</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>156</v>
@@ -11666,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>399</v>
@@ -11691,7 +11695,7 @@
         <v>314</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>156</v>
@@ -11709,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>399</v>
@@ -11734,7 +11738,7 @@
         <v>161</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -11752,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>399</v>
@@ -11777,7 +11781,7 @@
         <v>314</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>156</v>
@@ -11792,7 +11796,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>15</v>
@@ -11817,7 +11821,7 @@
         <v>163</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>156</v>
@@ -11832,7 +11836,7 @@
         <v>30</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>101</v>
@@ -11860,7 +11864,7 @@
         <v>163</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>171</v>
@@ -11872,7 +11876,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>16</v>
@@ -11887,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="V98" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W98" s="11"/>
       <c r="X98" s="12"/>
@@ -11903,7 +11907,7 @@
         <v>238</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>250</v>
@@ -11921,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>15</v>
@@ -11933,7 +11937,7 @@
         <v>16</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W99" s="11">
         <v>1</v>
@@ -11953,7 +11957,7 @@
         <v>238</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>250</v>
@@ -11971,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>16</v>
@@ -12000,7 +12004,7 @@
         <v>161</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>171</v>
@@ -12012,7 +12016,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>399</v>
@@ -12024,7 +12028,7 @@
         <v>283</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W101" s="11"/>
       <c r="X101" s="12"/>
@@ -12040,7 +12044,7 @@
         <v>161</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>171</v>
@@ -12052,7 +12056,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>399</v>
@@ -12064,7 +12068,7 @@
         <v>283</v>
       </c>
       <c r="V102" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W102" s="11"/>
       <c r="X102" s="12"/>
@@ -12080,7 +12084,7 @@
         <v>161</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>171</v>
@@ -12092,7 +12096,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>399</v>
@@ -12104,23 +12108,23 @@
         <v>283</v>
       </c>
       <c r="V103" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W103" s="11"/>
       <c r="X103" s="12"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>171</v>
@@ -12132,7 +12136,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>399</v>
@@ -12148,16 +12152,16 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>171</v>
@@ -12169,7 +12173,7 @@
         <v>30</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>399</v>
@@ -12185,16 +12189,16 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>171</v>
@@ -12206,7 +12210,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>399</v>
@@ -12222,16 +12226,16 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>171</v>
@@ -12243,7 +12247,7 @@
         <v>30</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>399</v>
@@ -12286,7 +12290,7 @@
         <v>30</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>15</v>
@@ -12304,12 +12308,12 @@
         <v>0</v>
       </c>
       <c r="X108" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>222</v>
@@ -12336,7 +12340,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>15</v>
@@ -12348,13 +12352,13 @@
         <v>283</v>
       </c>
       <c r="V109" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W109" s="11">
         <v>1</v>
       </c>
       <c r="X109" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -12368,7 +12372,7 @@
         <v>253</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>156</v>
@@ -12383,7 +12387,7 @@
         <v>30</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>15</v>
@@ -12401,54 +12405,54 @@
         <v>1</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W110" s="11">
         <v>1</v>
       </c>
       <c r="X110" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J110">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111:W10020">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G110">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V110">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J110">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12465,7 +12469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W110">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12504,7 +12508,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E1" t="s">
         <v>355</v>
@@ -12677,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12694,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12711,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -12726,8 +12730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12738,668 +12742,638 @@
     <col min="14" max="16384" width="10.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>450</v>
+      <c r="H1" s="15" t="s">
+        <v>470</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>39</v>
+        <v>471</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I2" s="17"/>
+      <c r="K2" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>401</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>402</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="G4" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>403</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>404</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>468</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G7" s="16"/>
+        <v>468</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>406</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>468</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>467</v>
+      </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>410</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>413</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E15" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>414</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>472</v>
-      </c>
       <c r="E16" s="16" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B20" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E20" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B22" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="E22" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B23" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E23" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C20" s="16" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E24" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -13407,4 +13381,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF14CB-D9F2-43A8-91AB-3917F1885A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63D056-6B40-4870-9062-EC8F7419AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="473">
   <si>
     <t>gdp</t>
   </si>
@@ -1241,51 +1241,6 @@
     <t>diff1</t>
   </si>
   <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q1</t>
-  </si>
-  <si>
-    <t>2022Q2</t>
-  </si>
-  <si>
-    <t>2022Q3</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q1</t>
-  </si>
-  <si>
-    <t>2023Q2</t>
-  </si>
-  <si>
-    <t>2023Q3</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q1</t>
-  </si>
-  <si>
-    <t>2024Q2</t>
-  </si>
-  <si>
-    <t>2024Q3</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
-  <si>
     <t>Treasury Bill - FFR Spread</t>
   </si>
   <si>
@@ -1385,54 +1340,6 @@
     <t>sofr.d1_weak</t>
   </si>
   <si>
-    <t>2025Q1</t>
-  </si>
-  <si>
-    <t>2025Q2</t>
-  </si>
-  <si>
-    <t>2025Q3</t>
-  </si>
-  <si>
-    <t>2025Q4</t>
-  </si>
-  <si>
-    <t>2026Q2</t>
-  </si>
-  <si>
-    <t>2026Q3</t>
-  </si>
-  <si>
-    <t>2026Q1</t>
-  </si>
-  <si>
-    <t>2026Q4</t>
-  </si>
-  <si>
-    <t>2027Q1</t>
-  </si>
-  <si>
-    <t>2027Q2</t>
-  </si>
-  <si>
-    <t>2027Q3</t>
-  </si>
-  <si>
-    <t>2027Q4</t>
-  </si>
-  <si>
-    <t>2028Q1</t>
-  </si>
-  <si>
-    <t>2028Q2</t>
-  </si>
-  <si>
-    <t>2028Q3</t>
-  </si>
-  <si>
-    <t>2028Q4</t>
-  </si>
-  <si>
     <t>market</t>
   </si>
   <si>
@@ -1457,10 +1364,100 @@
     <t>inf.d1_strong</t>
   </si>
   <si>
-    <t>tdns1.d1_baseline</t>
-  </si>
-  <si>
-    <t>[cmef.tdns1]</t>
+    <t>tdns.d1.baseline</t>
+  </si>
+  <si>
+    <t>2021-06</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>2021-08</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
   </si>
 </sst>
 </file>
@@ -1583,6 +1580,102 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2037,83 +2130,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2379,25 +2395,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2418,23 +2415,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2447,7 +2444,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="41"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2455,33 +2452,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X110" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X110" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:X110" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="35"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="21"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="20"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="19"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2494,7 +2491,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5611,7 +5608,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>89</v>
@@ -7092,17 +7089,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7380,8 +7377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,7 +7415,7 @@
         <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -7448,34 +7445,34 @@
         <v>289</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7507,7 +7504,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>15</v>
@@ -7546,7 +7543,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -7570,7 +7567,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
@@ -7621,7 +7618,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>15</v>
@@ -7666,7 +7663,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>15</v>
@@ -7711,7 +7708,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>15</v>
@@ -7756,7 +7753,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>15</v>
@@ -7801,7 +7798,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>15</v>
@@ -7846,7 +7843,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>15</v>
@@ -7891,7 +7888,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>15</v>
@@ -7936,7 +7933,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>15</v>
@@ -7981,7 +7978,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>15</v>
@@ -8026,7 +8023,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>15</v>
@@ -8071,7 +8068,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -8116,7 +8113,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>15</v>
@@ -8161,7 +8158,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>15</v>
@@ -8206,7 +8203,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>15</v>
@@ -8251,7 +8248,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>15</v>
@@ -8296,7 +8293,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8341,7 +8338,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>15</v>
@@ -8386,7 +8383,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>15</v>
@@ -8431,7 +8428,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>15</v>
@@ -8476,7 +8473,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>15</v>
@@ -8521,7 +8518,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>15</v>
@@ -8566,7 +8563,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>15</v>
@@ -8611,7 +8608,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>15</v>
@@ -8656,7 +8653,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>15</v>
@@ -8701,7 +8698,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>15</v>
@@ -8746,7 +8743,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>15</v>
@@ -8791,7 +8788,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>16</v>
@@ -8836,7 +8833,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>16</v>
@@ -8881,7 +8878,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>15</v>
@@ -8926,7 +8923,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>15</v>
@@ -8971,7 +8968,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>15</v>
@@ -9016,7 +9013,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>15</v>
@@ -9061,7 +9058,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>15</v>
@@ -9106,7 +9103,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>15</v>
@@ -9151,7 +9148,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -9196,7 +9193,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>15</v>
@@ -9241,7 +9238,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>15</v>
@@ -9268,7 +9265,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>156</v>
@@ -9283,7 +9280,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>15</v>
@@ -9312,7 +9309,7 @@
         <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>156</v>
@@ -9327,7 +9324,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>15</v>
@@ -9356,7 +9353,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>156</v>
@@ -9371,7 +9368,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>15</v>
@@ -9400,7 +9397,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>156</v>
@@ -9415,7 +9412,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>15</v>
@@ -9444,7 +9441,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>156</v>
@@ -9459,7 +9456,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>15</v>
@@ -9506,7 +9503,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>15</v>
@@ -9553,7 +9550,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>15</v>
@@ -9600,7 +9597,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>16</v>
@@ -9644,7 +9641,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>15</v>
@@ -9688,7 +9685,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>15</v>
@@ -9732,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>15</v>
@@ -9776,7 +9773,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>15</v>
@@ -9805,7 +9802,7 @@
         <v>309</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>156</v>
@@ -9820,7 +9817,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>15</v>
@@ -9849,7 +9846,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>156</v>
@@ -9864,7 +9861,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>15</v>
@@ -9893,7 +9890,7 @@
         <v>309</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>156</v>
@@ -9908,7 +9905,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>15</v>
@@ -9937,7 +9934,7 @@
         <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>156</v>
@@ -9952,7 +9949,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -9981,7 +9978,7 @@
         <v>253</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>156</v>
@@ -9996,7 +9993,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>15</v>
@@ -10025,7 +10022,7 @@
         <v>253</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>156</v>
@@ -10040,7 +10037,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>15</v>
@@ -10069,7 +10066,7 @@
         <v>253</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>156</v>
@@ -10084,7 +10081,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>15</v>
@@ -10113,7 +10110,7 @@
         <v>159</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>156</v>
@@ -10128,7 +10125,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>16</v>
@@ -10157,7 +10154,7 @@
         <v>238</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>156</v>
@@ -10172,7 +10169,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>16</v>
@@ -10201,7 +10198,7 @@
         <v>160</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>156</v>
@@ -10216,7 +10213,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>15</v>
@@ -10245,7 +10242,7 @@
         <v>162</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>156</v>
@@ -10260,7 +10257,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>15</v>
@@ -10289,7 +10286,7 @@
         <v>238</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>156</v>
@@ -10304,7 +10301,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>16</v>
@@ -10333,7 +10330,7 @@
         <v>238</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>156</v>
@@ -10348,7 +10345,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>16</v>
@@ -10377,7 +10374,7 @@
         <v>253</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>156</v>
@@ -10392,7 +10389,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>16</v>
@@ -10421,7 +10418,7 @@
         <v>162</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>156</v>
@@ -10436,7 +10433,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>15</v>
@@ -10465,7 +10462,7 @@
         <v>253</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>156</v>
@@ -10480,7 +10477,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>16</v>
@@ -10509,7 +10506,7 @@
         <v>162</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>156</v>
@@ -10524,7 +10521,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>16</v>
@@ -10553,7 +10550,7 @@
         <v>159</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>156</v>
@@ -10568,7 +10565,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>15</v>
@@ -10597,7 +10594,7 @@
         <v>163</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>156</v>
@@ -10612,7 +10609,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>15</v>
@@ -10641,7 +10638,7 @@
         <v>238</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>156</v>
@@ -10656,7 +10653,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>16</v>
@@ -10683,7 +10680,7 @@
         <v>238</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>156</v>
@@ -10698,7 +10695,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>16</v>
@@ -10725,7 +10722,7 @@
         <v>238</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>156</v>
@@ -10740,7 +10737,7 @@
         <v>18</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>16</v>
@@ -10767,7 +10764,7 @@
         <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>156</v>
@@ -10782,7 +10779,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>16</v>
@@ -10811,7 +10808,7 @@
         <v>242</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>156</v>
@@ -10826,7 +10823,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>16</v>
@@ -10855,7 +10852,7 @@
         <v>242</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>156</v>
@@ -10870,7 +10867,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
@@ -10899,7 +10896,7 @@
         <v>159</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>156</v>
@@ -10914,7 +10911,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>16</v>
@@ -10943,7 +10940,7 @@
         <v>161</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>156</v>
@@ -10958,7 +10955,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>16</v>
@@ -10987,7 +10984,7 @@
         <v>253</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>156</v>
@@ -11002,7 +10999,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>16</v>
@@ -11031,7 +11028,7 @@
         <v>161</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>156</v>
@@ -11049,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>399</v>
@@ -11067,13 +11064,13 @@
         <v>1</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W81" s="11">
         <v>1</v>
       </c>
       <c r="X81" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
@@ -11087,7 +11084,7 @@
         <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>156</v>
@@ -11105,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>399</v>
@@ -11120,13 +11117,13 @@
         <v>1</v>
       </c>
       <c r="V82" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W82" s="11">
         <v>0</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
@@ -11140,7 +11137,7 @@
         <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>156</v>
@@ -11158,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>399</v>
@@ -11182,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
@@ -11196,7 +11193,7 @@
         <v>161</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>156</v>
@@ -11214,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>399</v>
@@ -11232,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -11246,7 +11243,7 @@
         <v>161</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>156</v>
@@ -11264,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>399</v>
@@ -11282,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
@@ -11296,7 +11293,7 @@
         <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>156</v>
@@ -11314,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>399</v>
@@ -11332,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
@@ -11346,13 +11343,13 @@
         <v>161</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>89</v>
@@ -11364,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>399</v>
@@ -11385,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="X87" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
@@ -11399,7 +11396,7 @@
         <v>161</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>156</v>
@@ -11417,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>399</v>
@@ -11435,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
@@ -11449,7 +11446,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>156</v>
@@ -11467,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>399</v>
@@ -11488,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -11502,7 +11499,7 @@
         <v>161</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>156</v>
@@ -11520,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>399</v>
@@ -11538,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -11552,7 +11549,7 @@
         <v>161</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>156</v>
@@ -11570,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>399</v>
@@ -11588,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
@@ -11602,7 +11599,7 @@
         <v>161</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>156</v>
@@ -11620,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>399</v>
@@ -11638,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -11652,7 +11649,7 @@
         <v>314</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>156</v>
@@ -11670,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>399</v>
@@ -11695,7 +11692,7 @@
         <v>314</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>156</v>
@@ -11713,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>399</v>
@@ -11738,7 +11735,7 @@
         <v>161</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -11756,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>399</v>
@@ -11781,7 +11778,7 @@
         <v>314</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>156</v>
@@ -11796,7 +11793,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>15</v>
@@ -11821,7 +11818,7 @@
         <v>163</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>156</v>
@@ -11836,7 +11833,7 @@
         <v>30</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>101</v>
@@ -11864,7 +11861,7 @@
         <v>163</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>171</v>
@@ -11876,7 +11873,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>16</v>
@@ -11891,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="V98" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W98" s="11"/>
       <c r="X98" s="12"/>
@@ -11907,7 +11904,7 @@
         <v>238</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>250</v>
@@ -11925,7 +11922,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>15</v>
@@ -11937,7 +11934,7 @@
         <v>16</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W99" s="11">
         <v>1</v>
@@ -11957,7 +11954,7 @@
         <v>238</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>250</v>
@@ -11975,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>16</v>
@@ -12004,7 +12001,7 @@
         <v>161</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>171</v>
@@ -12016,7 +12013,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>399</v>
@@ -12028,7 +12025,7 @@
         <v>283</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W101" s="11"/>
       <c r="X101" s="12"/>
@@ -12044,7 +12041,7 @@
         <v>161</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>171</v>
@@ -12056,7 +12053,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>399</v>
@@ -12068,7 +12065,7 @@
         <v>283</v>
       </c>
       <c r="V102" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W102" s="11"/>
       <c r="X102" s="12"/>
@@ -12084,7 +12081,7 @@
         <v>161</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>171</v>
@@ -12096,7 +12093,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>399</v>
@@ -12108,23 +12105,23 @@
         <v>283</v>
       </c>
       <c r="V103" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W103" s="11"/>
       <c r="X103" s="12"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>171</v>
@@ -12136,7 +12133,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>399</v>
@@ -12152,16 +12149,16 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>171</v>
@@ -12173,7 +12170,7 @@
         <v>30</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>399</v>
@@ -12189,16 +12186,16 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>171</v>
@@ -12210,7 +12207,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>399</v>
@@ -12226,16 +12223,16 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>171</v>
@@ -12247,7 +12244,7 @@
         <v>30</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>399</v>
@@ -12290,7 +12287,7 @@
         <v>30</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>15</v>
@@ -12308,12 +12305,12 @@
         <v>0</v>
       </c>
       <c r="X108" s="11" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>222</v>
@@ -12340,7 +12337,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>15</v>
@@ -12352,13 +12349,13 @@
         <v>283</v>
       </c>
       <c r="V109" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W109" s="11">
         <v>1</v>
       </c>
       <c r="X109" s="11" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
@@ -12372,7 +12369,7 @@
         <v>253</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>156</v>
@@ -12387,7 +12384,7 @@
         <v>30</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>15</v>
@@ -12405,54 +12402,54 @@
         <v>1</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="W110" s="11">
         <v>1</v>
       </c>
       <c r="X110" s="11" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J110">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W111:W10020">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G110">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V110">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J110">
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12469,7 +12466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W110">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12486,7 +12483,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12508,7 +12505,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
         <v>355</v>
@@ -12681,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12698,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12715,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -12728,652 +12725,793 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="13"/>
     <col min="2" max="3" width="10.7109375" style="14"/>
-    <col min="4" max="13" width="10.7109375" style="15"/>
-    <col min="14" max="16384" width="10.7109375" style="13"/>
+    <col min="4" max="15" width="10.7109375" style="15"/>
+    <col min="16" max="16384" width="10.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
-      <c r="K2" s="15" t="s">
-        <v>473</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>456</v>
+        <v>465</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>457</v>
+        <v>466</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>458</v>
+        <v>467</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>459</v>
+        <v>468</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>460</v>
+        <v>469</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>461</v>
+        <v>470</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>462</v>
+        <v>471</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>463</v>
+        <v>472</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -13387,7 +13525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63D056-6B40-4870-9062-EC8F7419AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A89E46-CC09-4603-8E37-254E8160CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="472">
   <si>
     <t>gdp</t>
   </si>
@@ -1071,9 +1071,6 @@
   </si>
   <si>
     <t>mort30y</t>
-  </si>
-  <si>
-    <t>hstarts</t>
   </si>
   <si>
     <t>cpi</t>
@@ -2452,8 +2449,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X110" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:X110" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:X108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="38"/>
     <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="37"/>
@@ -5608,7 +5605,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>89</v>
@@ -7129,7 +7126,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -7141,177 +7138,177 @@
         <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>357</v>
-      </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>366</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>369</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>376</v>
-      </c>
-      <c r="D9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>379</v>
-      </c>
-      <c r="D10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7322,47 +7319,47 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -7375,10 +7372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:X110"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="S103" sqref="S103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="X91" sqref="X91:X92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,7 +7412,7 @@
         <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -7430,7 +7427,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>168</v>
@@ -7445,34 +7442,34 @@
         <v>289</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>413</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="V1" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7504,7 +7501,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>15</v>
@@ -7543,7 +7540,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -7567,7 +7564,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
@@ -7618,7 +7615,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>15</v>
@@ -7663,7 +7660,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>15</v>
@@ -7708,7 +7705,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>15</v>
@@ -7753,7 +7750,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>15</v>
@@ -7798,7 +7795,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>15</v>
@@ -7843,7 +7840,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>15</v>
@@ -7888,7 +7885,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>15</v>
@@ -7933,7 +7930,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>15</v>
@@ -7978,7 +7975,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>15</v>
@@ -8023,7 +8020,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>15</v>
@@ -8068,7 +8065,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -8113,7 +8110,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>15</v>
@@ -8158,7 +8155,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>15</v>
@@ -8203,7 +8200,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>15</v>
@@ -8248,7 +8245,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>15</v>
@@ -8293,7 +8290,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8338,7 +8335,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>15</v>
@@ -8383,7 +8380,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>15</v>
@@ -8428,7 +8425,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>15</v>
@@ -8473,7 +8470,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>15</v>
@@ -8518,7 +8515,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>15</v>
@@ -8563,7 +8560,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>15</v>
@@ -8608,7 +8605,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>15</v>
@@ -8653,7 +8650,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>15</v>
@@ -8698,7 +8695,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>15</v>
@@ -8743,7 +8740,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>15</v>
@@ -8788,7 +8785,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>16</v>
@@ -8833,7 +8830,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>16</v>
@@ -8878,7 +8875,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>15</v>
@@ -8923,7 +8920,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>15</v>
@@ -8968,7 +8965,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>15</v>
@@ -9013,7 +9010,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>15</v>
@@ -9058,7 +9055,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>15</v>
@@ -9103,7 +9100,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>15</v>
@@ -9148,7 +9145,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -9193,7 +9190,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>15</v>
@@ -9238,7 +9235,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>15</v>
@@ -9265,7 +9262,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>156</v>
@@ -9280,7 +9277,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>15</v>
@@ -9309,7 +9306,7 @@
         <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>156</v>
@@ -9324,7 +9321,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>15</v>
@@ -9353,7 +9350,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>156</v>
@@ -9368,7 +9365,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>15</v>
@@ -9397,7 +9394,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>156</v>
@@ -9412,7 +9409,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>15</v>
@@ -9441,7 +9438,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>156</v>
@@ -9456,7 +9453,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>15</v>
@@ -9503,7 +9500,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>15</v>
@@ -9550,7 +9547,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>15</v>
@@ -9597,7 +9594,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>16</v>
@@ -9641,7 +9638,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>15</v>
@@ -9685,7 +9682,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>15</v>
@@ -9729,7 +9726,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>15</v>
@@ -9773,7 +9770,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>15</v>
@@ -9802,7 +9799,7 @@
         <v>309</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>156</v>
@@ -9817,7 +9814,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>15</v>
@@ -9846,7 +9843,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>156</v>
@@ -9861,7 +9858,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>15</v>
@@ -9890,7 +9887,7 @@
         <v>309</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>156</v>
@@ -9905,7 +9902,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>15</v>
@@ -9934,7 +9931,7 @@
         <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>156</v>
@@ -9949,7 +9946,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -9969,31 +9966,31 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>15</v>
@@ -10005,7 +10002,7 @@
         <v>283</v>
       </c>
       <c r="W57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="12" t="s">
         <v>154</v>
@@ -10013,31 +10010,31 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>15</v>
@@ -10057,34 +10054,34 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>316</v>
+        <v>94</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" s="10" t="s">
         <v>16</v>
@@ -10093,7 +10090,7 @@
         <v>283</v>
       </c>
       <c r="W59" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="12" t="s">
         <v>154</v>
@@ -10101,31 +10098,31 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>94</v>
+        <v>333</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>16</v>
@@ -10145,37 +10142,37 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>283</v>
@@ -10189,22 +10186,22 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>285</v>
@@ -10213,7 +10210,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>15</v>
@@ -10233,37 +10230,37 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>283</v>
@@ -10277,22 +10274,22 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>94</v>
@@ -10301,7 +10298,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>16</v>
@@ -10321,31 +10318,31 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>16</v>
@@ -10365,37 +10362,37 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>283</v>
@@ -10409,37 +10406,37 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>283</v>
@@ -10453,31 +10450,31 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>16</v>
@@ -10497,37 +10494,37 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>283</v>
@@ -10541,31 +10538,31 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>15</v>
@@ -10585,66 +10582,64 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W71" s="11">
-        <v>1</v>
-      </c>
+      <c r="W71" s="11"/>
       <c r="X71" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>89</v>
@@ -10653,7 +10648,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>16</v>
@@ -10671,22 +10666,22 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>89</v>
@@ -10695,7 +10690,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>16</v>
@@ -10713,31 +10708,31 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>16</v>
@@ -10748,29 +10743,31 @@
       <c r="N74" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W74" s="11"/>
+      <c r="W74" s="11">
+        <v>1</v>
+      </c>
       <c r="X74" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>94</v>
@@ -10779,7 +10776,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>16</v>
@@ -10799,22 +10796,22 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>242</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>94</v>
@@ -10823,7 +10820,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>16</v>
@@ -10843,22 +10840,22 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>94</v>
@@ -10867,7 +10864,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
@@ -10887,31 +10884,31 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>16</v>
@@ -10931,22 +10928,22 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>89</v>
@@ -10955,7 +10952,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>16</v>
@@ -10975,66 +10972,78 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>338</v>
+        <v>60</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>339</v>
+        <v>28</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>30</v>
+        <v>341</v>
+      </c>
+      <c r="J80" s="10">
+        <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>415</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="M80" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="T80" s="10">
+        <v>1</v>
+      </c>
+      <c r="U80" s="10">
+        <v>1</v>
+      </c>
+      <c r="V80" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="W80" s="11">
         <v>1</v>
       </c>
       <c r="X80" s="12" t="s">
-        <v>154</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>89</v>
@@ -11046,51 +11055,48 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M81" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="T81" s="10">
-        <v>1</v>
       </c>
       <c r="U81" s="10">
         <v>1</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W81" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>89</v>
@@ -11102,48 +11108,51 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M82" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="R82" s="10">
+        <v>1</v>
       </c>
       <c r="U82" s="10">
         <v>1</v>
       </c>
       <c r="V82" s="10" t="s">
-        <v>425</v>
+        <v>171</v>
       </c>
       <c r="W82" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>89</v>
@@ -11155,51 +11164,45 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M83" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="R83" s="10">
-        <v>1</v>
-      </c>
-      <c r="U83" s="10">
-        <v>1</v>
       </c>
       <c r="V83" s="10" t="s">
         <v>171</v>
       </c>
       <c r="W83" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X83" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>89</v>
@@ -11211,10 +11214,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M84" s="10" t="s">
         <v>16</v>
@@ -11229,27 +11232,27 @@
         <v>0</v>
       </c>
       <c r="X84" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>89</v>
@@ -11261,10 +11264,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M85" s="10" t="s">
         <v>16</v>
@@ -11279,27 +11282,27 @@
         <v>0</v>
       </c>
       <c r="X85" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>23</v>
+        <v>407</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>89</v>
@@ -11311,45 +11314,48 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M86" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="U86" s="10">
+        <v>1</v>
       </c>
       <c r="V86" s="10" t="s">
         <v>171</v>
       </c>
       <c r="W86" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>408</v>
+        <v>24</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>89</v>
@@ -11361,48 +11367,45 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M87" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="U87" s="10">
-        <v>1</v>
       </c>
       <c r="V87" s="10" t="s">
         <v>171</v>
       </c>
       <c r="W87" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>89</v>
@@ -11414,16 +11417,19 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M88" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="R88" s="10">
+        <v>1</v>
       </c>
       <c r="V88" s="10" t="s">
         <v>171</v>
@@ -11432,27 +11438,27 @@
         <v>0</v>
       </c>
       <c r="X88" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>89</v>
@@ -11464,19 +11470,16 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M89" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="R89" s="10">
-        <v>1</v>
       </c>
       <c r="V89" s="10" t="s">
         <v>171</v>
@@ -11485,27 +11488,27 @@
         <v>0</v>
       </c>
       <c r="X89" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>89</v>
@@ -11517,10 +11520,10 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M90" s="10" t="s">
         <v>16</v>
@@ -11535,27 +11538,27 @@
         <v>0</v>
       </c>
       <c r="X90" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>89</v>
@@ -11567,10 +11570,10 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M91" s="10" t="s">
         <v>16</v>
@@ -11585,42 +11588,42 @@
         <v>0</v>
       </c>
       <c r="X91" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="J92" s="10">
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M92" s="10" t="s">
         <v>16</v>
@@ -11628,19 +11631,12 @@
       <c r="N92" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="V92" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W92" s="11">
-        <v>0</v>
-      </c>
-      <c r="X92" s="12" t="s">
-        <v>409</v>
-      </c>
+      <c r="W92" s="11"/>
+      <c r="X92" s="12"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>346</v>
@@ -11649,7 +11645,7 @@
         <v>314</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>156</v>
@@ -11661,16 +11657,16 @@
         <v>89</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J93" s="10">
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M93" s="10" t="s">
         <v>16</v>
@@ -11683,16 +11679,16 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>347</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>156</v>
@@ -11704,16 +11700,16 @@
         <v>89</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J94" s="10">
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M94" s="10" t="s">
         <v>16</v>
@@ -11726,16 +11722,16 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>348</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -11744,50 +11740,47 @@
         <v>352</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="J95" s="10">
+        <v>30</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="T95" s="10">
         <v>1</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="L95" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="M95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N95" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="W95" s="11"/>
       <c r="X95" s="12"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>30</v>
@@ -11796,84 +11789,103 @@
         <v>415</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M96" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N96" s="10" t="s">
         <v>283</v>
+      </c>
+      <c r="U96" s="10">
+        <v>1</v>
+      </c>
+      <c r="V96" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="W96" s="11"/>
       <c r="X96" s="12"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>94</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>30</v>
+        <v>341</v>
+      </c>
+      <c r="J97" s="10">
+        <v>1</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="M97" s="10" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="T97" s="10">
+        <v>16</v>
+      </c>
+      <c r="V97" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="W97" s="11">
         <v>1</v>
       </c>
-      <c r="W97" s="11"/>
-      <c r="X97" s="12"/>
+      <c r="X97" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>389</v>
+        <v>58</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>171</v>
+        <v>250</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>30</v>
+        <v>341</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>16</v>
@@ -11884,98 +11896,80 @@
       <c r="N98" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="U98" s="10">
+      <c r="W98" s="11">
         <v>1</v>
       </c>
-      <c r="V98" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="W98" s="11"/>
-      <c r="X98" s="12"/>
+      <c r="X98" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="J99" s="10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="M99" s="10" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="W99" s="11">
-        <v>1</v>
-      </c>
-      <c r="X99" s="12" t="s">
-        <v>154</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="W99" s="11"/>
+      <c r="X99" s="12"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>58</v>
+        <v>396</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="J100" s="10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="M100" s="10" t="s">
         <v>16</v>
@@ -11983,25 +11977,24 @@
       <c r="N100" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W100" s="11">
-        <v>1</v>
-      </c>
-      <c r="X100" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="V100" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="W100" s="11"/>
+      <c r="X100" s="12"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>171</v>
@@ -12013,10 +12006,10 @@
         <v>30</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M101" s="10" t="s">
         <v>16</v>
@@ -12025,23 +12018,23 @@
         <v>283</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W101" s="11"/>
       <c r="X101" s="12"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>171</v>
@@ -12053,35 +12046,32 @@
         <v>30</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M102" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="V102" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="W102" s="11"/>
       <c r="X102" s="12"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>171</v>
@@ -12093,35 +12083,32 @@
         <v>30</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="V103" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="W103" s="11"/>
       <c r="X103" s="12"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>171</v>
@@ -12133,10 +12120,10 @@
         <v>30</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M104" s="10" t="s">
         <v>16</v>
@@ -12149,16 +12136,16 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>171</v>
@@ -12170,10 +12157,10 @@
         <v>30</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M105" s="10" t="s">
         <v>16</v>
@@ -12186,234 +12173,160 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>404</v>
+        <v>217</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>417</v>
+        <v>218</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>399</v>
+        <v>15</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W106" s="11"/>
-      <c r="X106" s="12"/>
+      <c r="V106" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W106" s="11">
+        <v>0</v>
+      </c>
+      <c r="X106" s="11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>417</v>
+        <v>218</v>
+      </c>
+      <c r="E107" s="10">
+        <v>2</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>399</v>
+        <v>15</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N107" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W107" s="11"/>
-      <c r="X107" s="12"/>
+      <c r="V107" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="W107" s="11">
+        <v>1</v>
+      </c>
+      <c r="X107" s="11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" s="10">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N108" s="10" t="s">
         <v>283</v>
       </c>
+      <c r="R108" s="10">
+        <v>1</v>
+      </c>
+      <c r="T108" s="10">
+        <v>1</v>
+      </c>
       <c r="V108" s="10" t="s">
-        <v>171</v>
+        <v>424</v>
       </c>
       <c r="W108" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="10">
-        <v>2</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="L109" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M109" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N109" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V109" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="W109" s="11">
-        <v>1</v>
-      </c>
-      <c r="X109" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="L110" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R110" s="10">
-        <v>1</v>
-      </c>
-      <c r="T110" s="10">
-        <v>1</v>
-      </c>
-      <c r="V110" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="W110" s="11">
-        <v>1</v>
-      </c>
-      <c r="X110" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:J110">
+  <conditionalFormatting sqref="I1:J108">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"q"</formula>
     </cfRule>
@@ -12427,17 +12340,17 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W111:W10020">
+  <conditionalFormatting sqref="W109:W10018">
     <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G110">
+  <conditionalFormatting sqref="G2:G108">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V110">
+  <conditionalFormatting sqref="V2:V108">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
@@ -12448,12 +12361,12 @@
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J110">
+  <conditionalFormatting sqref="J2:J108">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W111:W1048576">
+  <conditionalFormatting sqref="W109:W1048576">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -12465,7 +12378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W110">
+  <conditionalFormatting sqref="W2:W108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
@@ -12496,7 +12409,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -12505,180 +12418,180 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>357</v>
-      </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>366</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>369</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>376</v>
-      </c>
-      <c r="D9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>379</v>
-      </c>
-      <c r="D10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12689,30 +12602,30 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D13" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -12741,777 +12654,777 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>432</v>
-      </c>
       <c r="H1" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="D16" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="G16" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="D17" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="G17" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="D18" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>437</v>
-      </c>
       <c r="G18" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>438</v>
-      </c>
       <c r="E19" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>438</v>
-      </c>
       <c r="E20" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F22" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F23" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F24" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F25" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F26" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F28" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F29" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F30" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F31" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="F32" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A89E46-CC09-4603-8E37-254E8160CB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CD30D-534C-4AC0-A7E0-6745FD58B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2918" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="493">
   <si>
     <t>gdp</t>
   </si>
@@ -1361,9 +1361,6 @@
     <t>inf.d1_strong</t>
   </si>
   <si>
-    <t>tdns.d1.baseline</t>
-  </si>
-  <si>
     <t>2021-06</t>
   </si>
   <si>
@@ -1455,6 +1452,72 @@
   </si>
   <si>
     <t>2023-12</t>
+  </si>
+  <si>
+    <t>spy.d1_strong</t>
+  </si>
+  <si>
+    <t>spy.d1_baseline</t>
+  </si>
+  <si>
+    <t>spy.d1_weak</t>
+  </si>
+  <si>
+    <t>tdns1.d1_baseline</t>
+  </si>
+  <si>
+    <t>tdns1.d1_strong</t>
+  </si>
+  <si>
+    <t>tdns1.d1_weak</t>
+  </si>
+  <si>
+    <t>tdns2.d1_baseline</t>
+  </si>
+  <si>
+    <t>tdns2.d1_strong</t>
+  </si>
+  <si>
+    <t>tdns2.d1_weak</t>
+  </si>
+  <si>
+    <t>tdns3.d1_baseline</t>
+  </si>
+  <si>
+    <t>tdns3.d1_strong</t>
+  </si>
+  <si>
+    <t>tdns3.d1_weak</t>
+  </si>
+  <si>
+    <t>ue.d1_baseline</t>
+  </si>
+  <si>
+    <t>ue.d1_strong</t>
+  </si>
+  <si>
+    <t>ue.d1_weak</t>
+  </si>
+  <si>
+    <t>[cle]</t>
+  </si>
+  <si>
+    <t>[dns]</t>
+  </si>
+  <si>
+    <t>[.003]</t>
+  </si>
+  <si>
+    <t>dpi.st_baseline</t>
+  </si>
+  <si>
+    <t>dpi.st_strong</t>
+  </si>
+  <si>
+    <t>dpi.st_weak</t>
+  </si>
+  <si>
+    <t>[cbo]</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1639,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill>
@@ -1670,6 +1733,76 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2412,23 +2545,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="63"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2441,7 +2574,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="51"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2449,33 +2582,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:X108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="35"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="21"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="20"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="19"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="45"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="34"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2488,7 +2621,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="24"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2794,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41:M57"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6104,10 +6237,10 @@
         <v>15</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>16</v>
+        <v>391</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="M75" s="3" t="b">
         <v>1</v>
@@ -7374,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="X91" sqref="X91:X92"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12340,7 +12473,7 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W109:W10018">
+  <conditionalFormatting sqref="W109:W10017">
     <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
@@ -12396,7 +12529,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12613,7 +12746,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -12638,10 +12771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12649,10 +12782,12 @@
     <col min="1" max="1" width="10.7109375" style="13"/>
     <col min="2" max="3" width="10.7109375" style="14"/>
     <col min="4" max="15" width="10.7109375" style="15"/>
-    <col min="16" max="16384" width="10.7109375" style="13"/>
+    <col min="16" max="25" width="10.7109375" style="13"/>
+    <col min="26" max="26" width="10.7109375" style="15"/>
+    <col min="27" max="16384" width="10.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>426</v>
       </c>
@@ -12681,12 +12816,63 @@
         <v>439</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>435</v>
@@ -12706,12 +12892,67 @@
       <c r="G2" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M2" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>435</v>
@@ -12731,12 +12972,67 @@
       <c r="G3" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M3" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>435</v>
@@ -12756,12 +13052,67 @@
       <c r="G4" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M4" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>435</v>
@@ -12781,12 +13132,67 @@
       <c r="G5" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M5" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>435</v>
@@ -12806,12 +13212,67 @@
       <c r="G6" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K6" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>435</v>
@@ -12831,12 +13292,67 @@
       <c r="G7" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L7" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>435</v>
@@ -12856,12 +13372,67 @@
       <c r="G8" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K8" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L8" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M8" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>435</v>
@@ -12881,12 +13452,67 @@
       <c r="G9" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K9" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L9" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z9" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>435</v>
@@ -12906,12 +13532,67 @@
       <c r="G10" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K10" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M10" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>435</v>
@@ -12931,12 +13612,67 @@
       <c r="G11" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K11" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>435</v>
@@ -12956,12 +13692,67 @@
       <c r="G12" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K12" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M12" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>435</v>
@@ -12981,12 +13772,67 @@
       <c r="G13" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K13" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>435</v>
@@ -13006,12 +13852,67 @@
       <c r="G14" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L14" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M14" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>435</v>
@@ -13031,12 +13932,67 @@
       <c r="G15" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>435</v>
@@ -13056,12 +14012,67 @@
       <c r="G16" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K16" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>435</v>
@@ -13081,10 +14092,67 @@
       <c r="G17" s="17" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>435</v>
@@ -13104,10 +14172,67 @@
       <c r="G18" s="17" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>435</v>
@@ -13127,10 +14252,67 @@
       <c r="G19" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>435</v>
@@ -13150,10 +14332,67 @@
       <c r="G20" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M20" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>435</v>
@@ -13173,10 +14412,67 @@
       <c r="G21" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K21" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L21" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M21" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>435</v>
@@ -13196,10 +14492,67 @@
       <c r="G22" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K22" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M22" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>435</v>
@@ -13219,10 +14572,67 @@
       <c r="G23" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K23" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L23" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M23" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>435</v>
@@ -13242,10 +14652,67 @@
       <c r="G24" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K24" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L24" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M24" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>435</v>
@@ -13265,10 +14732,67 @@
       <c r="G25" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K25" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L25" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M25" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>435</v>
@@ -13288,10 +14812,67 @@
       <c r="G26" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K26" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L26" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M26" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W26" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X26" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>435</v>
@@ -13311,10 +14892,67 @@
       <c r="G27" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K27" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L27" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>435</v>
@@ -13334,10 +14972,67 @@
       <c r="G28" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K28" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L28" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M28" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>435</v>
@@ -13357,10 +15052,67 @@
       <c r="G29" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K29" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L29" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M29" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>435</v>
@@ -13380,10 +15132,67 @@
       <c r="G30" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L30" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M30" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>435</v>
@@ -13403,10 +15212,67 @@
       <c r="G31" s="17" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K31" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L31" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>435</v>
@@ -13425,6 +15291,63 @@
       </c>
       <c r="G32" s="17" t="s">
         <v>437</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="K32" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L32" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M32" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CD30D-534C-4AC0-A7E0-6745FD58B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D04C43-403B-4298-9D14-F32CC49BE61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -1639,173 +1639,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2260,6 +2094,83 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2525,6 +2436,25 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2545,23 +2475,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="63"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2574,7 +2504,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="38"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2582,33 +2512,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:X108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="45"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="34"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="7"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="6"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2621,7 +2551,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7219,17 +7149,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7508,7 +7438,7 @@
   <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="V106" sqref="V106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12460,42 +12390,42 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J108">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W109:W10017">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G108">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V108">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J108">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12512,7 +12442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W108">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D04C43-403B-4298-9D14-F32CC49BE61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C25590-38A1-48F9-BF50-05EFF1004378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -1594,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1621,7 +1621,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1641,6 +1640,18 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1656,20 +1667,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2537,8 +2537,8 @@
     <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="5"/>
     <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="4"/>
     <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2551,7 +2551,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2858,7 +2858,7 @@
   <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7176,7 +7176,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,8 +7437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="V106" sqref="V106"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="11"/>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="11"/>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7690,7 +7690,7 @@
         <v>16</v>
       </c>
       <c r="W4" s="11"/>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
         <v>16</v>
       </c>
       <c r="W5" s="11"/>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
         <v>16</v>
       </c>
       <c r="W6" s="11"/>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
         <v>16</v>
       </c>
       <c r="W7" s="11"/>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
         <v>16</v>
       </c>
       <c r="W8" s="11"/>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
         <v>16</v>
       </c>
       <c r="W9" s="11"/>
-      <c r="X9" s="12" t="s">
+      <c r="X9" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
         <v>16</v>
       </c>
       <c r="W10" s="11"/>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8005,7 +8005,7 @@
         <v>16</v>
       </c>
       <c r="W11" s="11"/>
-      <c r="X11" s="12" t="s">
+      <c r="X11" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
         <v>16</v>
       </c>
       <c r="W12" s="11"/>
-      <c r="X12" s="12" t="s">
+      <c r="X12" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
         <v>16</v>
       </c>
       <c r="W13" s="11"/>
-      <c r="X13" s="12" t="s">
+      <c r="X13" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
         <v>16</v>
       </c>
       <c r="W14" s="11"/>
-      <c r="X14" s="12" t="s">
+      <c r="X14" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
         <v>16</v>
       </c>
       <c r="W15" s="11"/>
-      <c r="X15" s="12" t="s">
+      <c r="X15" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
         <v>16</v>
       </c>
       <c r="W16" s="11"/>
-      <c r="X16" s="12" t="s">
+      <c r="X16" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
         <v>16</v>
       </c>
       <c r="W17" s="11"/>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
         <v>16</v>
       </c>
       <c r="W18" s="11"/>
-      <c r="X18" s="12" t="s">
+      <c r="X18" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>16</v>
       </c>
       <c r="W19" s="11"/>
-      <c r="X19" s="12" t="s">
+      <c r="X19" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
         <v>16</v>
       </c>
       <c r="W20" s="11"/>
-      <c r="X20" s="12" t="s">
+      <c r="X20" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
         <v>16</v>
       </c>
       <c r="W21" s="11"/>
-      <c r="X21" s="12" t="s">
+      <c r="X21" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
         <v>16</v>
       </c>
       <c r="W22" s="11"/>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
         <v>16</v>
       </c>
       <c r="W23" s="11"/>
-      <c r="X23" s="12" t="s">
+      <c r="X23" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8590,7 +8590,7 @@
         <v>16</v>
       </c>
       <c r="W24" s="11"/>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
         <v>16</v>
       </c>
       <c r="W25" s="11"/>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
         <v>16</v>
       </c>
       <c r="W26" s="11"/>
-      <c r="X26" s="12" t="s">
+      <c r="X26" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
         <v>16</v>
       </c>
       <c r="W27" s="11"/>
-      <c r="X27" s="12" t="s">
+      <c r="X27" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
         <v>16</v>
       </c>
       <c r="W28" s="11"/>
-      <c r="X28" s="12" t="s">
+      <c r="X28" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
         <v>16</v>
       </c>
       <c r="W29" s="11"/>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
         <v>16</v>
       </c>
       <c r="W30" s="11"/>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8905,7 +8905,7 @@
         <v>16</v>
       </c>
       <c r="W31" s="11"/>
-      <c r="X31" s="12" t="s">
+      <c r="X31" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8950,7 +8950,7 @@
         <v>16</v>
       </c>
       <c r="W32" s="11"/>
-      <c r="X32" s="12" t="s">
+      <c r="X32" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
         <v>16</v>
       </c>
       <c r="W33" s="11"/>
-      <c r="X33" s="12" t="s">
+      <c r="X33" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
         <v>16</v>
       </c>
       <c r="W34" s="11"/>
-      <c r="X34" s="12" t="s">
+      <c r="X34" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>16</v>
       </c>
       <c r="W35" s="11"/>
-      <c r="X35" s="12" t="s">
+      <c r="X35" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
         <v>16</v>
       </c>
       <c r="W36" s="11"/>
-      <c r="X36" s="12" t="s">
+      <c r="X36" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
         <v>16</v>
       </c>
       <c r="W37" s="11"/>
-      <c r="X37" s="12" t="s">
+      <c r="X37" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>16</v>
       </c>
       <c r="W38" s="11"/>
-      <c r="X38" s="12" t="s">
+      <c r="X38" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9265,7 +9265,7 @@
         <v>16</v>
       </c>
       <c r="W39" s="11"/>
-      <c r="X39" s="12" t="s">
+      <c r="X39" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
       <c r="W40" s="11"/>
-      <c r="X40" s="12" t="s">
+      <c r="X40" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="W41" s="11">
         <v>1</v>
       </c>
-      <c r="X41" s="12" t="s">
+      <c r="X41" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
       <c r="W42" s="11">
         <v>0</v>
       </c>
-      <c r="X42" s="12" t="s">
+      <c r="X42" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9442,7 +9442,7 @@
       <c r="W43" s="11">
         <v>0</v>
       </c>
-      <c r="X43" s="12" t="s">
+      <c r="X43" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9486,7 +9486,7 @@
       <c r="W44" s="11">
         <v>0</v>
       </c>
-      <c r="X44" s="12" t="s">
+      <c r="X44" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9530,7 +9530,7 @@
       <c r="W45" s="11">
         <v>0</v>
       </c>
-      <c r="X45" s="12" t="s">
+      <c r="X45" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       <c r="W46" s="11">
         <v>0</v>
       </c>
-      <c r="X46" s="12" t="s">
+      <c r="X46" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
       <c r="W47" s="11">
         <v>0</v>
       </c>
-      <c r="X47" s="12" t="s">
+      <c r="X47" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       <c r="W48" s="11">
         <v>0</v>
       </c>
-      <c r="X48" s="12" t="s">
+      <c r="X48" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       <c r="W49" s="11">
         <v>1</v>
       </c>
-      <c r="X49" s="12" t="s">
+      <c r="X49" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
       <c r="W50" s="11">
         <v>1</v>
       </c>
-      <c r="X50" s="12" t="s">
+      <c r="X50" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
       <c r="W51" s="11">
         <v>1</v>
       </c>
-      <c r="X51" s="12" t="s">
+      <c r="X51" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       <c r="W52" s="11">
         <v>1</v>
       </c>
-      <c r="X52" s="12" t="s">
+      <c r="X52" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       <c r="W53" s="11">
         <v>1</v>
       </c>
-      <c r="X53" s="12" t="s">
+      <c r="X53" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9935,7 +9935,7 @@
       <c r="W54" s="11">
         <v>1</v>
       </c>
-      <c r="X54" s="12" t="s">
+      <c r="X54" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9979,7 +9979,7 @@
       <c r="W55" s="11">
         <v>1</v>
       </c>
-      <c r="X55" s="12" t="s">
+      <c r="X55" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
       <c r="W56" s="11">
         <v>1</v>
       </c>
-      <c r="X56" s="12" t="s">
+      <c r="X56" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
       <c r="W57" s="11">
         <v>0</v>
       </c>
-      <c r="X57" s="12" t="s">
+      <c r="X57" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       <c r="W58" s="11">
         <v>0</v>
       </c>
-      <c r="X58" s="12" t="s">
+      <c r="X58" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       <c r="W59" s="11">
         <v>1</v>
       </c>
-      <c r="X59" s="12" t="s">
+      <c r="X59" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       <c r="W60" s="11">
         <v>1</v>
       </c>
-      <c r="X60" s="12" t="s">
+      <c r="X60" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
       <c r="W61" s="11">
         <v>1</v>
       </c>
-      <c r="X61" s="12" t="s">
+      <c r="X61" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
       <c r="W62" s="11">
         <v>1</v>
       </c>
-      <c r="X62" s="12" t="s">
+      <c r="X62" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       <c r="W63" s="11">
         <v>1</v>
       </c>
-      <c r="X63" s="12" t="s">
+      <c r="X63" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10375,7 +10375,7 @@
       <c r="W64" s="11">
         <v>1</v>
       </c>
-      <c r="X64" s="12" t="s">
+      <c r="X64" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10419,7 +10419,7 @@
       <c r="W65" s="11">
         <v>1</v>
       </c>
-      <c r="X65" s="12" t="s">
+      <c r="X65" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="W66" s="11">
         <v>1</v>
       </c>
-      <c r="X66" s="12" t="s">
+      <c r="X66" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10507,7 +10507,7 @@
       <c r="W67" s="11">
         <v>1</v>
       </c>
-      <c r="X67" s="12" t="s">
+      <c r="X67" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="W68" s="11">
         <v>1</v>
       </c>
-      <c r="X68" s="12" t="s">
+      <c r="X68" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       <c r="W69" s="11">
         <v>1</v>
       </c>
-      <c r="X69" s="12" t="s">
+      <c r="X69" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       <c r="W70" s="11">
         <v>1</v>
       </c>
-      <c r="X70" s="12" t="s">
+      <c r="X70" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
         <v>283</v>
       </c>
       <c r="W71" s="11"/>
-      <c r="X71" s="12" t="s">
+      <c r="X71" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
         <v>283</v>
       </c>
       <c r="W72" s="11"/>
-      <c r="X72" s="12" t="s">
+      <c r="X72" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
         <v>283</v>
       </c>
       <c r="W73" s="11"/>
-      <c r="X73" s="12" t="s">
+      <c r="X73" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       <c r="W74" s="11">
         <v>1</v>
       </c>
-      <c r="X74" s="12" t="s">
+      <c r="X74" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10853,7 +10853,7 @@
       <c r="W75" s="11">
         <v>1</v>
       </c>
-      <c r="X75" s="12" t="s">
+      <c r="X75" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10897,7 +10897,7 @@
       <c r="W76" s="11">
         <v>1</v>
       </c>
-      <c r="X76" s="12" t="s">
+      <c r="X76" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       <c r="W77" s="11">
         <v>1</v>
       </c>
-      <c r="X77" s="12" t="s">
+      <c r="X77" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="W78" s="11">
         <v>1</v>
       </c>
-      <c r="X78" s="12" t="s">
+      <c r="X78" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       <c r="W79" s="11">
         <v>1</v>
       </c>
-      <c r="X79" s="12" t="s">
+      <c r="X79" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       <c r="W80" s="11">
         <v>1</v>
       </c>
-      <c r="X80" s="12" t="s">
+      <c r="X80" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
       <c r="W81" s="11">
         <v>0</v>
       </c>
-      <c r="X81" s="12" t="s">
+      <c r="X81" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
       <c r="W82" s="11">
         <v>1</v>
       </c>
-      <c r="X82" s="12" t="s">
+      <c r="X82" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
       <c r="W83" s="11">
         <v>0</v>
       </c>
-      <c r="X83" s="12" t="s">
+      <c r="X83" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11294,7 +11294,7 @@
       <c r="W84" s="11">
         <v>0</v>
       </c>
-      <c r="X84" s="12" t="s">
+      <c r="X84" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       <c r="W85" s="11">
         <v>0</v>
       </c>
-      <c r="X85" s="12" t="s">
+      <c r="X85" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       <c r="W86" s="11">
         <v>1</v>
       </c>
-      <c r="X86" s="12" t="s">
+      <c r="X86" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       <c r="W87" s="11">
         <v>0</v>
       </c>
-      <c r="X87" s="12" t="s">
+      <c r="X87" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11500,7 +11500,7 @@
       <c r="W88" s="11">
         <v>0</v>
       </c>
-      <c r="X88" s="12" t="s">
+      <c r="X88" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       <c r="W89" s="11">
         <v>0</v>
       </c>
-      <c r="X89" s="12" t="s">
+      <c r="X89" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11600,7 +11600,7 @@
       <c r="W90" s="11">
         <v>0</v>
       </c>
-      <c r="X90" s="12" t="s">
+      <c r="X90" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       <c r="W91" s="11">
         <v>0</v>
       </c>
-      <c r="X91" s="12" t="s">
+      <c r="X91" s="11" t="s">
         <v>408</v>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
         <v>283</v>
       </c>
       <c r="W92" s="11"/>
-      <c r="X92" s="12"/>
+      <c r="X92" s="11"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -11738,7 +11738,7 @@
         <v>283</v>
       </c>
       <c r="W93" s="11"/>
-      <c r="X93" s="12"/>
+      <c r="X93" s="11"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
@@ -11781,7 +11781,7 @@
         <v>283</v>
       </c>
       <c r="W94" s="11"/>
-      <c r="X94" s="12"/>
+      <c r="X94" s="11"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
@@ -11824,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="W95" s="11"/>
-      <c r="X95" s="12"/>
+      <c r="X95" s="11"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -11867,7 +11867,7 @@
         <v>424</v>
       </c>
       <c r="W96" s="11"/>
-      <c r="X96" s="12"/>
+      <c r="X96" s="11"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
@@ -11915,7 +11915,7 @@
       <c r="W97" s="11">
         <v>1</v>
       </c>
-      <c r="X97" s="12" t="s">
+      <c r="X97" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       <c r="W98" s="11">
         <v>1</v>
       </c>
-      <c r="X98" s="12" t="s">
+      <c r="X98" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
         <v>424</v>
       </c>
       <c r="W99" s="11"/>
-      <c r="X99" s="12"/>
+      <c r="X99" s="11"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
@@ -12044,7 +12044,7 @@
         <v>424</v>
       </c>
       <c r="W100" s="11"/>
-      <c r="X100" s="12"/>
+      <c r="X100" s="11"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -12084,7 +12084,7 @@
         <v>424</v>
       </c>
       <c r="W101" s="11"/>
-      <c r="X101" s="12"/>
+      <c r="X101" s="11"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
@@ -12121,7 +12121,7 @@
         <v>283</v>
       </c>
       <c r="W102" s="11"/>
-      <c r="X102" s="12"/>
+      <c r="X102" s="11"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
@@ -12158,7 +12158,7 @@
         <v>283</v>
       </c>
       <c r="W103" s="11"/>
-      <c r="X103" s="12"/>
+      <c r="X103" s="11"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -12195,7 +12195,7 @@
         <v>283</v>
       </c>
       <c r="W104" s="11"/>
-      <c r="X104" s="12"/>
+      <c r="X104" s="11"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
@@ -12232,7 +12232,7 @@
         <v>283</v>
       </c>
       <c r="W105" s="11"/>
-      <c r="X105" s="12"/>
+      <c r="X105" s="11"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
@@ -12709,2574 +12709,2574 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="13"/>
-    <col min="2" max="3" width="10.7109375" style="14"/>
-    <col min="4" max="15" width="10.7109375" style="15"/>
-    <col min="16" max="25" width="10.7109375" style="13"/>
-    <col min="26" max="26" width="10.7109375" style="15"/>
-    <col min="27" max="16384" width="10.7109375" style="13"/>
+    <col min="1" max="1" width="10.7109375" style="12"/>
+    <col min="2" max="3" width="10.7109375" style="13"/>
+    <col min="4" max="15" width="10.7109375" style="14"/>
+    <col min="16" max="25" width="10.7109375" style="12"/>
+    <col min="26" max="26" width="10.7109375" style="14"/>
+    <col min="27" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W2" s="15" t="s">
+      <c r="N2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W3" s="15" t="s">
+      <c r="N3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W3" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W4" s="15" t="s">
+      <c r="N4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W5" s="15" t="s">
+      <c r="N5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W6" s="15" t="s">
+      <c r="N6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W6" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W7" s="15" t="s">
+      <c r="N7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W7" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W8" s="15" t="s">
+      <c r="N8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W8" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V9" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W9" s="15" t="s">
+      <c r="N9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W9" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z9" s="15" t="s">
+      <c r="Z9" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W10" s="15" t="s">
+      <c r="N10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W10" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Y10" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Z10" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W11" s="15" t="s">
+      <c r="N11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W11" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y11" s="15" t="s">
+      <c r="Y11" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z11" s="15" t="s">
+      <c r="Z11" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W12" s="15" t="s">
+      <c r="N12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W12" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z12" s="15" t="s">
+      <c r="Z12" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V13" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W13" s="15" t="s">
+      <c r="N13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W13" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y13" s="15" t="s">
+      <c r="Y13" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V14" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W14" s="15" t="s">
+      <c r="N14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W14" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="X14" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y14" s="15" t="s">
+      <c r="Y14" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z14" s="15" t="s">
+      <c r="Z14" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V15" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W15" s="15" t="s">
+      <c r="N15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W15" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="X15" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y15" s="15" t="s">
+      <c r="Y15" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z15" s="15" t="s">
+      <c r="Z15" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W16" s="15" t="s">
+      <c r="N16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W16" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="X16" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y16" s="15" t="s">
+      <c r="Y16" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z16" s="15" t="s">
+      <c r="Z16" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V17" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W17" s="15" t="s">
+      <c r="N17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W17" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y17" s="15" t="s">
+      <c r="Y17" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z17" s="15" t="s">
+      <c r="Z17" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V18" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W18" s="15" t="s">
+      <c r="N18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W18" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X18" s="15" t="s">
+      <c r="X18" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y18" s="15" t="s">
+      <c r="Y18" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z18" s="15" t="s">
+      <c r="Z18" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W19" s="15" t="s">
+      <c r="N19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W19" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X19" s="15" t="s">
+      <c r="X19" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y19" s="15" t="s">
+      <c r="Y19" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z19" s="15" t="s">
+      <c r="Z19" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W20" s="15" t="s">
+      <c r="N20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W20" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X20" s="15" t="s">
+      <c r="X20" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y20" s="15" t="s">
+      <c r="Y20" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z20" s="15" t="s">
+      <c r="Z20" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V21" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W21" s="15" t="s">
+      <c r="N21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W21" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y21" s="15" t="s">
+      <c r="Y21" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z21" s="15" t="s">
+      <c r="Z21" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V22" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W22" s="15" t="s">
+      <c r="N22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W22" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y22" s="15" t="s">
+      <c r="Y22" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z22" s="15" t="s">
+      <c r="Z22" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W23" s="15" t="s">
+      <c r="N23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W23" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="X23" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y23" s="15" t="s">
+      <c r="Y23" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z23" s="15" t="s">
+      <c r="Z23" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V24" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W24" s="15" t="s">
+      <c r="N24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W24" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X24" s="15" t="s">
+      <c r="X24" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y24" s="15" t="s">
+      <c r="Y24" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z24" s="15" t="s">
+      <c r="Z24" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V25" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W25" s="15" t="s">
+      <c r="N25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W25" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X25" s="15" t="s">
+      <c r="X25" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y25" s="15" t="s">
+      <c r="Y25" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z25" s="15" t="s">
+      <c r="Z25" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W26" s="15" t="s">
+      <c r="N26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W26" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X26" s="15" t="s">
+      <c r="X26" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y26" s="15" t="s">
+      <c r="Y26" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z26" s="15" t="s">
+      <c r="Z26" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V27" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W27" s="15" t="s">
+      <c r="N27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V27" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W27" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z27" s="15" t="s">
+      <c r="Z27" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V28" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W28" s="15" t="s">
+      <c r="N28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V28" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W28" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X28" s="15" t="s">
+      <c r="X28" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z28" s="15" t="s">
+      <c r="Z28" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V29" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W29" s="15" t="s">
+      <c r="N29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W29" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X29" s="15" t="s">
+      <c r="X29" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y29" s="15" t="s">
+      <c r="Y29" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z29" s="15" t="s">
+      <c r="Z29" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V30" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W30" s="15" t="s">
+      <c r="N30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W30" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X30" s="15" t="s">
+      <c r="X30" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y30" s="15" t="s">
+      <c r="Y30" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z30" s="15" t="s">
+      <c r="Z30" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W31" s="15" t="s">
+      <c r="N31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W31" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X31" s="15" t="s">
+      <c r="X31" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y31" s="15" t="s">
+      <c r="Y31" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z31" s="15" t="s">
+      <c r="Z31" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="T32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="V32" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="W32" s="15" t="s">
+      <c r="N32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="W32" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="X32" s="15" t="s">
+      <c r="X32" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Y32" s="15" t="s">
+      <c r="Y32" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="Z32" s="15" t="s">
+      <c r="Z32" s="14" t="s">
         <v>492</v>
       </c>
     </row>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C25590-38A1-48F9-BF50-05EFF1004378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA367E-6734-4147-8379-6B9AED5DD927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="550">
   <si>
     <t>gdp</t>
   </si>
@@ -1319,15 +1319,9 @@
     <t>disporder</t>
   </si>
   <si>
-    <t>ffr.d1_baseline</t>
-  </si>
-  <si>
     <t>ffr.d1_strong</t>
   </si>
   <si>
-    <t>sofr.d1_baseline</t>
-  </si>
-  <si>
     <t>ffr.d1_weak</t>
   </si>
   <si>
@@ -1343,21 +1337,6 @@
     <t>Market-Expected Forecast</t>
   </si>
   <si>
-    <t>[cme]+.50</t>
-  </si>
-  <si>
-    <t>[cme]</t>
-  </si>
-  <si>
-    <t>[cme]+.25</t>
-  </si>
-  <si>
-    <t>[cme]-.25</t>
-  </si>
-  <si>
-    <t>inf.d1_baseline</t>
-  </si>
-  <si>
     <t>inf.d1_strong</t>
   </si>
   <si>
@@ -1457,67 +1436,259 @@
     <t>spy.d1_strong</t>
   </si>
   <si>
-    <t>spy.d1_baseline</t>
-  </si>
-  <si>
     <t>spy.d1_weak</t>
   </si>
   <si>
-    <t>tdns1.d1_baseline</t>
-  </si>
-  <si>
     <t>tdns1.d1_strong</t>
   </si>
   <si>
     <t>tdns1.d1_weak</t>
   </si>
   <si>
-    <t>tdns2.d1_baseline</t>
-  </si>
-  <si>
     <t>tdns2.d1_strong</t>
   </si>
   <si>
     <t>tdns2.d1_weak</t>
   </si>
   <si>
-    <t>tdns3.d1_baseline</t>
-  </si>
-  <si>
     <t>tdns3.d1_strong</t>
   </si>
   <si>
     <t>tdns3.d1_weak</t>
   </si>
   <si>
-    <t>ue.d1_baseline</t>
-  </si>
-  <si>
     <t>ue.d1_strong</t>
   </si>
   <si>
     <t>ue.d1_weak</t>
   </si>
   <si>
-    <t>[cle]</t>
-  </si>
-  <si>
-    <t>[dns]</t>
-  </si>
-  <si>
-    <t>[.003]</t>
-  </si>
-  <si>
-    <t>dpi.st_baseline</t>
-  </si>
-  <si>
     <t>dpi.st_strong</t>
   </si>
   <si>
     <t>dpi.st_weak</t>
   </si>
   <si>
-    <t>[cbo]</t>
+    <t>[b]</t>
+  </si>
+  <si>
+    <t>[b]+.25</t>
+  </si>
+  <si>
+    <t>[b]+.50</t>
+  </si>
+  <si>
+    <t>[b]-.25</t>
+  </si>
+  <si>
+    <t>[b] - .001</t>
+  </si>
+  <si>
+    <t>[b] + .001</t>
+  </si>
+  <si>
+    <t>[b] + .03</t>
+  </si>
+  <si>
+    <t>[b] + .11</t>
+  </si>
+  <si>
+    <t>[b] + .21</t>
+  </si>
+  <si>
+    <t>[b] + .31</t>
+  </si>
+  <si>
+    <t>[b] - .01</t>
+  </si>
+  <si>
+    <t>[b] + .02</t>
+  </si>
+  <si>
+    <t>[b] - .02</t>
+  </si>
+  <si>
+    <t>[b] - .03</t>
+  </si>
+  <si>
+    <t>[b] - .04</t>
+  </si>
+  <si>
+    <t>[b] - .07</t>
+  </si>
+  <si>
+    <t>[b] - .10</t>
+  </si>
+  <si>
+    <t>[b] - .11</t>
+  </si>
+  <si>
+    <t>[b] - .12</t>
+  </si>
+  <si>
+    <t>[b] - .13</t>
+  </si>
+  <si>
+    <t>[b] - .14</t>
+  </si>
+  <si>
+    <t>[b] - .15</t>
+  </si>
+  <si>
+    <t>[b] - .16</t>
+  </si>
+  <si>
+    <t>[b] - .17</t>
+  </si>
+  <si>
+    <t>[b] - .18</t>
+  </si>
+  <si>
+    <t>[b] - .19</t>
+  </si>
+  <si>
+    <t>[b] - .20</t>
+  </si>
+  <si>
+    <t>[b] - .21</t>
+  </si>
+  <si>
+    <t>[b] - .22</t>
+  </si>
+  <si>
+    <t>[b] - .23</t>
+  </si>
+  <si>
+    <t>[b] - .24</t>
+  </si>
+  <si>
+    <t>[b] - .25</t>
+  </si>
+  <si>
+    <t>[b] - .26</t>
+  </si>
+  <si>
+    <t>[b] - .27</t>
+  </si>
+  <si>
+    <t>[b] - .28</t>
+  </si>
+  <si>
+    <t>[b] - .29</t>
+  </si>
+  <si>
+    <t>[b] - .30</t>
+  </si>
+  <si>
+    <t>[b] - .31</t>
+  </si>
+  <si>
+    <t>[b] - .32</t>
+  </si>
+  <si>
+    <t>[b] - .33</t>
+  </si>
+  <si>
+    <t>[b] - .34</t>
+  </si>
+  <si>
+    <t>[b] - .35</t>
+  </si>
+  <si>
+    <t>[b] + .1</t>
+  </si>
+  <si>
+    <t>[b] + .41</t>
+  </si>
+  <si>
+    <t>[b] + .51</t>
+  </si>
+  <si>
+    <t>[b] + .61</t>
+  </si>
+  <si>
+    <t>[b] + .71</t>
+  </si>
+  <si>
+    <t>[b] + .81</t>
+  </si>
+  <si>
+    <t>[b] + .91</t>
+  </si>
+  <si>
+    <t>[b] + .101</t>
+  </si>
+  <si>
+    <t>[b] + .111</t>
+  </si>
+  <si>
+    <t>[b] + .121</t>
+  </si>
+  <si>
+    <t>[b] + .131</t>
+  </si>
+  <si>
+    <t>[b] + .141</t>
+  </si>
+  <si>
+    <t>[b] + .151</t>
+  </si>
+  <si>
+    <t>[b] + .161</t>
+  </si>
+  <si>
+    <t>[b] + .171</t>
+  </si>
+  <si>
+    <t>[b] + .181</t>
+  </si>
+  <si>
+    <t>[b] + .191</t>
+  </si>
+  <si>
+    <t>[b] + .201</t>
+  </si>
+  <si>
+    <t>[b] + .211</t>
+  </si>
+  <si>
+    <t>[b] + .221</t>
+  </si>
+  <si>
+    <t>[b] + .231</t>
+  </si>
+  <si>
+    <t>[b] + .241</t>
+  </si>
+  <si>
+    <t>[b] + .251</t>
+  </si>
+  <si>
+    <t>[b] + .261</t>
+  </si>
+  <si>
+    <t>[b] + .271</t>
+  </si>
+  <si>
+    <t>[b] + .281</t>
+  </si>
+  <si>
+    <t>[b] + .291</t>
+  </si>
+  <si>
+    <t>core_structural</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>core.endog</t>
+  </si>
+  <si>
+    <t>core.exog</t>
+  </si>
+  <si>
+    <t>post.exog</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1809,208 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1667,9 +2039,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2094,11 +2463,9 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color theme="9"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2110,65 +2477,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2436,25 +2750,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2475,23 +2770,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2504,7 +2799,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="57"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2512,33 +2807,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:X108" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:X108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y108" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:Y108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="47"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="33"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="32"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="31"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2551,7 +2847,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="56"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2857,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7149,17 +7445,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7435,10 +7731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+      <selection activeCell="Y104" sqref="Y104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,10 +7754,11 @@
     <col min="18" max="21" width="4.7109375" style="10" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="10" customWidth="1"/>
     <col min="23" max="24" width="9.140625" style="10"/>
-    <col min="25" max="16384" width="9.140625" style="9"/>
+    <col min="25" max="25" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -7534,8 +7831,11 @@
       <c r="X1" s="7" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7597,8 +7897,11 @@
       <c r="X2" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -7648,8 +7951,11 @@
       <c r="X3" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -7693,8 +7999,11 @@
       <c r="X4" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>129</v>
       </c>
@@ -7738,8 +8047,11 @@
       <c r="X5" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -7783,8 +8095,11 @@
       <c r="X6" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>248</v>
       </c>
@@ -7828,8 +8143,11 @@
       <c r="X7" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
@@ -7873,8 +8191,11 @@
       <c r="X8" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>246</v>
       </c>
@@ -7918,8 +8239,11 @@
       <c r="X9" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>128</v>
       </c>
@@ -7963,8 +8287,11 @@
       <c r="X10" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -8008,8 +8335,11 @@
       <c r="X11" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>177</v>
       </c>
@@ -8053,8 +8383,11 @@
       <c r="X12" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>178</v>
       </c>
@@ -8098,8 +8431,11 @@
       <c r="X13" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>179</v>
       </c>
@@ -8143,8 +8479,11 @@
       <c r="X14" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
@@ -8188,8 +8527,11 @@
       <c r="X15" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -8233,8 +8575,11 @@
       <c r="X16" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>135</v>
       </c>
@@ -8278,8 +8623,11 @@
       <c r="X17" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>199</v>
       </c>
@@ -8323,8 +8671,11 @@
       <c r="X18" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
@@ -8368,8 +8719,11 @@
       <c r="X19" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>132</v>
       </c>
@@ -8413,8 +8767,11 @@
       <c r="X20" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -8458,8 +8815,11 @@
       <c r="X21" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>133</v>
       </c>
@@ -8503,8 +8863,11 @@
       <c r="X22" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>138</v>
       </c>
@@ -8548,8 +8911,11 @@
       <c r="X23" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -8593,8 +8959,11 @@
       <c r="X24" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>198</v>
       </c>
@@ -8638,8 +9007,11 @@
       <c r="X25" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>200</v>
       </c>
@@ -8683,8 +9055,11 @@
       <c r="X26" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>201</v>
       </c>
@@ -8728,8 +9103,11 @@
       <c r="X27" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>202</v>
       </c>
@@ -8773,8 +9151,11 @@
       <c r="X28" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>140</v>
       </c>
@@ -8818,8 +9199,11 @@
       <c r="X29" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -8863,8 +9247,11 @@
       <c r="X30" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>144</v>
       </c>
@@ -8908,8 +9295,11 @@
       <c r="X31" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>146</v>
       </c>
@@ -8953,8 +9343,11 @@
       <c r="X32" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>209</v>
       </c>
@@ -8998,8 +9391,11 @@
       <c r="X33" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>210</v>
       </c>
@@ -9043,8 +9439,11 @@
       <c r="X34" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>147</v>
       </c>
@@ -9088,8 +9487,11 @@
       <c r="X35" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>211</v>
       </c>
@@ -9133,8 +9535,11 @@
       <c r="X36" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>212</v>
       </c>
@@ -9178,8 +9583,11 @@
       <c r="X37" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -9223,8 +9631,11 @@
       <c r="X38" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>149</v>
       </c>
@@ -9268,8 +9679,11 @@
       <c r="X39" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>150</v>
       </c>
@@ -9313,8 +9727,11 @@
       <c r="X40" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>183</v>
       </c>
@@ -9357,8 +9774,11 @@
       <c r="X41" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>184</v>
       </c>
@@ -9401,8 +9821,11 @@
       <c r="X42" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
@@ -9445,8 +9868,11 @@
       <c r="X43" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>186</v>
       </c>
@@ -9489,8 +9915,11 @@
       <c r="X44" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>187</v>
       </c>
@@ -9533,8 +9962,11 @@
       <c r="X45" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>219</v>
       </c>
@@ -9580,8 +10012,11 @@
       <c r="X46" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>224</v>
       </c>
@@ -9627,8 +10062,11 @@
       <c r="X47" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>226</v>
       </c>
@@ -9674,8 +10112,11 @@
       <c r="X48" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>31</v>
       </c>
@@ -9712,14 +10153,20 @@
       <c r="N49" s="10" t="s">
         <v>283</v>
       </c>
+      <c r="V49" s="10" t="s">
+        <v>424</v>
+      </c>
       <c r="W49" s="11">
         <v>1</v>
       </c>
       <c r="X49" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>298</v>
       </c>
@@ -9762,8 +10209,11 @@
       <c r="X50" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>312</v>
       </c>
@@ -9806,8 +10256,11 @@
       <c r="X51" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>323</v>
       </c>
@@ -9850,8 +10303,11 @@
       <c r="X52" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>317</v>
       </c>
@@ -9894,8 +10350,11 @@
       <c r="X53" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>319</v>
       </c>
@@ -9938,8 +10397,11 @@
       <c r="X54" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>307</v>
       </c>
@@ -9982,8 +10444,11 @@
       <c r="X55" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
@@ -10026,8 +10491,11 @@
       <c r="X56" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>302</v>
       </c>
@@ -10070,8 +10538,11 @@
       <c r="X57" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>327</v>
       </c>
@@ -10114,8 +10585,11 @@
       <c r="X58" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>37</v>
       </c>
@@ -10158,8 +10632,11 @@
       <c r="X59" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>330</v>
       </c>
@@ -10202,8 +10679,11 @@
       <c r="X60" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>41</v>
       </c>
@@ -10246,8 +10726,11 @@
       <c r="X61" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
@@ -10290,8 +10773,11 @@
       <c r="X62" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
@@ -10334,8 +10820,11 @@
       <c r="X63" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>49</v>
       </c>
@@ -10378,8 +10867,11 @@
       <c r="X64" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -10422,8 +10914,11 @@
       <c r="X65" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
@@ -10466,8 +10961,11 @@
       <c r="X66" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>54</v>
       </c>
@@ -10510,8 +11008,11 @@
       <c r="X67" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -10554,8 +11055,11 @@
       <c r="X68" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>231</v>
       </c>
@@ -10598,8 +11102,11 @@
       <c r="X69" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>96</v>
       </c>
@@ -10642,8 +11149,11 @@
       <c r="X70" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>232</v>
       </c>
@@ -10684,8 +11194,11 @@
       <c r="X71" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>234</v>
       </c>
@@ -10726,8 +11239,11 @@
       <c r="X72" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>236</v>
       </c>
@@ -10768,8 +11284,11 @@
       <c r="X73" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>292</v>
       </c>
@@ -10812,8 +11331,11 @@
       <c r="X74" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>293</v>
       </c>
@@ -10856,8 +11378,11 @@
       <c r="X75" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>294</v>
       </c>
@@ -10900,8 +11425,11 @@
       <c r="X76" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>251</v>
       </c>
@@ -10944,8 +11472,11 @@
       <c r="X77" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>334</v>
       </c>
@@ -10988,8 +11519,11 @@
       <c r="X78" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>337</v>
       </c>
@@ -11032,8 +11566,11 @@
       <c r="X79" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>2</v>
       </c>
@@ -11088,8 +11625,11 @@
       <c r="X80" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -11141,8 +11681,11 @@
       <c r="X81" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>4</v>
       </c>
@@ -11197,8 +11740,11 @@
       <c r="X82" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>5</v>
       </c>
@@ -11247,8 +11793,11 @@
       <c r="X83" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>6</v>
       </c>
@@ -11297,8 +11846,11 @@
       <c r="X84" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>7</v>
       </c>
@@ -11347,8 +11899,11 @@
       <c r="X85" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>8</v>
       </c>
@@ -11400,8 +11955,11 @@
       <c r="X86" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>9</v>
       </c>
@@ -11450,8 +12008,11 @@
       <c r="X87" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>10</v>
       </c>
@@ -11503,8 +12064,11 @@
       <c r="X88" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
@@ -11553,8 +12117,11 @@
       <c r="X89" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>12</v>
       </c>
@@ -11603,8 +12170,11 @@
       <c r="X90" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>13</v>
       </c>
@@ -11653,8 +12223,11 @@
       <c r="X91" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>342</v>
       </c>
@@ -11694,10 +12267,17 @@
       <c r="N92" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W92" s="11">
+        <v>0</v>
+      </c>
+      <c r="X92" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>343</v>
       </c>
@@ -11737,10 +12317,17 @@
       <c r="N93" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W93" s="11">
+        <v>0</v>
+      </c>
+      <c r="X93" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y93" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>386</v>
       </c>
@@ -11780,10 +12367,17 @@
       <c r="N94" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W94" s="11">
+        <v>0</v>
+      </c>
+      <c r="X94" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y94" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>344</v>
       </c>
@@ -11823,10 +12417,17 @@
       <c r="T95" s="10">
         <v>1</v>
       </c>
-      <c r="W95" s="11"/>
-      <c r="X95" s="11"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W95" s="11">
+        <v>0</v>
+      </c>
+      <c r="X95" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y95" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>387</v>
       </c>
@@ -11866,10 +12467,17 @@
       <c r="V96" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W96" s="11">
+        <v>0</v>
+      </c>
+      <c r="X96" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y96" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
@@ -11918,8 +12526,11 @@
       <c r="X97" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y97" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
@@ -11965,8 +12576,11 @@
       <c r="X98" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y98" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>392</v>
       </c>
@@ -12005,8 +12619,11 @@
       </c>
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y99" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>393</v>
       </c>
@@ -12045,8 +12662,11 @@
       </c>
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y100" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>394</v>
       </c>
@@ -12085,8 +12705,11 @@
       </c>
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y101" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>401</v>
       </c>
@@ -12120,10 +12743,17 @@
       <c r="N102" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W102" s="11"/>
-      <c r="X102" s="11"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W102" s="11">
+        <v>0</v>
+      </c>
+      <c r="X102" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y102" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>402</v>
       </c>
@@ -12157,10 +12787,17 @@
       <c r="N103" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W103" s="11"/>
-      <c r="X103" s="11"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W103" s="11">
+        <v>0</v>
+      </c>
+      <c r="X103" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y103" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>403</v>
       </c>
@@ -12194,10 +12831,17 @@
       <c r="N104" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W104" s="11"/>
-      <c r="X104" s="11"/>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W104" s="11">
+        <v>0</v>
+      </c>
+      <c r="X104" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y104" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>404</v>
       </c>
@@ -12231,10 +12875,17 @@
       <c r="N105" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y105" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>217</v>
       </c>
@@ -12283,8 +12934,11 @@
       <c r="X106" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y106" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>420</v>
       </c>
@@ -12333,8 +12987,11 @@
       <c r="X107" s="11" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y107" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>35</v>
       </c>
@@ -12385,52 +13042,55 @@
       </c>
       <c r="X108" s="11" t="s">
         <v>408</v>
+      </c>
+      <c r="Y108" s="11" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J108">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W109:W10017">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G108">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V108">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J108">
-    <cfRule type="expression" dxfId="28" priority="15">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W109:W1048576">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12442,8 +13102,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W108">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y108">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"core.exog"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"none"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"core.endog"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12481,7 +13152,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E1" t="s">
         <v>354</v>
@@ -12654,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12671,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12688,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -12701,2584 +13372,1911 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="12"/>
-    <col min="2" max="3" width="10.7109375" style="13"/>
-    <col min="4" max="15" width="10.7109375" style="14"/>
-    <col min="16" max="25" width="10.7109375" style="12"/>
-    <col min="26" max="26" width="10.7109375" style="14"/>
-    <col min="27" max="16384" width="10.7109375" style="12"/>
+    <col min="2" max="2" width="10.7109375" style="13"/>
+    <col min="3" max="8" width="10.7109375" style="14"/>
+    <col min="9" max="15" width="10.7109375" style="12"/>
+    <col min="16" max="16" width="10.7109375" style="14"/>
+    <col min="17" max="17" width="10.7109375" style="12"/>
+    <col min="18" max="19" width="10.7109375" style="14"/>
+    <col min="20" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>427</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>428</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="B8" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="C16" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="D21" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="R21" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="S21" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="V1" s="14" t="s">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="O22" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="P22" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O23" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="P23" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="K2" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L2" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M2" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="P24" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="P25" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="P26" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="K3" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L3" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M3" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="P27" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="P28" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="P29" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="K4" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L4" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M4" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="P30" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="P31" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="O32" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K5" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L5" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M5" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K6" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L6" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M6" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K7" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L7" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M7" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K8" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L8" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M8" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L9" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M9" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K10" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L10" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M10" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K11" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L11" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M11" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K12" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L12" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M12" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K13" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L13" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M13" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K14" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L14" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y14" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z14" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K15" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L15" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M15" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K16" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L16" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M16" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K17" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L17" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M17" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K18" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L18" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M18" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z18" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K19" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L19" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M19" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K20" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M20" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V20" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z20" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K21" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L21" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M21" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K22" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L22" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M22" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z22" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K23" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L23" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M23" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K24" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L24" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M24" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V24" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W24" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z24" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K25" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L25" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M25" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z25" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K26" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L26" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M26" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W26" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K27" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M27" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y27" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z27" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K28" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L28" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M28" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W28" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X28" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z28" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K29" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L29" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M29" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W29" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X29" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z29" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K30" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L30" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M30" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K31" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L31" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M31" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z31" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K32" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L32" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M32" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>487</v>
-      </c>
       <c r="P32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q32" s="14" t="s">
-        <v>487</v>
+        <v>517</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="V32" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="W32" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="X32" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z32" s="14" t="s">
-        <v>492</v>
-      </c>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EA367E-6734-4147-8379-6B9AED5DD927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751EDC7-304A-4196-B0E6-1756410D1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="external-forecasts" sheetId="3" r:id="rId2"/>
     <sheet name="all-variables" sheetId="5" r:id="rId3"/>
     <sheet name="ext-forecasts" sheetId="7" r:id="rId4"/>
-    <sheet name="initial-forecasts-qual" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="csm-equations" sheetId="9" r:id="rId5"/>
+    <sheet name="initial-forecasts-qual" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="546">
   <si>
     <t>gdp</t>
   </si>
@@ -1236,18 +1237,6 @@
   </si>
   <si>
     <t>diff1</t>
-  </si>
-  <si>
-    <t>Treasury Bill - FFR Spread</t>
-  </si>
-  <si>
-    <t>Treasury 10Y - Treasury Bill Spread</t>
-  </si>
-  <si>
-    <t>t03mffrspread</t>
-  </si>
-  <si>
-    <t>t10yt03mspread</t>
   </si>
   <si>
     <t>mort30ymort15yspread</t>
@@ -1809,11 +1798,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="62">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1827,7 +1816,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,11 +1898,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color theme="9"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1925,72 +1912,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2463,28 +2390,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2770,23 +2675,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2799,7 +2704,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="45"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2807,34 +2712,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y108" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="A1:Y108" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y106" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:Y106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="47"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="31"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="39"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="25"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="23"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="22"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2847,7 +2752,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5964,7 +5869,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>89</v>
@@ -7445,17 +7350,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7731,10 +7636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Y104" sqref="Y104"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,7 +7677,7 @@
         <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -7802,37 +7707,37 @@
         <v>289</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="Y1" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7864,7 +7769,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>15</v>
@@ -7898,7 +7803,7 @@
         <v>171</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7906,7 +7811,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -7930,7 +7835,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
@@ -7952,7 +7857,7 @@
         <v>171</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7984,7 +7889,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>15</v>
@@ -8000,7 +7905,7 @@
         <v>171</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8032,7 +7937,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>15</v>
@@ -8048,7 +7953,7 @@
         <v>171</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8080,7 +7985,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>15</v>
@@ -8096,7 +8001,7 @@
         <v>153</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8128,7 +8033,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>15</v>
@@ -8144,7 +8049,7 @@
         <v>153</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8176,7 +8081,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>15</v>
@@ -8192,7 +8097,7 @@
         <v>153</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8224,7 +8129,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>15</v>
@@ -8240,7 +8145,7 @@
         <v>153</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8272,7 +8177,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>15</v>
@@ -8288,7 +8193,7 @@
         <v>171</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8320,7 +8225,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>15</v>
@@ -8336,7 +8241,7 @@
         <v>153</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8368,7 +8273,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>15</v>
@@ -8384,7 +8289,7 @@
         <v>153</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8416,7 +8321,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>15</v>
@@ -8432,7 +8337,7 @@
         <v>153</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8464,7 +8369,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -8480,7 +8385,7 @@
         <v>153</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8512,7 +8417,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>15</v>
@@ -8528,7 +8433,7 @@
         <v>171</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8560,7 +8465,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>15</v>
@@ -8576,7 +8481,7 @@
         <v>153</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -8608,7 +8513,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>15</v>
@@ -8624,7 +8529,7 @@
         <v>153</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -8656,7 +8561,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>15</v>
@@ -8672,7 +8577,7 @@
         <v>153</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -8704,7 +8609,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8720,7 +8625,7 @@
         <v>153</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -8752,7 +8657,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>15</v>
@@ -8768,7 +8673,7 @@
         <v>153</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -8800,7 +8705,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>15</v>
@@ -8816,7 +8721,7 @@
         <v>153</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -8848,7 +8753,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>15</v>
@@ -8864,7 +8769,7 @@
         <v>153</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -8896,7 +8801,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>15</v>
@@ -8912,7 +8817,7 @@
         <v>153</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -8944,7 +8849,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>15</v>
@@ -8960,7 +8865,7 @@
         <v>171</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -8992,7 +8897,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>15</v>
@@ -9008,7 +8913,7 @@
         <v>171</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -9040,7 +8945,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>15</v>
@@ -9056,7 +8961,7 @@
         <v>153</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -9088,7 +8993,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>15</v>
@@ -9104,7 +9009,7 @@
         <v>153</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -9136,7 +9041,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>15</v>
@@ -9152,7 +9057,7 @@
         <v>153</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -9184,7 +9089,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>15</v>
@@ -9200,7 +9105,7 @@
         <v>153</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -9232,7 +9137,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>16</v>
@@ -9248,7 +9153,7 @@
         <v>153</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -9280,7 +9185,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>16</v>
@@ -9296,7 +9201,7 @@
         <v>171</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -9328,7 +9233,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>15</v>
@@ -9344,7 +9249,7 @@
         <v>171</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -9376,7 +9281,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>15</v>
@@ -9392,7 +9297,7 @@
         <v>153</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -9424,7 +9329,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>15</v>
@@ -9440,7 +9345,7 @@
         <v>153</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -9472,7 +9377,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>15</v>
@@ -9488,7 +9393,7 @@
         <v>171</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -9520,7 +9425,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>15</v>
@@ -9536,7 +9441,7 @@
         <v>153</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -9568,7 +9473,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>15</v>
@@ -9584,7 +9489,7 @@
         <v>153</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -9616,7 +9521,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -9632,7 +9537,7 @@
         <v>171</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -9664,7 +9569,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>15</v>
@@ -9680,7 +9585,7 @@
         <v>153</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -9712,7 +9617,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>15</v>
@@ -9728,7 +9633,7 @@
         <v>153</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -9742,7 +9647,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>156</v>
@@ -9757,7 +9662,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>15</v>
@@ -9789,7 +9694,7 @@
         <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>156</v>
@@ -9804,7 +9709,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>15</v>
@@ -9836,7 +9741,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>156</v>
@@ -9851,7 +9756,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>15</v>
@@ -9883,7 +9788,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>156</v>
@@ -9898,7 +9803,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>15</v>
@@ -9930,7 +9835,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>156</v>
@@ -9945,7 +9850,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>15</v>
@@ -9995,7 +9900,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>15</v>
@@ -10013,7 +9918,7 @@
         <v>154</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -10045,7 +9950,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>15</v>
@@ -10063,7 +9968,7 @@
         <v>154</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -10095,7 +10000,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>16</v>
@@ -10113,7 +10018,7 @@
         <v>171</v>
       </c>
       <c r="Y48" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -10142,7 +10047,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>15</v>
@@ -10154,7 +10059,7 @@
         <v>283</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W49" s="11">
         <v>1</v>
@@ -10163,7 +10068,7 @@
         <v>154</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -10192,7 +10097,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>15</v>
@@ -10210,7 +10115,7 @@
         <v>154</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -10239,7 +10144,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>15</v>
@@ -10257,7 +10162,7 @@
         <v>154</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -10286,7 +10191,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>15</v>
@@ -10304,7 +10209,7 @@
         <v>154</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -10318,7 +10223,7 @@
         <v>309</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>156</v>
@@ -10333,7 +10238,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>15</v>
@@ -10365,7 +10270,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>156</v>
@@ -10380,7 +10285,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>15</v>
@@ -10412,7 +10317,7 @@
         <v>309</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>156</v>
@@ -10427,7 +10332,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>15</v>
@@ -10459,7 +10364,7 @@
         <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>156</v>
@@ -10474,7 +10379,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -10492,7 +10397,7 @@
         <v>154</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -10506,7 +10411,7 @@
         <v>253</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>156</v>
@@ -10521,7 +10426,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>15</v>
@@ -10553,7 +10458,7 @@
         <v>253</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>156</v>
@@ -10568,7 +10473,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>15</v>
@@ -10600,7 +10505,7 @@
         <v>159</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>156</v>
@@ -10615,7 +10520,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>16</v>
@@ -10647,7 +10552,7 @@
         <v>238</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>156</v>
@@ -10662,7 +10567,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>16</v>
@@ -10680,7 +10585,7 @@
         <v>154</v>
       </c>
       <c r="Y60" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -10694,7 +10599,7 @@
         <v>160</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>156</v>
@@ -10709,7 +10614,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>15</v>
@@ -10741,7 +10646,7 @@
         <v>162</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>156</v>
@@ -10756,7 +10661,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>15</v>
@@ -10788,7 +10693,7 @@
         <v>238</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>156</v>
@@ -10803,7 +10708,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>16</v>
@@ -10835,7 +10740,7 @@
         <v>238</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>156</v>
@@ -10850,7 +10755,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>16</v>
@@ -10882,7 +10787,7 @@
         <v>253</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>156</v>
@@ -10897,7 +10802,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>16</v>
@@ -10929,7 +10834,7 @@
         <v>162</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>156</v>
@@ -10944,7 +10849,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>15</v>
@@ -10976,7 +10881,7 @@
         <v>253</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>156</v>
@@ -10991,7 +10896,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>16</v>
@@ -11023,7 +10928,7 @@
         <v>162</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>156</v>
@@ -11038,7 +10943,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>16</v>
@@ -11070,7 +10975,7 @@
         <v>159</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>156</v>
@@ -11085,7 +10990,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>15</v>
@@ -11117,7 +11022,7 @@
         <v>163</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>156</v>
@@ -11132,7 +11037,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>15</v>
@@ -11164,7 +11069,7 @@
         <v>238</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>156</v>
@@ -11179,7 +11084,7 @@
         <v>18</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>16</v>
@@ -11195,7 +11100,7 @@
         <v>153</v>
       </c>
       <c r="Y71" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -11209,7 +11114,7 @@
         <v>238</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>156</v>
@@ -11224,7 +11129,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>16</v>
@@ -11240,7 +11145,7 @@
         <v>153</v>
       </c>
       <c r="Y72" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -11254,7 +11159,7 @@
         <v>238</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>156</v>
@@ -11269,7 +11174,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>16</v>
@@ -11285,7 +11190,7 @@
         <v>153</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -11299,7 +11204,7 @@
         <v>242</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>156</v>
@@ -11314,7 +11219,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>16</v>
@@ -11346,7 +11251,7 @@
         <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>156</v>
@@ -11361,7 +11266,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>16</v>
@@ -11393,7 +11298,7 @@
         <v>242</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>156</v>
@@ -11408,7 +11313,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>16</v>
@@ -11440,7 +11345,7 @@
         <v>159</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>156</v>
@@ -11455,7 +11360,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
@@ -11487,7 +11392,7 @@
         <v>161</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>156</v>
@@ -11502,7 +11407,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>16</v>
@@ -11534,7 +11439,7 @@
         <v>253</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>156</v>
@@ -11549,7 +11454,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>16</v>
@@ -11581,7 +11486,7 @@
         <v>161</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>156</v>
@@ -11599,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>398</v>
@@ -11617,16 +11522,16 @@
         <v>1</v>
       </c>
       <c r="V80" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W80" s="11">
         <v>1</v>
       </c>
       <c r="X80" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y80" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -11640,7 +11545,7 @@
         <v>161</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>156</v>
@@ -11658,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>398</v>
@@ -11673,16 +11578,16 @@
         <v>1</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W81" s="11">
         <v>0</v>
       </c>
       <c r="X81" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y81" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -11696,7 +11601,7 @@
         <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>156</v>
@@ -11714,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>398</v>
@@ -11738,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="X82" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -11755,7 +11660,7 @@
         <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>156</v>
@@ -11773,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>398</v>
@@ -11791,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -11808,7 +11713,7 @@
         <v>161</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>156</v>
@@ -11826,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>398</v>
@@ -11844,10 +11749,10 @@
         <v>0</v>
       </c>
       <c r="X84" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -11861,7 +11766,7 @@
         <v>161</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>156</v>
@@ -11879,7 +11784,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>398</v>
@@ -11897,10 +11802,10 @@
         <v>0</v>
       </c>
       <c r="X85" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -11914,13 +11819,13 @@
         <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>89</v>
@@ -11932,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>398</v>
@@ -11953,10 +11858,10 @@
         <v>1</v>
       </c>
       <c r="X86" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y86" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -11970,7 +11875,7 @@
         <v>161</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>156</v>
@@ -11988,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>398</v>
@@ -12006,10 +11911,10 @@
         <v>0</v>
       </c>
       <c r="X87" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y87" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -12023,7 +11928,7 @@
         <v>161</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>156</v>
@@ -12041,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>398</v>
@@ -12062,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="X88" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y88" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -12079,7 +11984,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>156</v>
@@ -12097,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>398</v>
@@ -12115,10 +12020,10 @@
         <v>0</v>
       </c>
       <c r="X89" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y89" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -12132,7 +12037,7 @@
         <v>161</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>156</v>
@@ -12150,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>398</v>
@@ -12168,10 +12073,10 @@
         <v>0</v>
       </c>
       <c r="X90" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -12185,7 +12090,7 @@
         <v>161</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>156</v>
@@ -12203,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>398</v>
@@ -12221,10 +12126,10 @@
         <v>0</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -12238,7 +12143,7 @@
         <v>314</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>156</v>
@@ -12256,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>398</v>
@@ -12288,7 +12193,7 @@
         <v>314</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>156</v>
@@ -12306,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>398</v>
@@ -12338,7 +12243,7 @@
         <v>161</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>156</v>
@@ -12356,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>398</v>
@@ -12388,7 +12293,7 @@
         <v>163</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -12403,7 +12308,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>101</v>
@@ -12438,7 +12343,7 @@
         <v>163</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>171</v>
@@ -12450,7 +12355,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>16</v>
@@ -12465,7 +12370,7 @@
         <v>1</v>
       </c>
       <c r="V96" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W96" s="11">
         <v>0</v>
@@ -12474,7 +12379,7 @@
         <v>283</v>
       </c>
       <c r="Y96" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -12488,7 +12393,7 @@
         <v>238</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>250</v>
@@ -12506,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>15</v>
@@ -12518,7 +12423,7 @@
         <v>16</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W97" s="11">
         <v>1</v>
@@ -12527,7 +12432,7 @@
         <v>154</v>
       </c>
       <c r="Y97" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -12541,7 +12446,7 @@
         <v>238</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>250</v>
@@ -12559,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>16</v>
@@ -12577,7 +12482,7 @@
         <v>154</v>
       </c>
       <c r="Y98" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -12591,7 +12496,7 @@
         <v>161</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>171</v>
@@ -12603,7 +12508,7 @@
         <v>30</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>398</v>
@@ -12615,12 +12520,16 @@
         <v>283</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W99" s="11"/>
-      <c r="X99" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="W99" s="11">
+        <v>0</v>
+      </c>
+      <c r="X99" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="Y99" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -12634,7 +12543,7 @@
         <v>161</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>171</v>
@@ -12646,7 +12555,7 @@
         <v>30</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>398</v>
@@ -12658,12 +12567,16 @@
         <v>283</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W100" s="11"/>
-      <c r="X100" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="W100" s="11">
+        <v>0</v>
+      </c>
+      <c r="X100" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="Y100" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -12677,7 +12590,7 @@
         <v>161</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>171</v>
@@ -12689,7 +12602,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>398</v>
@@ -12701,26 +12614,30 @@
         <v>283</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W101" s="11"/>
-      <c r="X101" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="W101" s="11">
+        <v>0</v>
+      </c>
+      <c r="X101" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="Y101" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>171</v>
@@ -12732,7 +12649,7 @@
         <v>30</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>398</v>
@@ -12750,21 +12667,21 @@
         <v>283</v>
       </c>
       <c r="Y102" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>171</v>
@@ -12776,7 +12693,7 @@
         <v>30</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>398</v>
@@ -12794,262 +12711,174 @@
         <v>283</v>
       </c>
       <c r="Y103" s="11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>403</v>
+        <v>217</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>406</v>
+        <v>218</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>416</v>
+        <v>218</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N104" s="10" t="s">
         <v>283</v>
       </c>
+      <c r="V104" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="W104" s="11">
         <v>0</v>
       </c>
       <c r="X104" s="11" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="Y104" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>416</v>
+        <v>218</v>
+      </c>
+      <c r="E105" s="10">
+        <v>2</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>283</v>
       </c>
+      <c r="V105" s="10" t="s">
+        <v>420</v>
+      </c>
       <c r="W105" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X105" s="11" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="Y105" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="10">
-        <v>1</v>
+        <v>412</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M106" s="10" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>283</v>
       </c>
+      <c r="R106" s="10">
+        <v>1</v>
+      </c>
+      <c r="T106" s="10">
+        <v>1</v>
+      </c>
       <c r="V106" s="10" t="s">
-        <v>171</v>
+        <v>420</v>
       </c>
       <c r="W106" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X106" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y106" s="11" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" s="10">
-        <v>2</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="L107" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M107" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V107" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W107" s="11">
-        <v>1</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y107" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="L108" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M108" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N108" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R108" s="10">
-        <v>1</v>
-      </c>
-      <c r="T108" s="10">
-        <v>1</v>
-      </c>
-      <c r="V108" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="W108" s="11">
-        <v>1</v>
-      </c>
-      <c r="X108" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y108" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:J108">
+  <conditionalFormatting sqref="I1:J106">
     <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"q"</formula>
     </cfRule>
@@ -13063,17 +12892,17 @@
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W109:W10017">
+  <conditionalFormatting sqref="W107:W10015">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G108">
+  <conditionalFormatting sqref="G2:G106">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V108">
+  <conditionalFormatting sqref="V2:V106">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
@@ -13084,12 +12913,12 @@
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J108">
+  <conditionalFormatting sqref="J2:J106">
     <cfRule type="expression" dxfId="4" priority="18">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W109:W1048576">
+  <conditionalFormatting sqref="W107:W1048576">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -13101,20 +12930,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W108">
+  <conditionalFormatting sqref="W2:W106">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y108">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"core.exog"</formula>
+  <conditionalFormatting sqref="Y2:Y106">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"core.endog"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"core.endog"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"core.exog"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13152,7 +12981,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
         <v>354</v>
@@ -13325,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13342,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13359,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -13371,6 +13200,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD1B46-FB81-4B3B-B740-36D119DF1DCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="A1:S33"/>
   <sheetViews>
@@ -13392,1887 +13233,1887 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>432</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="N1" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="R1" s="14" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="R2" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S2" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="R3" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S3" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S4" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="R5" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S5" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S6" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S7" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S8" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S9" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S10" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="R11" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S11" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S12" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="R13" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S13" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="R14" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S14" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="R15" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S15" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="S16" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="S17" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="S18" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="S19" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="S20" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N21" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="O21" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="R21" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S21" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="O22" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="R22" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S22" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N23" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="O23" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="R23" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="R23" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S23" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N24" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="O24" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="R24" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S24" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="O25" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="R25" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S25" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="O26" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="R26" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S26" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N27" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="O27" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="R27" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S27" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="O28" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="R28" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S28" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="O29" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="R29" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S29" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N30" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="O30" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="R30" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S30" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N31" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="O31" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="R31" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S31" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="O32" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="R32" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>480</v>
-      </c>
       <c r="S32" s="14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.2">
@@ -15285,7 +15126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751EDC7-304A-4196-B0E6-1756410D1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF4009-5EF0-437E-BDA2-FB3C81BBF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="545">
   <si>
     <t>gdp</t>
   </si>
@@ -1234,9 +1234,6 @@
   </si>
   <si>
     <t>Treasury-FFR Spread Curvature</t>
-  </si>
-  <si>
-    <t>diff1</t>
   </si>
   <si>
     <t>mort30ymort15yspread</t>
@@ -1799,123 +1796,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2390,6 +2270,104 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2655,6 +2633,25 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2675,23 +2672,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="57"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2704,7 +2701,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2712,34 +2709,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y106" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y106" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:Y106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="39"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="25"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="24"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="23"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="22"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="6"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2752,7 +2749,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3058,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13241-3AD3-4AF9-83CF-1259D998F1D6}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5869,7 +5866,7 @@
         <v>156</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>89</v>
@@ -7350,17 +7347,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7638,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
   <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="X102" sqref="X102"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,7 +7674,7 @@
         <v>286</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -7707,37 +7704,37 @@
         <v>289</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>415</v>
-      </c>
       <c r="V1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Y1" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -7769,7 +7766,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>15</v>
@@ -7803,7 +7800,7 @@
         <v>171</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7811,7 +7808,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>159</v>
@@ -7835,7 +7832,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>15</v>
@@ -7857,7 +7854,7 @@
         <v>171</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7889,7 +7886,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>15</v>
@@ -7905,7 +7902,7 @@
         <v>171</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7937,7 +7934,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>15</v>
@@ -7953,7 +7950,7 @@
         <v>171</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7985,7 +7982,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>15</v>
@@ -8001,7 +7998,7 @@
         <v>153</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8033,7 +8030,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>15</v>
@@ -8049,7 +8046,7 @@
         <v>153</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8081,7 +8078,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>15</v>
@@ -8097,7 +8094,7 @@
         <v>153</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8129,7 +8126,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>15</v>
@@ -8145,7 +8142,7 @@
         <v>153</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8177,7 +8174,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>15</v>
@@ -8193,7 +8190,7 @@
         <v>171</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8225,7 +8222,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>15</v>
@@ -8241,7 +8238,7 @@
         <v>153</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8273,7 +8270,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>15</v>
@@ -8289,7 +8286,7 @@
         <v>153</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8321,7 +8318,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>15</v>
@@ -8337,7 +8334,7 @@
         <v>153</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8369,7 +8366,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -8385,7 +8382,7 @@
         <v>153</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8417,7 +8414,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>15</v>
@@ -8433,7 +8430,7 @@
         <v>171</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8465,7 +8462,7 @@
         <v>18</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>15</v>
@@ -8481,7 +8478,7 @@
         <v>153</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -8513,7 +8510,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>15</v>
@@ -8529,7 +8526,7 @@
         <v>153</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -8561,7 +8558,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>15</v>
@@ -8577,7 +8574,7 @@
         <v>153</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -8609,7 +8606,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>15</v>
@@ -8625,7 +8622,7 @@
         <v>153</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -8657,7 +8654,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>15</v>
@@ -8673,7 +8670,7 @@
         <v>153</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -8705,7 +8702,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>15</v>
@@ -8721,7 +8718,7 @@
         <v>153</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -8753,7 +8750,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>15</v>
@@ -8769,7 +8766,7 @@
         <v>153</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -8801,7 +8798,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>15</v>
@@ -8817,7 +8814,7 @@
         <v>153</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -8849,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>15</v>
@@ -8865,7 +8862,7 @@
         <v>171</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -8897,7 +8894,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>15</v>
@@ -8913,7 +8910,7 @@
         <v>171</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -8945,7 +8942,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>15</v>
@@ -8961,7 +8958,7 @@
         <v>153</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -8993,7 +8990,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>15</v>
@@ -9009,7 +9006,7 @@
         <v>153</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -9041,7 +9038,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>15</v>
@@ -9057,7 +9054,7 @@
         <v>153</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -9089,7 +9086,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>15</v>
@@ -9105,7 +9102,7 @@
         <v>153</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -9137,7 +9134,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>16</v>
@@ -9153,7 +9150,7 @@
         <v>153</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -9185,7 +9182,7 @@
         <v>18</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>16</v>
@@ -9201,7 +9198,7 @@
         <v>171</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -9233,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>15</v>
@@ -9249,7 +9246,7 @@
         <v>171</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -9281,7 +9278,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>15</v>
@@ -9297,7 +9294,7 @@
         <v>153</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -9329,7 +9326,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>15</v>
@@ -9345,7 +9342,7 @@
         <v>153</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -9377,7 +9374,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>15</v>
@@ -9393,7 +9390,7 @@
         <v>171</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -9425,7 +9422,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>15</v>
@@ -9441,7 +9438,7 @@
         <v>153</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -9473,7 +9470,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>15</v>
@@ -9489,7 +9486,7 @@
         <v>153</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -9521,7 +9518,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>15</v>
@@ -9537,7 +9534,7 @@
         <v>171</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -9569,7 +9566,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>15</v>
@@ -9585,7 +9582,7 @@
         <v>153</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -9617,7 +9614,7 @@
         <v>18</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>15</v>
@@ -9633,7 +9630,7 @@
         <v>153</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -9647,7 +9644,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>156</v>
@@ -9662,7 +9659,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>15</v>
@@ -9694,7 +9691,7 @@
         <v>162</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>156</v>
@@ -9709,7 +9706,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>15</v>
@@ -9741,7 +9738,7 @@
         <v>162</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>156</v>
@@ -9756,7 +9753,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>15</v>
@@ -9788,7 +9785,7 @@
         <v>162</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>156</v>
@@ -9803,7 +9800,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>15</v>
@@ -9835,7 +9832,7 @@
         <v>162</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>156</v>
@@ -9850,7 +9847,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>15</v>
@@ -9900,7 +9897,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>15</v>
@@ -9918,7 +9915,7 @@
         <v>154</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -9950,7 +9947,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>15</v>
@@ -9968,7 +9965,7 @@
         <v>154</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -10000,7 +9997,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>16</v>
@@ -10018,7 +10015,7 @@
         <v>171</v>
       </c>
       <c r="Y48" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -10047,7 +10044,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>15</v>
@@ -10059,7 +10056,7 @@
         <v>283</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W49" s="11">
         <v>1</v>
@@ -10068,7 +10065,7 @@
         <v>154</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -10097,7 +10094,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>15</v>
@@ -10115,7 +10112,7 @@
         <v>154</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -10144,7 +10141,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>15</v>
@@ -10162,7 +10159,7 @@
         <v>154</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -10191,7 +10188,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>15</v>
@@ -10209,7 +10206,7 @@
         <v>154</v>
       </c>
       <c r="Y52" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -10223,7 +10220,7 @@
         <v>309</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>156</v>
@@ -10238,7 +10235,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>15</v>
@@ -10270,7 +10267,7 @@
         <v>309</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>156</v>
@@ -10285,7 +10282,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>15</v>
@@ -10317,7 +10314,7 @@
         <v>309</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>156</v>
@@ -10332,7 +10329,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>15</v>
@@ -10364,7 +10361,7 @@
         <v>162</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>156</v>
@@ -10379,7 +10376,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>16</v>
@@ -10397,7 +10394,7 @@
         <v>154</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -10411,7 +10408,7 @@
         <v>253</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>156</v>
@@ -10426,7 +10423,7 @@
         <v>30</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>15</v>
@@ -10458,7 +10455,7 @@
         <v>253</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>156</v>
@@ -10473,7 +10470,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>15</v>
@@ -10505,7 +10502,7 @@
         <v>159</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>156</v>
@@ -10520,7 +10517,7 @@
         <v>30</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>16</v>
@@ -10552,7 +10549,7 @@
         <v>238</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>156</v>
@@ -10567,7 +10564,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>16</v>
@@ -10585,7 +10582,7 @@
         <v>154</v>
       </c>
       <c r="Y60" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -10599,7 +10596,7 @@
         <v>160</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>156</v>
@@ -10614,7 +10611,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>15</v>
@@ -10646,7 +10643,7 @@
         <v>162</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>156</v>
@@ -10661,7 +10658,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>15</v>
@@ -10693,7 +10690,7 @@
         <v>238</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>156</v>
@@ -10708,7 +10705,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>16</v>
@@ -10740,7 +10737,7 @@
         <v>238</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>156</v>
@@ -10755,7 +10752,7 @@
         <v>30</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>16</v>
@@ -10787,7 +10784,7 @@
         <v>253</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>156</v>
@@ -10802,7 +10799,7 @@
         <v>30</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>16</v>
@@ -10834,7 +10831,7 @@
         <v>162</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>156</v>
@@ -10849,7 +10846,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>15</v>
@@ -10881,7 +10878,7 @@
         <v>253</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>156</v>
@@ -10896,7 +10893,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>16</v>
@@ -10928,7 +10925,7 @@
         <v>162</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>156</v>
@@ -10943,7 +10940,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>16</v>
@@ -10975,7 +10972,7 @@
         <v>159</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>156</v>
@@ -10990,7 +10987,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>15</v>
@@ -11022,7 +11019,7 @@
         <v>163</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>156</v>
@@ -11037,7 +11034,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>15</v>
@@ -11069,7 +11066,7 @@
         <v>238</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>156</v>
@@ -11084,7 +11081,7 @@
         <v>18</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>16</v>
@@ -11100,7 +11097,7 @@
         <v>153</v>
       </c>
       <c r="Y71" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -11114,7 +11111,7 @@
         <v>238</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>156</v>
@@ -11129,7 +11126,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>16</v>
@@ -11145,7 +11142,7 @@
         <v>153</v>
       </c>
       <c r="Y72" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -11159,7 +11156,7 @@
         <v>238</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>156</v>
@@ -11174,7 +11171,7 @@
         <v>18</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>16</v>
@@ -11190,7 +11187,7 @@
         <v>153</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -11204,7 +11201,7 @@
         <v>242</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>156</v>
@@ -11219,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>16</v>
@@ -11251,7 +11248,7 @@
         <v>242</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>156</v>
@@ -11266,7 +11263,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>16</v>
@@ -11298,7 +11295,7 @@
         <v>242</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>156</v>
@@ -11313,7 +11310,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>16</v>
@@ -11345,7 +11342,7 @@
         <v>159</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>156</v>
@@ -11360,7 +11357,7 @@
         <v>30</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>16</v>
@@ -11392,7 +11389,7 @@
         <v>161</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>156</v>
@@ -11407,7 +11404,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>16</v>
@@ -11439,7 +11436,7 @@
         <v>253</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>156</v>
@@ -11454,7 +11451,7 @@
         <v>30</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>16</v>
@@ -11486,7 +11483,7 @@
         <v>161</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>156</v>
@@ -11504,10 +11501,10 @@
         <v>1</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M80" s="10" t="s">
         <v>16</v>
@@ -11522,16 +11519,16 @@
         <v>1</v>
       </c>
       <c r="V80" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W80" s="11">
         <v>1</v>
       </c>
       <c r="X80" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y80" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -11545,7 +11542,7 @@
         <v>161</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>156</v>
@@ -11563,10 +11560,10 @@
         <v>1</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M81" s="10" t="s">
         <v>16</v>
@@ -11578,16 +11575,16 @@
         <v>1</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W81" s="11">
         <v>0</v>
       </c>
       <c r="X81" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y81" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -11601,7 +11598,7 @@
         <v>161</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>156</v>
@@ -11619,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M82" s="10" t="s">
         <v>16</v>
@@ -11643,10 +11640,10 @@
         <v>1</v>
       </c>
       <c r="X82" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
@@ -11660,7 +11657,7 @@
         <v>161</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>156</v>
@@ -11678,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M83" s="10" t="s">
         <v>16</v>
@@ -11696,10 +11693,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -11713,7 +11710,7 @@
         <v>161</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>156</v>
@@ -11731,10 +11728,10 @@
         <v>1</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M84" s="10" t="s">
         <v>16</v>
@@ -11749,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="X84" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -11766,7 +11763,7 @@
         <v>161</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>156</v>
@@ -11784,10 +11781,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M85" s="10" t="s">
         <v>16</v>
@@ -11802,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="X85" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -11819,13 +11816,13 @@
         <v>161</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>156</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>89</v>
@@ -11837,10 +11834,10 @@
         <v>1</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M86" s="10" t="s">
         <v>16</v>
@@ -11858,10 +11855,10 @@
         <v>1</v>
       </c>
       <c r="X86" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y86" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -11875,7 +11872,7 @@
         <v>161</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>156</v>
@@ -11893,10 +11890,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M87" s="10" t="s">
         <v>16</v>
@@ -11911,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="X87" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y87" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
@@ -11928,7 +11925,7 @@
         <v>161</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>156</v>
@@ -11946,10 +11943,10 @@
         <v>1</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M88" s="10" t="s">
         <v>16</v>
@@ -11967,10 +11964,10 @@
         <v>0</v>
       </c>
       <c r="X88" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y88" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -11984,7 +11981,7 @@
         <v>161</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>156</v>
@@ -12002,10 +11999,10 @@
         <v>1</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M89" s="10" t="s">
         <v>16</v>
@@ -12020,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="X89" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y89" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -12037,7 +12034,7 @@
         <v>161</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>156</v>
@@ -12055,10 +12052,10 @@
         <v>1</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M90" s="10" t="s">
         <v>16</v>
@@ -12073,10 +12070,10 @@
         <v>0</v>
       </c>
       <c r="X90" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
@@ -12090,7 +12087,7 @@
         <v>161</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>156</v>
@@ -12108,10 +12105,10 @@
         <v>1</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M91" s="10" t="s">
         <v>16</v>
@@ -12126,10 +12123,10 @@
         <v>0</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -12143,7 +12140,7 @@
         <v>314</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>156</v>
@@ -12161,10 +12158,10 @@
         <v>1</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M92" s="10" t="s">
         <v>16</v>
@@ -12193,7 +12190,7 @@
         <v>314</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>156</v>
@@ -12211,10 +12208,10 @@
         <v>1</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M93" s="10" t="s">
         <v>16</v>
@@ -12243,7 +12240,7 @@
         <v>161</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>156</v>
@@ -12261,10 +12258,10 @@
         <v>1</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M94" s="10" t="s">
         <v>16</v>
@@ -12293,7 +12290,7 @@
         <v>163</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>156</v>
@@ -12308,7 +12305,7 @@
         <v>30</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>101</v>
@@ -12343,7 +12340,7 @@
         <v>163</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>171</v>
@@ -12355,7 +12352,7 @@
         <v>30</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>16</v>
@@ -12370,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="V96" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W96" s="11">
         <v>0</v>
@@ -12379,7 +12376,7 @@
         <v>283</v>
       </c>
       <c r="Y96" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -12393,7 +12390,7 @@
         <v>238</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>250</v>
@@ -12411,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>15</v>
@@ -12423,7 +12420,7 @@
         <v>16</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W97" s="11">
         <v>1</v>
@@ -12432,7 +12429,7 @@
         <v>154</v>
       </c>
       <c r="Y97" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -12446,7 +12443,7 @@
         <v>238</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>250</v>
@@ -12464,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>16</v>
@@ -12482,7 +12479,7 @@
         <v>154</v>
       </c>
       <c r="Y98" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -12496,7 +12493,7 @@
         <v>161</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>171</v>
@@ -12508,10 +12505,10 @@
         <v>30</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M99" s="10" t="s">
         <v>16</v>
@@ -12520,16 +12517,16 @@
         <v>283</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W99" s="11">
         <v>0</v>
       </c>
       <c r="X99" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y99" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -12543,7 +12540,7 @@
         <v>161</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>171</v>
@@ -12555,10 +12552,10 @@
         <v>30</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M100" s="10" t="s">
         <v>16</v>
@@ -12567,16 +12564,16 @@
         <v>283</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W100" s="11">
         <v>0</v>
       </c>
       <c r="X100" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y100" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -12590,7 +12587,7 @@
         <v>161</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>171</v>
@@ -12602,10 +12599,10 @@
         <v>30</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M101" s="10" t="s">
         <v>16</v>
@@ -12614,30 +12611,30 @@
         <v>283</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W101" s="11">
         <v>0</v>
       </c>
       <c r="X101" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y101" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>171</v>
@@ -12649,10 +12646,10 @@
         <v>30</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M102" s="10" t="s">
         <v>16</v>
@@ -12667,21 +12664,21 @@
         <v>283</v>
       </c>
       <c r="Y102" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>314</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>171</v>
@@ -12693,10 +12690,10 @@
         <v>30</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>16</v>
@@ -12711,7 +12708,7 @@
         <v>283</v>
       </c>
       <c r="Y103" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
@@ -12743,7 +12740,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>15</v>
@@ -12761,15 +12758,15 @@
         <v>0</v>
       </c>
       <c r="X104" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y104" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>222</v>
@@ -12796,7 +12793,7 @@
         <v>30</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>15</v>
@@ -12808,16 +12805,16 @@
         <v>283</v>
       </c>
       <c r="V105" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W105" s="11">
         <v>1</v>
       </c>
       <c r="X105" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y105" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
@@ -12831,7 +12828,7 @@
         <v>253</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>156</v>
@@ -12846,7 +12843,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>15</v>
@@ -12864,57 +12861,57 @@
         <v>1</v>
       </c>
       <c r="V106" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W106" s="11">
         <v>1</v>
       </c>
       <c r="X106" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y106" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J106">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W107:W10015">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G106">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="36" priority="8">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V106">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J106">
-    <cfRule type="expression" dxfId="4" priority="18">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>OR($I2="q", $I2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12931,18 +12928,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W106">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y106">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"core.endog"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"core.exog"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12981,7 +12978,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
         <v>354</v>
@@ -13154,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13171,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13188,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -13233,1887 +13230,1887 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>425</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="R1" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>483</v>
-      </c>
       <c r="R2" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="R4" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R5" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S6" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R7" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R8" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R9" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R10" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S10" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R11" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S11" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R12" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S12" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R13" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S13" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R14" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S14" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R15" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S15" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="E16" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R16" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S16" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="E17" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R17" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S17" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="E18" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>473</v>
-      </c>
       <c r="G18" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R18" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="S18" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="R19" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="R19" s="14" t="s">
+      <c r="S19" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="R20" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="R20" s="14" t="s">
+      <c r="S20" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="R21" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="R21" s="14" t="s">
+      <c r="S21" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="R22" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="R22" s="14" t="s">
+      <c r="S22" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="R23" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="R23" s="14" t="s">
+      <c r="S23" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="R24" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="R24" s="14" t="s">
+      <c r="S24" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="R25" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="R25" s="14" t="s">
+      <c r="S25" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="R26" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="R26" s="14" t="s">
+      <c r="S26" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="R27" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="R27" s="14" t="s">
+      <c r="S27" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="R28" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="R28" s="14" t="s">
+      <c r="S28" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="R29" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="R29" s="14" t="s">
+      <c r="S29" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="R30" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="R30" s="14" t="s">
+      <c r="S30" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="R31" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="R31" s="14" t="s">
+      <c r="S31" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="R32" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="R32" s="14" t="s">
+      <c r="S32" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.2">

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF4009-5EF0-437E-BDA2-FB3C81BBF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB34BBE-A07A-4CE4-8143-52882F57E6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
     <sheet name="external-forecasts" sheetId="3" r:id="rId2"/>
     <sheet name="all-variables" sheetId="5" r:id="rId3"/>
-    <sheet name="ext-forecasts" sheetId="7" r:id="rId4"/>
-    <sheet name="csm-equations" sheetId="9" r:id="rId5"/>
-    <sheet name="initial-forecasts-qual" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="releases" sheetId="8" r:id="rId4"/>
+    <sheet name="ext-forecasts" sheetId="7" r:id="rId5"/>
+    <sheet name="csm-equations" sheetId="9" r:id="rId6"/>
+    <sheet name="initial-forecasts-qual" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="647">
   <si>
     <t>gdp</t>
   </si>
@@ -1675,6 +1675,325 @@
   </si>
   <si>
     <t>post.exog</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>BEA.GDP</t>
+  </si>
+  <si>
+    <t>relname</t>
+  </si>
+  <si>
+    <t>relkey</t>
+  </si>
+  <si>
+    <t>relurl</t>
+  </si>
+  <si>
+    <t>relsc</t>
+  </si>
+  <si>
+    <t>relsckey</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product</t>
+  </si>
+  <si>
+    <t>https://www.bea.gov/data/gdp/gross-domestic-product</t>
+  </si>
+  <si>
+    <t>relnotes</t>
+  </si>
+  <si>
+    <t>The WEI is an index of real economic activity using timely and relevant high-frequency data. It represents the common component of ten different daily and weekly series covering consumer behavior, the labor market, and production. The WEI is scaled to the four-quarter GDP growth rate; for example, if the WEI reads -2 percent and the current level of the WEI persists for an entire quarter, we would expect, on average, GDP that quarter to be 2 percent lower than a year previously. _x000D_
+_x000D_
+The WEI is a composite of 10 weekly economic indicators: Redbook same-store sales, Rasmussen Consumer Index, new claims for unemployment insurance, continued claims for unemployment insurance, adjusted income/employment tax withholdings (from Booth Financial Consulting), railroad traffic originated (from the Association of American Railroads), the American Staffing Association Staffing Index, steel production, wholesale sales of gasoline, diesel, and jet fuel, and weekly average US electricity load (with the remaining data supplied by Haver Analytics). All series are represented as year-over-year percentage changes. These series are combined into a single index of weekly economic activity._x000D_
+_x000D_
+For additional details, including an analysis of the performance of the model, see Lewis, Mertens, and Stock (2020), â€œU.S. Economic Activity during the Early Weeks of the SARS-Cov-2 Outbreak.â€ at https://www.newyorkfed.org/research/staff_reports/sr920._x000D_
+_x000D_
+This index has been developed by Daniel Lewis, an economist in the Federal Reserve Bank of New York, Karel Mertens, a senior economic policy advisor at the Federal Reserve Bank of Dallas, and James Stock, the Harold Hitchings Burbank Professor of Political Economy, Faculty of Arts and Sciences of Harvard University._x000D_
+_x000D_
+The index is not an official forecast of the Federal Reserve Bank of New York, its president, the Federal Reserve System, or the Federal Open Market Committee.</t>
+  </si>
+  <si>
+    <t>To obtain detailed information regarding the construction of the St. Louis Financial Stress Index, please see the online appendix at_x000D_
+https://files.stlouisfed.org/files/htdocs/publications/net/NETJan2010Appendix.pdf</t>
+  </si>
+  <si>
+    <t>The Kansas City Fed Labor Market Conditions Indicators (LMCI) are two monthly measures of labor market conditions based on 24 labor market variables. One indicator measures the level of activity in labor markets and the other indicator measures momentum in labor markets._x000D_
+_x000D_
+A positive value indicates that labor market conditions are above their long-run average, while a negative value signifies that labor market conditions are below their long-run average.</t>
+  </si>
+  <si>
+    <t>Participants from across the state in a variety of industries respond to a questionnaire and report the change in a variety of indicators from the previous month. Respondents also state the likely direction of these same indicators six months ahead. April 2002 is the first report, although survey data date back to July 2001._x000D_
+_x000D_
+The survey is sent on the first day of each month to the same pool of about 200 manufacturing executives in New York State, typically the president or CEO. About 100 responses are received. Most are completed by the tenth, although surveys are accepted until the fifteenth.</t>
+  </si>
+  <si>
+    <t>The Texas Manufacturing Outlook Survey (TMOS) is a monthly survey of area manufacturers. Firm executives report on how business conditions have changed for a number of indicators, such as production, new orders, employment, prices and company outlook. Respondents are also asked to report on how they perceive broader economic conditions to have changed (general business activity). For all questions, participants are asked whether the indicator has increased, decreased or remained unchanged. Answers cover changes over the previous month and expectations for activity six months into the future. Participants are given the opportunity to submit comments on current issues that may be affecting their business.</t>
+  </si>
+  <si>
+    <t>The Manufacturing Business Outlook Survey is a monthly survey of manufacturers in the Third Federal Reserve District. Participants indicate the direction of change in overall business activity and in the various measures of activity at their plants: employment, working hours, new and unfilled orders, shipments, inventories, delivery times, prices paid, and prices received. The survey has been conducted each month since May 1968.</t>
+  </si>
+  <si>
+    <t>https://www.bea.gov/data/income-saving/personal-income</t>
+  </si>
+  <si>
+    <t>https://us.spindices.com/index-family/sp-corelogic-case-shiller/sp-corelogic-case-shiller-composite</t>
+  </si>
+  <si>
+    <t>http://www.census.gov/construction/nrc/</t>
+  </si>
+  <si>
+    <t>http://www.census.gov/construction/nrs/</t>
+  </si>
+  <si>
+    <t>http://www.census.gov/indicator/www/m3/</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/releases/g17/</t>
+  </si>
+  <si>
+    <t>http://www.census.gov/construction/c30/c30index.html</t>
+  </si>
+  <si>
+    <t>https://www.bea.gov/data/gdp/gross-domestic-product#collapse86</t>
+  </si>
+  <si>
+    <t>http://www.bls.gov/ces/</t>
+  </si>
+  <si>
+    <t>http://www.bls.gov/jlt/</t>
+  </si>
+  <si>
+    <t>https://www.newyorkfed.org/research/policy/weekly-economic-index</t>
+  </si>
+  <si>
+    <t>http://www.eia.doe.gov/dnav/pet/pet_pri_spt_s1_d.htm</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/releases/h8/</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/releases/g5/</t>
+  </si>
+  <si>
+    <t>https://www.kansascityfed.org/data-and-trends/labor-market-conditions-indicators/</t>
+  </si>
+  <si>
+    <t>http://www.oecd-ilibrary.org/economics/data/main-economic-indicators/main-economic-indicators-complete-database_data-00052-en</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/releases/chargeoff/default.htm</t>
+  </si>
+  <si>
+    <t>http://www.newyorkfed.org/survey/empire/empiresurvey_overview.html</t>
+  </si>
+  <si>
+    <t>https://www.dallasfed.org/research/surveys/tmos.aspx</t>
+  </si>
+  <si>
+    <t>https://www.philadelphiafed.org/research-and-data/regional-economy/business-outlook-survey/</t>
+  </si>
+  <si>
+    <t>http://www.chicagofed.org/webpages/publications/cfnai/index.cfm</t>
+  </si>
+  <si>
+    <t>https://apps.newyorkfed.org/markets/autorates/fed%20funds</t>
+  </si>
+  <si>
+    <t>https://apps.newyorkfed.org/markets/autorates/sofr</t>
+  </si>
+  <si>
+    <t>http://www.federalreserve.gov/releases/h15/</t>
+  </si>
+  <si>
+    <t>http://www.freddiemac.com/pmms/</t>
+  </si>
+  <si>
+    <t>http://www.bls.gov/cpi/</t>
+  </si>
+  <si>
+    <t>Personal Income and Outlays</t>
+  </si>
+  <si>
+    <t>S&amp;P/Case-Shiller Home Price Indices</t>
+  </si>
+  <si>
+    <t>New Residential Construction</t>
+  </si>
+  <si>
+    <t>New Residential Sales</t>
+  </si>
+  <si>
+    <t>Manufacturer's Shipments, Inventories, and Orders (M3) Survey</t>
+  </si>
+  <si>
+    <t>G.17 Industrial Production and Capacity Utilization</t>
+  </si>
+  <si>
+    <t>Construction Spending</t>
+  </si>
+  <si>
+    <t>Supplemental Estimates, Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Employment Situation</t>
+  </si>
+  <si>
+    <t>Job Openings and Labor Turnover Survey</t>
+  </si>
+  <si>
+    <t>Weekly Economic Index (Lewis-Mertens-Stock)</t>
+  </si>
+  <si>
+    <t>Spot Prices</t>
+  </si>
+  <si>
+    <t>H.8 Assets and Liabilities of Commercial Banks in the United States</t>
+  </si>
+  <si>
+    <t>G.5 Foreign Exchange Rates</t>
+  </si>
+  <si>
+    <t>Kansas City Fed Labor Market Conditions Indicators</t>
+  </si>
+  <si>
+    <t>Main Economic Indicators</t>
+  </si>
+  <si>
+    <t>Charge-Off and Delinquency Rates on Loans and Leases at Commercial Banks</t>
+  </si>
+  <si>
+    <t>Empire State Manufacturing Survey</t>
+  </si>
+  <si>
+    <t>Texas Manufacturing Outlook Survey</t>
+  </si>
+  <si>
+    <t>Manufacturing Business Outlook Survey</t>
+  </si>
+  <si>
+    <t>Moody's Daily Corporate Bond Yield Averages</t>
+  </si>
+  <si>
+    <t>Federal Funds Data</t>
+  </si>
+  <si>
+    <t>Secured Overnight Financing Rate Data</t>
+  </si>
+  <si>
+    <t>H.15 Selected Interest Rates</t>
+  </si>
+  <si>
+    <t>Primary Mortgage Market Survey</t>
+  </si>
+  <si>
+    <t>Consumer Price Index</t>
+  </si>
+  <si>
+    <t>SP.CS</t>
+  </si>
+  <si>
+    <t>FRB.G17</t>
+  </si>
+  <si>
+    <t>FRB.H8</t>
+  </si>
+  <si>
+    <t>FRB.G5</t>
+  </si>
+  <si>
+    <t>FRB.H15</t>
+  </si>
+  <si>
+    <t>CEN.CON</t>
+  </si>
+  <si>
+    <t>CEN.RESCON</t>
+  </si>
+  <si>
+    <t>CEN.RESSALES</t>
+  </si>
+  <si>
+    <t>BEA.MOT</t>
+  </si>
+  <si>
+    <t>BLS.EMP</t>
+  </si>
+  <si>
+    <t>BLS.JOLTS</t>
+  </si>
+  <si>
+    <t>NYF.WEI</t>
+  </si>
+  <si>
+    <t>STL.FSI</t>
+  </si>
+  <si>
+    <t>NYF.FFR</t>
+  </si>
+  <si>
+    <t>NYF.SOFR</t>
+  </si>
+  <si>
+    <t>BLS.CPI</t>
+  </si>
+  <si>
+    <t>MOO.BOND</t>
+  </si>
+  <si>
+    <t>CHI.NAI</t>
+  </si>
+  <si>
+    <t>DAL.MOS</t>
+  </si>
+  <si>
+    <t>PHI.BOS</t>
+  </si>
+  <si>
+    <t>NYF.MS</t>
+  </si>
+  <si>
+    <t>OECD.MEI</t>
+  </si>
+  <si>
+    <t>CEN.MFG</t>
+  </si>
+  <si>
+    <t>EIA.SPOT</t>
+  </si>
+  <si>
+    <t>Advance Monthly Sales for Retail and Food Services</t>
+  </si>
+  <si>
+    <t>https://www.census.gov/retail/index.html</t>
+  </si>
+  <si>
+    <t>CEN.ADV</t>
+  </si>
+  <si>
+    <t>KAN.LABOR</t>
+  </si>
+  <si>
+    <t>BEA.PI</t>
+  </si>
+  <si>
+    <t>FRB.BANK</t>
+  </si>
+  <si>
+    <t>FMCC.MORT</t>
+  </si>
+  <si>
+    <t>YHOO</t>
+  </si>
+  <si>
+    <t>Yahoo! Finance</t>
+  </si>
+  <si>
+    <t>https://finance.yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +2114,143 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2270,104 +2725,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2633,25 +2990,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2672,23 +3010,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2701,7 +3039,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="46"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2709,47 +3047,63 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Y106" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:Y106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="8"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="7"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="6"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Z106" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:Z106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="40"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{6D94E881-331E-4563-9FE0-31F2083C7EF8}" name="release" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="29"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="28"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="27"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3656640B-57B4-46FA-A054-34E7C7B65205}" name="Table5" displayName="Table5" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{3656640B-57B4-46FA-A054-34E7C7B65205}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{46A35CC1-A9F4-403D-9247-E1AD66258145}" name="relkey"/>
+    <tableColumn id="2" xr3:uid="{0413E15D-A0F9-4D1D-9028-55FA3FF078D8}" name="relname"/>
+    <tableColumn id="3" xr3:uid="{3D4B3864-252D-4135-804E-4BD478AC8765}" name="relurl"/>
+    <tableColumn id="4" xr3:uid="{D6B7A4D3-2922-4ABD-9CBC-A30BD96D4190}" name="relsc"/>
+    <tableColumn id="5" xr3:uid="{12653FD9-E440-45D1-8D58-4665097ABF86}" name="relsckey"/>
+    <tableColumn id="6" xr3:uid="{F1610438-F5D0-4EF6-9EE0-BE059DE48281}" name="relnotes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{951579DA-7343-485E-B432-42C5B6118763}" name="Table35" displayName="Table35" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{2F088C24-4491-461B-82D4-14A0E5E463FA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7347,17 +7701,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N97">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>$M2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M97">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$H2 = "q"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7633,10 +7987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7646,21 +8000,22 @@
     <col min="3" max="5" width="15.140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="10" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="10" customWidth="1"/>
-    <col min="18" max="21" width="4.7109375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="10" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="10"/>
-    <col min="25" max="25" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="9"/>
+    <col min="8" max="8" width="16.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="10" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="10" customWidth="1"/>
+    <col min="19" max="22" width="4.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="10" customWidth="1"/>
+    <col min="24" max="25" width="9.140625" style="10"/>
+    <col min="26" max="26" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -7683,61 +8038,64 @@
         <v>164</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7760,25 +8118,25 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="10">
-        <v>1</v>
+      <c r="O2" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="P2" s="10">
         <v>1</v>
@@ -7795,15 +8153,18 @@
       <c r="T2" s="10">
         <v>1</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
+      <c r="U2" s="10">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>85</v>
       </c>
@@ -7826,38 +8187,41 @@
         <v>106</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="10">
+      <c r="O3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="10">
         <v>1</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -7880,32 +8244,35 @@
         <v>107</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="O4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>129</v>
       </c>
@@ -7928,32 +8295,35 @@
         <v>108</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="O5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Z5" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -7976,32 +8346,35 @@
         <v>172</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="O6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>248</v>
       </c>
@@ -8024,32 +8397,35 @@
         <v>173</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="O7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Z7" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
@@ -8072,32 +8448,35 @@
         <v>174</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
+      <c r="O8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>246</v>
       </c>
@@ -8120,32 +8499,35 @@
         <v>175</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="O9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Z9" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>128</v>
       </c>
@@ -8168,32 +8550,35 @@
         <v>109</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
+      <c r="O10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -8216,32 +8601,35 @@
         <v>110</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
+      <c r="O11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Z11" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>177</v>
       </c>
@@ -8264,32 +8652,35 @@
         <v>180</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11" t="s">
+      <c r="O12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>178</v>
       </c>
@@ -8312,32 +8703,35 @@
         <v>181</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11" t="s">
+      <c r="O13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>179</v>
       </c>
@@ -8360,32 +8754,35 @@
         <v>182</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11" t="s">
+      <c r="O14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
@@ -8408,32 +8805,35 @@
         <v>111</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11" t="s">
+      <c r="O15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -8456,32 +8856,35 @@
         <v>112</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11" t="s">
+      <c r="O16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>135</v>
       </c>
@@ -8504,32 +8907,35 @@
         <v>113</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11" t="s">
+      <c r="O17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Z17" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>199</v>
       </c>
@@ -8552,32 +8958,35 @@
         <v>114</v>
       </c>
       <c r="H18" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11" t="s">
+      <c r="O18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>137</v>
       </c>
@@ -8600,32 +9009,35 @@
         <v>115</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11" t="s">
+      <c r="O19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>132</v>
       </c>
@@ -8648,32 +9060,35 @@
         <v>116</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11" t="s">
+      <c r="O20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>134</v>
       </c>
@@ -8696,32 +9111,35 @@
         <v>117</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11" t="s">
+      <c r="O21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>133</v>
       </c>
@@ -8744,32 +9162,35 @@
         <v>118</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11" t="s">
+      <c r="O22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>138</v>
       </c>
@@ -8792,32 +9213,35 @@
         <v>119</v>
       </c>
       <c r="H23" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11" t="s">
+      <c r="O23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -8840,32 +9264,35 @@
         <v>102</v>
       </c>
       <c r="H24" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="N24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11" t="s">
+      <c r="O24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>198</v>
       </c>
@@ -8888,32 +9315,35 @@
         <v>120</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11" t="s">
+      <c r="O25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Z25" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>200</v>
       </c>
@@ -8936,32 +9366,35 @@
         <v>206</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="L26" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="M26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="N26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11" t="s">
+      <c r="O26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Z26" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>201</v>
       </c>
@@ -8984,32 +9417,35 @@
         <v>207</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11" t="s">
+      <c r="O27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Z27" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>202</v>
       </c>
@@ -9032,32 +9468,35 @@
         <v>208</v>
       </c>
       <c r="H28" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="J28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="N28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11" t="s">
+      <c r="O28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Z28" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>140</v>
       </c>
@@ -9080,32 +9519,35 @@
         <v>121</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="N29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11" t="s">
+      <c r="O29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="Z29" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>136</v>
       </c>
@@ -9128,32 +9570,35 @@
         <v>122</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11" t="s">
+      <c r="O30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y30" s="11" t="s">
+      <c r="Z30" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>144</v>
       </c>
@@ -9176,32 +9621,35 @@
         <v>123</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11" t="s">
+      <c r="O31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="Z31" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>146</v>
       </c>
@@ -9224,32 +9672,35 @@
         <v>170</v>
       </c>
       <c r="H32" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="L32" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="M32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="N32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11" t="s">
+      <c r="O32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y32" s="11" t="s">
+      <c r="Z32" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>209</v>
       </c>
@@ -9272,32 +9723,35 @@
         <v>213</v>
       </c>
       <c r="H33" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="J33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="L33" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="N33" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11" t="s">
+      <c r="O33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y33" s="11" t="s">
+      <c r="Z33" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>210</v>
       </c>
@@ -9320,32 +9774,35 @@
         <v>214</v>
       </c>
       <c r="H34" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="N34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11" t="s">
+      <c r="O34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Z34" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>147</v>
       </c>
@@ -9368,32 +9825,35 @@
         <v>169</v>
       </c>
       <c r="H35" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="J35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="L35" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11" t="s">
+      <c r="O35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Z35" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>211</v>
       </c>
@@ -9416,32 +9876,35 @@
         <v>215</v>
       </c>
       <c r="H36" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="L36" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="M36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11" t="s">
+      <c r="O36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y36" s="11" t="s">
+      <c r="Z36" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>212</v>
       </c>
@@ -9464,32 +9927,35 @@
         <v>216</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="J37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="L37" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="N37" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11" t="s">
+      <c r="O37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y37" s="11" t="s">
+      <c r="Z37" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>148</v>
       </c>
@@ -9512,32 +9978,35 @@
         <v>124</v>
       </c>
       <c r="H38" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="L38" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="N38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11" t="s">
+      <c r="O38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y38" s="11" t="s">
+      <c r="Z38" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>149</v>
       </c>
@@ -9560,32 +10029,35 @@
         <v>125</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="J39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="L39" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="M39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="N39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11" t="s">
+      <c r="O39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="Z39" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>150</v>
       </c>
@@ -9608,32 +10080,35 @@
         <v>126</v>
       </c>
       <c r="H40" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="M40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="N40" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11" t="s">
+      <c r="O40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y40" s="11" t="s">
+      <c r="Z40" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>183</v>
       </c>
@@ -9653,34 +10128,37 @@
         <v>100</v>
       </c>
       <c r="H41" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="J41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="L41" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="N41" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="11">
+      <c r="O41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="11">
         <v>1</v>
       </c>
-      <c r="X41" s="11" t="s">
+      <c r="Y41" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>184</v>
       </c>
@@ -9700,34 +10178,37 @@
         <v>195</v>
       </c>
       <c r="H42" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="J42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="N42" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W42" s="11">
-        <v>0</v>
-      </c>
-      <c r="X42" s="11" t="s">
+      <c r="O42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
@@ -9747,34 +10228,37 @@
         <v>192</v>
       </c>
       <c r="H43" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="J43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="L43" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="M43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="N43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N43" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43" s="11">
-        <v>0</v>
-      </c>
-      <c r="X43" s="11" t="s">
+      <c r="O43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>186</v>
       </c>
@@ -9794,34 +10278,37 @@
         <v>193</v>
       </c>
       <c r="H44" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="L44" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="M44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="N44" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W44" s="11">
-        <v>0</v>
-      </c>
-      <c r="X44" s="11" t="s">
+      <c r="O44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>187</v>
       </c>
@@ -9841,34 +10328,37 @@
         <v>194</v>
       </c>
       <c r="H45" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="J45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="L45" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="M45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="N45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="11">
-        <v>0</v>
-      </c>
-      <c r="X45" s="11" t="s">
+      <c r="O45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>219</v>
       </c>
@@ -9891,34 +10381,37 @@
         <v>220</v>
       </c>
       <c r="H46" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="L46" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="M46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="N46" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W46" s="11">
-        <v>0</v>
-      </c>
-      <c r="X46" s="11" t="s">
+      <c r="O46" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y46" s="11" t="s">
+      <c r="Z46" s="11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>224</v>
       </c>
@@ -9941,34 +10434,37 @@
         <v>230</v>
       </c>
       <c r="H47" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I47" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="J47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="L47" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="M47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="N47" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W47" s="11">
-        <v>0</v>
-      </c>
-      <c r="X47" s="11" t="s">
+      <c r="O47" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y47" s="11" t="s">
+      <c r="Z47" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>226</v>
       </c>
@@ -9991,34 +10487,37 @@
         <v>229</v>
       </c>
       <c r="H48" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="J48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="L48" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W48" s="11">
-        <v>0</v>
-      </c>
-      <c r="X48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="Y48" s="11" t="s">
+      <c r="Z48" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>31</v>
       </c>
@@ -10038,37 +10537,40 @@
         <v>32</v>
       </c>
       <c r="H49" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="L49" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="M49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W49" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W49" s="11">
+      <c r="X49" s="11">
         <v>1</v>
       </c>
-      <c r="X49" s="11" t="s">
+      <c r="Y49" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y49" s="11" t="s">
+      <c r="Z49" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>298</v>
       </c>
@@ -10088,34 +10590,37 @@
         <v>300</v>
       </c>
       <c r="H50" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="J50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="L50" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="M50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N50" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W50" s="11">
+        <v>16</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X50" s="11">
         <v>1</v>
       </c>
-      <c r="X50" s="11" t="s">
+      <c r="Y50" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y50" s="11" t="s">
+      <c r="Z50" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>312</v>
       </c>
@@ -10135,34 +10640,37 @@
         <v>315</v>
       </c>
       <c r="H51" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="L51" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="M51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N51" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W51" s="11">
+        <v>16</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X51" s="11">
         <v>1</v>
       </c>
-      <c r="X51" s="11" t="s">
+      <c r="Y51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y51" s="11" t="s">
+      <c r="Z51" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>323</v>
       </c>
@@ -10182,34 +10690,37 @@
         <v>325</v>
       </c>
       <c r="H52" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="J52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="L52" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W52" s="11">
+        <v>16</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X52" s="11">
         <v>1</v>
       </c>
-      <c r="X52" s="11" t="s">
+      <c r="Y52" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y52" s="11" t="s">
+      <c r="Z52" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>317</v>
       </c>
@@ -10229,34 +10740,37 @@
         <v>318</v>
       </c>
       <c r="H53" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I53" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="J53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="L53" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="M53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N53" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W53" s="11">
+        <v>16</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X53" s="11">
         <v>1</v>
       </c>
-      <c r="X53" s="11" t="s">
+      <c r="Y53" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>319</v>
       </c>
@@ -10276,34 +10790,37 @@
         <v>321</v>
       </c>
       <c r="H54" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="L54" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="M54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M54" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W54" s="11">
+        <v>16</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X54" s="11">
         <v>1</v>
       </c>
-      <c r="X54" s="11" t="s">
+      <c r="Y54" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>307</v>
       </c>
@@ -10323,34 +10840,37 @@
         <v>310</v>
       </c>
       <c r="H55" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="L55" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M55" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N55" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W55" s="11">
+        <v>16</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X55" s="11">
         <v>1</v>
       </c>
-      <c r="X55" s="11" t="s">
+      <c r="Y55" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>34</v>
       </c>
@@ -10370,34 +10890,37 @@
         <v>33</v>
       </c>
       <c r="H56" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="L56" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L56" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M56" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W56" s="11">
+        <v>16</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X56" s="11">
         <v>1</v>
       </c>
-      <c r="X56" s="11" t="s">
+      <c r="Y56" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y56" s="11" t="s">
+      <c r="Z56" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>302</v>
       </c>
@@ -10417,34 +10940,37 @@
         <v>305</v>
       </c>
       <c r="H57" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="J57" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="L57" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="M57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M57" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W57" s="11">
-        <v>0</v>
-      </c>
-      <c r="X57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>327</v>
       </c>
@@ -10464,34 +10990,37 @@
         <v>329</v>
       </c>
       <c r="H58" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="L58" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="M58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W58" s="11">
-        <v>0</v>
-      </c>
-      <c r="X58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y58" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>37</v>
       </c>
@@ -10511,34 +11040,37 @@
         <v>38</v>
       </c>
       <c r="H59" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="I59" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="J59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="L59" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L59" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W59" s="11">
+        <v>16</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X59" s="11">
         <v>1</v>
       </c>
-      <c r="X59" s="11" t="s">
+      <c r="Y59" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>330</v>
       </c>
@@ -10558,34 +11090,37 @@
         <v>332</v>
       </c>
       <c r="H60" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I60" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="J60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="L60" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L60" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W60" s="11">
+        <v>16</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X60" s="11">
         <v>1</v>
       </c>
-      <c r="X60" s="11" t="s">
+      <c r="Y60" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y60" s="11" t="s">
+      <c r="Z60" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>41</v>
       </c>
@@ -10605,34 +11140,37 @@
         <v>42</v>
       </c>
       <c r="H61" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I61" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="J61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="L61" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="M61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="N61" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W61" s="11">
+      <c r="O61" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X61" s="11">
         <v>1</v>
       </c>
-      <c r="X61" s="11" t="s">
+      <c r="Y61" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>43</v>
       </c>
@@ -10652,34 +11190,37 @@
         <v>44</v>
       </c>
       <c r="H62" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="L62" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="M62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="N62" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W62" s="11">
+      <c r="O62" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X62" s="11">
         <v>1</v>
       </c>
-      <c r="X62" s="11" t="s">
+      <c r="Y62" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y62" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
@@ -10699,34 +11240,37 @@
         <v>48</v>
       </c>
       <c r="H63" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="L63" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W63" s="11">
+        <v>16</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X63" s="11">
         <v>1</v>
       </c>
-      <c r="X63" s="11" t="s">
+      <c r="Y63" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>49</v>
       </c>
@@ -10746,34 +11290,37 @@
         <v>50</v>
       </c>
       <c r="H64" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="J64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="L64" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L64" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M64" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W64" s="11">
+        <v>16</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X64" s="11">
         <v>1</v>
       </c>
-      <c r="X64" s="11" t="s">
+      <c r="Y64" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -10793,34 +11340,37 @@
         <v>52</v>
       </c>
       <c r="H65" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="I65" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="L65" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L65" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M65" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W65" s="11">
+        <v>16</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X65" s="11">
         <v>1</v>
       </c>
-      <c r="X65" s="11" t="s">
+      <c r="Y65" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
@@ -10840,34 +11390,37 @@
         <v>91</v>
       </c>
       <c r="H66" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="I66" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="L66" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="M66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="N66" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N66" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W66" s="11">
+      <c r="O66" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X66" s="11">
         <v>1</v>
       </c>
-      <c r="X66" s="11" t="s">
+      <c r="Y66" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>54</v>
       </c>
@@ -10887,34 +11440,37 @@
         <v>55</v>
       </c>
       <c r="H67" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="I67" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="J67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="L67" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M67" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W67" s="11">
+        <v>16</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X67" s="11">
         <v>1</v>
       </c>
-      <c r="X67" s="11" t="s">
+      <c r="Y67" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -10934,34 +11490,37 @@
         <v>82</v>
       </c>
       <c r="H68" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="I68" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="J68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="L68" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W68" s="11">
+        <v>16</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X68" s="11">
         <v>1</v>
       </c>
-      <c r="X68" s="11" t="s">
+      <c r="Y68" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>231</v>
       </c>
@@ -10981,34 +11540,37 @@
         <v>84</v>
       </c>
       <c r="H69" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="I69" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="J69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="L69" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="M69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="N69" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N69" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W69" s="11">
+      <c r="O69" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X69" s="11">
         <v>1</v>
       </c>
-      <c r="X69" s="11" t="s">
+      <c r="Y69" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>96</v>
       </c>
@@ -11028,34 +11590,37 @@
         <v>97</v>
       </c>
       <c r="H70" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I70" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="J70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="L70" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L70" s="10" t="s">
+      <c r="M70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="N70" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N70" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W70" s="11">
+      <c r="O70" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X70" s="11">
         <v>1</v>
       </c>
-      <c r="X70" s="11" t="s">
+      <c r="Y70" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>232</v>
       </c>
@@ -11075,32 +11640,35 @@
         <v>239</v>
       </c>
       <c r="H71" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="J71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="L71" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L71" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M71" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y71" s="11" t="s">
+      <c r="Z71" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>234</v>
       </c>
@@ -11120,32 +11688,35 @@
         <v>240</v>
       </c>
       <c r="H72" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="J72" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="L72" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L72" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y72" s="11" t="s">
+      <c r="Z72" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>236</v>
       </c>
@@ -11165,32 +11736,35 @@
         <v>241</v>
       </c>
       <c r="H73" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="J73" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="L73" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M73" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="Y73" s="11" t="s">
+      <c r="Z73" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>292</v>
       </c>
@@ -11210,34 +11784,37 @@
         <v>244</v>
       </c>
       <c r="H74" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="J74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="L74" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M74" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W74" s="11">
+        <v>16</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X74" s="11">
         <v>1</v>
       </c>
-      <c r="X74" s="11" t="s">
+      <c r="Y74" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>293</v>
       </c>
@@ -11257,34 +11834,37 @@
         <v>245</v>
       </c>
       <c r="H75" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="J75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="L75" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M75" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W75" s="11">
+        <v>16</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X75" s="11">
         <v>1</v>
       </c>
-      <c r="X75" s="11" t="s">
+      <c r="Y75" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>294</v>
       </c>
@@ -11304,34 +11884,37 @@
         <v>296</v>
       </c>
       <c r="H76" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="J76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="L76" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W76" s="11">
+        <v>16</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X76" s="11">
         <v>1</v>
       </c>
-      <c r="X76" s="11" t="s">
+      <c r="Y76" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>251</v>
       </c>
@@ -11351,34 +11934,37 @@
         <v>254</v>
       </c>
       <c r="H77" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="L77" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L77" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M77" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W77" s="11">
+        <v>16</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X77" s="11">
         <v>1</v>
       </c>
-      <c r="X77" s="11" t="s">
+      <c r="Y77" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>334</v>
       </c>
@@ -11398,34 +11984,37 @@
         <v>336</v>
       </c>
       <c r="H78" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="J78" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="L78" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L78" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M78" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W78" s="11">
+        <v>16</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X78" s="11">
         <v>1</v>
       </c>
-      <c r="X78" s="11" t="s">
+      <c r="Y78" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>337</v>
       </c>
@@ -11445,34 +12034,37 @@
         <v>339</v>
       </c>
       <c r="H79" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="I79" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="J79" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="L79" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L79" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M79" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W79" s="11">
+        <v>16</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X79" s="11">
         <v>1</v>
       </c>
-      <c r="X79" s="11" t="s">
+      <c r="Y79" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>2</v>
       </c>
@@ -11492,46 +12084,49 @@
         <v>28</v>
       </c>
       <c r="H80" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="J80" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J80" s="10">
+      <c r="K80" s="10">
         <v>1</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="L80" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M80" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="T80" s="10">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>283</v>
       </c>
       <c r="U80" s="10">
         <v>1</v>
       </c>
-      <c r="V80" s="10" t="s">
+      <c r="V80" s="10">
+        <v>1</v>
+      </c>
+      <c r="W80" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W80" s="11">
+      <c r="X80" s="11">
         <v>1</v>
       </c>
-      <c r="X80" s="11" t="s">
+      <c r="Y80" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y80" s="11" t="s">
+      <c r="Z80" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -11551,43 +12146,46 @@
         <v>29</v>
       </c>
       <c r="H81" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="I81" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="J81" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J81" s="10">
+      <c r="K81" s="10">
         <v>1</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="L81" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M81" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="U81" s="10">
+        <v>16</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V81" s="10">
         <v>1</v>
       </c>
-      <c r="V81" s="10" t="s">
+      <c r="W81" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W81" s="11">
-        <v>0</v>
-      </c>
-      <c r="X81" s="11" t="s">
+      <c r="X81" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y81" s="11" t="s">
+      <c r="Z81" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>4</v>
       </c>
@@ -11607,46 +12205,49 @@
         <v>19</v>
       </c>
       <c r="H82" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="J82" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J82" s="10">
+      <c r="K82" s="10">
         <v>1</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="L82" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M82" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R82" s="10">
+        <v>16</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="S82" s="10">
         <v>1</v>
       </c>
-      <c r="U82" s="10">
+      <c r="V82" s="10">
         <v>1</v>
       </c>
-      <c r="V82" s="10" t="s">
+      <c r="W82" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W82" s="11">
+      <c r="X82" s="11">
         <v>1</v>
       </c>
-      <c r="X82" s="11" t="s">
+      <c r="Y82" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y82" s="11" t="s">
+      <c r="Z82" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>5</v>
       </c>
@@ -11666,40 +12267,43 @@
         <v>21</v>
       </c>
       <c r="H83" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I83" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="J83" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J83" s="10">
+      <c r="K83" s="10">
         <v>1</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="L83" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W83" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W83" s="11">
-        <v>0</v>
-      </c>
-      <c r="X83" s="11" t="s">
+      <c r="X83" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y83" s="11" t="s">
+      <c r="Z83" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>6</v>
       </c>
@@ -11719,40 +12323,43 @@
         <v>22</v>
       </c>
       <c r="H84" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I84" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="J84" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J84" s="10">
+      <c r="K84" s="10">
         <v>1</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="L84" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M84" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W84" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W84" s="11">
-        <v>0</v>
-      </c>
-      <c r="X84" s="11" t="s">
+      <c r="X84" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y84" s="11" t="s">
+      <c r="Z84" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>7</v>
       </c>
@@ -11772,40 +12379,43 @@
         <v>23</v>
       </c>
       <c r="H85" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I85" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="J85" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J85" s="10">
+      <c r="K85" s="10">
         <v>1</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="L85" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M85" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W85" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W85" s="11">
-        <v>0</v>
-      </c>
-      <c r="X85" s="11" t="s">
+      <c r="X85" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y85" s="11" t="s">
+      <c r="Z85" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>8</v>
       </c>
@@ -11825,43 +12435,46 @@
         <v>402</v>
       </c>
       <c r="H86" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I86" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="J86" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J86" s="10">
+      <c r="K86" s="10">
         <v>1</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="L86" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L86" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M86" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="U86" s="10">
+        <v>16</v>
+      </c>
+      <c r="O86" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V86" s="10">
         <v>1</v>
       </c>
-      <c r="V86" s="10" t="s">
+      <c r="W86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W86" s="11">
+      <c r="X86" s="11">
         <v>1</v>
       </c>
-      <c r="X86" s="11" t="s">
+      <c r="Y86" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y86" s="11" t="s">
+      <c r="Z86" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>9</v>
       </c>
@@ -11881,40 +12494,43 @@
         <v>24</v>
       </c>
       <c r="H87" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I87" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J87" s="10">
+      <c r="K87" s="10">
         <v>1</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="L87" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L87" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M87" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W87" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W87" s="11">
-        <v>0</v>
-      </c>
-      <c r="X87" s="11" t="s">
+      <c r="X87" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y87" s="11" t="s">
+      <c r="Z87" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>10</v>
       </c>
@@ -11934,43 +12550,46 @@
         <v>25</v>
       </c>
       <c r="H88" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J88" s="10">
+      <c r="K88" s="10">
         <v>1</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="L88" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L88" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M88" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R88" s="10">
+        <v>16</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="S88" s="10">
         <v>1</v>
       </c>
-      <c r="V88" s="10" t="s">
+      <c r="W88" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W88" s="11">
-        <v>0</v>
-      </c>
-      <c r="X88" s="11" t="s">
+      <c r="X88" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y88" s="11" t="s">
+      <c r="Z88" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
@@ -11990,40 +12609,43 @@
         <v>26</v>
       </c>
       <c r="H89" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I89" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="J89" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J89" s="10">
+      <c r="K89" s="10">
         <v>1</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="L89" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L89" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W89" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W89" s="11">
-        <v>0</v>
-      </c>
-      <c r="X89" s="11" t="s">
+      <c r="X89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y89" s="11" t="s">
+      <c r="Z89" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>12</v>
       </c>
@@ -12043,40 +12665,43 @@
         <v>20</v>
       </c>
       <c r="H90" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I90" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="J90" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J90" s="10">
+      <c r="K90" s="10">
         <v>1</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="L90" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L90" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M90" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W90" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W90" s="11">
-        <v>0</v>
-      </c>
-      <c r="X90" s="11" t="s">
+      <c r="X90" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y90" s="11" t="s">
+      <c r="Z90" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>13</v>
       </c>
@@ -12096,40 +12721,43 @@
         <v>27</v>
       </c>
       <c r="H91" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="I91" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="J91" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J91" s="10">
+      <c r="K91" s="10">
         <v>1</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="L91" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W91" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W91" s="11">
-        <v>0</v>
-      </c>
-      <c r="X91" s="11" t="s">
+      <c r="X91" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y91" s="11" t="s">
+      <c r="Z91" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>342</v>
       </c>
@@ -12149,37 +12777,40 @@
         <v>349</v>
       </c>
       <c r="H92" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="J92" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J92" s="10">
+      <c r="K92" s="10">
         <v>1</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="L92" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L92" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M92" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W92" s="11">
-        <v>0</v>
-      </c>
-      <c r="X92" s="11" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="O92" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X92" s="11">
+        <v>0</v>
       </c>
       <c r="Y92" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>343</v>
       </c>
@@ -12199,37 +12830,40 @@
         <v>350</v>
       </c>
       <c r="H93" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="J93" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J93" s="10">
+      <c r="K93" s="10">
         <v>1</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="L93" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L93" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M93" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W93" s="11">
-        <v>0</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X93" s="11">
+        <v>0</v>
       </c>
       <c r="Y93" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>386</v>
       </c>
@@ -12249,37 +12883,40 @@
         <v>351</v>
       </c>
       <c r="H94" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="J94" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J94" s="10">
+      <c r="K94" s="10">
         <v>1</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="L94" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L94" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W94" s="11">
-        <v>0</v>
-      </c>
-      <c r="X94" s="11" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X94" s="11">
+        <v>0</v>
       </c>
       <c r="Y94" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z94" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>344</v>
       </c>
@@ -12299,37 +12936,40 @@
         <v>352</v>
       </c>
       <c r="H95" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="I95" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="J95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="L95" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L95" s="10" t="s">
+      <c r="M95" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M95" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N95" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="T95" s="10">
+        <v>16</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="U95" s="10">
         <v>1</v>
       </c>
-      <c r="W95" s="11">
-        <v>0</v>
-      </c>
-      <c r="X95" s="11" t="s">
-        <v>283</v>
+      <c r="X95" s="11">
+        <v>0</v>
       </c>
       <c r="Y95" s="11" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>387</v>
       </c>
@@ -12345,41 +12985,41 @@
       <c r="F96" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="I96" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="J96" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="L96" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L96" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M96" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="U96" s="10">
+        <v>16</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="V96" s="10">
         <v>1</v>
       </c>
-      <c r="V96" s="10" t="s">
+      <c r="W96" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W96" s="11">
-        <v>0</v>
-      </c>
-      <c r="X96" s="11" t="s">
-        <v>283</v>
+      <c r="X96" s="11">
+        <v>0</v>
       </c>
       <c r="Y96" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z96" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
@@ -12399,40 +13039,43 @@
         <v>290</v>
       </c>
       <c r="H97" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="I97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="J97" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J97" s="10">
+      <c r="K97" s="10">
         <v>1</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="L97" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L97" s="10" t="s">
+      <c r="M97" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="10" t="s">
+      <c r="N97" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="N97" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="V97" s="10" t="s">
+      <c r="O97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W97" s="11">
+      <c r="X97" s="11">
         <v>1</v>
       </c>
-      <c r="X97" s="11" t="s">
+      <c r="Y97" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y97" s="11" t="s">
+      <c r="Z97" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>40</v>
       </c>
@@ -12452,37 +13095,40 @@
         <v>291</v>
       </c>
       <c r="H98" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="J98" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="J98" s="10">
+      <c r="K98" s="10">
         <v>1</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="L98" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L98" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M98" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W98" s="11">
+        <v>16</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X98" s="11">
         <v>1</v>
       </c>
-      <c r="X98" s="11" t="s">
+      <c r="Y98" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Y98" s="11" t="s">
+      <c r="Z98" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>392</v>
       </c>
@@ -12498,38 +13144,38 @@
       <c r="F99" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="I99" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="L99" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L99" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M99" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V99" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O99" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W99" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W99" s="11">
-        <v>0</v>
-      </c>
-      <c r="X99" s="11" t="s">
+      <c r="X99" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y99" s="11" t="s">
+      <c r="Z99" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>393</v>
       </c>
@@ -12545,38 +13191,38 @@
       <c r="F100" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="I100" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="J100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="L100" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L100" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W100" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W100" s="11">
-        <v>0</v>
-      </c>
-      <c r="X100" s="11" t="s">
+      <c r="X100" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y100" s="11" t="s">
+      <c r="Z100" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>394</v>
       </c>
@@ -12592,38 +13238,38 @@
       <c r="F101" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="I101" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="J101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K101" s="10" t="s">
+      <c r="L101" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L101" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V101" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W101" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W101" s="11">
-        <v>0</v>
-      </c>
-      <c r="X101" s="11" t="s">
+      <c r="X101" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y101" s="11" t="s">
+      <c r="Z101" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>398</v>
       </c>
@@ -12639,35 +13285,35 @@
       <c r="F102" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="I102" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="J102" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="L102" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L102" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W102" s="11">
-        <v>0</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X102" s="11">
+        <v>0</v>
       </c>
       <c r="Y102" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z102" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>399</v>
       </c>
@@ -12683,35 +13329,35 @@
       <c r="F103" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="I103" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="J103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="L103" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="L103" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M103" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="W103" s="11">
-        <v>0</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>283</v>
+        <v>16</v>
+      </c>
+      <c r="O103" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X103" s="11">
+        <v>0</v>
       </c>
       <c r="Y103" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z103" s="11" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>217</v>
       </c>
@@ -12734,37 +13380,40 @@
         <v>221</v>
       </c>
       <c r="H104" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I104" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="J104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="L104" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L104" s="10" t="s">
+      <c r="M104" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="10" t="s">
+      <c r="N104" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N104" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V104" s="10" t="s">
+      <c r="O104" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W104" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W104" s="11">
-        <v>0</v>
-      </c>
-      <c r="X104" s="11" t="s">
+      <c r="X104" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y104" s="11" t="s">
+      <c r="Z104" s="11" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>415</v>
       </c>
@@ -12787,37 +13436,40 @@
         <v>87</v>
       </c>
       <c r="H105" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="J105" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="L105" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L105" s="10" t="s">
+      <c r="M105" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="10" t="s">
+      <c r="N105" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N105" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V105" s="10" t="s">
+      <c r="O105" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="W105" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W105" s="11">
+      <c r="X105" s="11">
         <v>1</v>
       </c>
-      <c r="X105" s="11" t="s">
+      <c r="Y105" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y105" s="11" t="s">
+      <c r="Z105" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>35</v>
       </c>
@@ -12837,85 +13489,88 @@
         <v>36</v>
       </c>
       <c r="H106" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="I106" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="J106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K106" s="10" t="s">
+      <c r="L106" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L106" s="10" t="s">
+      <c r="M106" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M106" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N106" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="R106" s="10">
+        <v>16</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="S106" s="10">
         <v>1</v>
       </c>
-      <c r="T106" s="10">
+      <c r="U106" s="10">
         <v>1</v>
       </c>
-      <c r="V106" s="10" t="s">
+      <c r="W106" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="W106" s="11">
+      <c r="X106" s="11">
         <v>1</v>
       </c>
-      <c r="X106" s="11" t="s">
+      <c r="Y106" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="Y106" s="11" t="s">
+      <c r="Z106" s="11" t="s">
         <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:J106">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+  <conditionalFormatting sqref="J1:K106">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W107:W10015">
-    <cfRule type="expression" dxfId="37" priority="9">
+  <conditionalFormatting sqref="X107:X10015">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G106">
-    <cfRule type="expression" dxfId="36" priority="8">
+  <conditionalFormatting sqref="G2:H106">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$F2="calc"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V106">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+  <conditionalFormatting sqref="W2:W106">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"qual"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J106">
-    <cfRule type="expression" dxfId="32" priority="18">
-      <formula>OR($I2="q", $I2 = "m")</formula>
+  <conditionalFormatting sqref="K2:K106">
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>OR($J2="q", $J2 = "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W107:W1048576">
+  <conditionalFormatting sqref="X107:X1048576">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -12927,19 +13582,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W106">
-    <cfRule type="expression" dxfId="31" priority="4">
-      <formula>AND($I2&lt;&gt;"d", $I2 &lt;&gt; "w", $I2 &lt;&gt; "m")</formula>
+  <conditionalFormatting sqref="X2:X106">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($J2&lt;&gt;"d", $J2 &lt;&gt; "w", $J2 &lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y106">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+  <conditionalFormatting sqref="Z2:Z106">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"core.endog"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"core.exog"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12952,6 +13607,588 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13">
+        <v>465</v>
+      </c>
+      <c r="F13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>636</v>
+      </c>
+      <c r="B14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>639</v>
+      </c>
+      <c r="B18" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>638</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>640</v>
+      </c>
+      <c r="B19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19">
+        <v>341</v>
+      </c>
+      <c r="F19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>634</v>
+      </c>
+      <c r="B20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C20" t="s">
+        <v>576</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>633</v>
+      </c>
+      <c r="B22" t="s">
+        <v>604</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22">
+        <v>321</v>
+      </c>
+      <c r="F22" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23">
+        <v>374</v>
+      </c>
+      <c r="F23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24" t="s">
+        <v>606</v>
+      </c>
+      <c r="C24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" t="s">
+        <v>581</v>
+      </c>
+      <c r="D25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>629</v>
+      </c>
+      <c r="B26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>626</v>
+      </c>
+      <c r="B27" t="s">
+        <v>608</v>
+      </c>
+      <c r="C27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>627</v>
+      </c>
+      <c r="B28" t="s">
+        <v>609</v>
+      </c>
+      <c r="C28" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29" t="s">
+        <v>610</v>
+      </c>
+      <c r="C29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>643</v>
+      </c>
+      <c r="B30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B31" t="s">
+        <v>612</v>
+      </c>
+      <c r="C31" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>644</v>
+      </c>
+      <c r="B32" t="s">
+        <v>645</v>
+      </c>
+      <c r="C32" t="s">
+        <v>646</v>
+      </c>
+      <c r="D32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE348B85-9F2B-42B6-8819-F53C71643516}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -13196,7 +14433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD1B46-FB81-4B3B-B740-36D119DF1DCB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13208,7 +14445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828C45D-CF7B-424F-B36C-220BE51A990F}">
   <dimension ref="A1:S33"/>
   <sheetViews>
@@ -15121,16 +16358,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB34BBE-A07A-4CE4-8143-52882F57E6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B15243-0AE6-4317-B68D-AB60F696B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="646">
   <si>
     <t>gdp</t>
   </si>
@@ -1675,9 +1675,6 @@
   </si>
   <si>
     <t>post.exog</t>
-  </si>
-  <si>
-    <t>release</t>
   </si>
   <si>
     <t>BEA.GDP</t>
@@ -2114,7 +2111,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill>
@@ -2233,23 +2230,102 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2560,6 +2636,25 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3010,23 +3105,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="72"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3039,7 +3134,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="60"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3047,35 +3142,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Z106" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Z106" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:Z106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="40"/>
-    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{6D94E881-331E-4563-9FE0-31F2083C7EF8}" name="release" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="29"/>
-    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="28"/>
-    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="27"/>
-    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="26"/>
-    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="25"/>
-    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7C3A592C-91B3-4EB1-890C-6A27C315E04F}" name="varname" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{9C9AE510-55AD-4974-AE7E-941FC82A80BD}" name="fullname" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{D359572A-B92E-4EFE-A4E9-D570E99C652A}" name="category" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{CDA8D0BF-1E1F-4AEA-9D76-0DFCCBB0530B}" name="dispgroup" dataDxfId="54"/>
+    <tableColumn id="31" xr3:uid="{E41264DE-34E2-43AB-B349-F2D25DE4EFA8}" name="disporder" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{62F8B61F-9557-4FD9-BB7B-F9CA010F3C63}" name="source" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{67A7B928-8F8D-4E54-9FCC-AF03890D139D}" name="sckey" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{6D94E881-331E-4563-9FE0-31F2083C7EF8}" name="relkey" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{C8C9F652-7467-441F-A98D-BE40F0F1C4FF}" name="units" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{0CA7CCC5-E59A-4121-9AFE-711B10583A49}" name="freq" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{A581382B-68E8-4159-AD2A-20A164EECC6D}" name="append_eom_with_currentval" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{177B6D70-8BA8-4397-98F9-95E9F55460C8}" name="sa" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{AB8672B6-1869-4430-98D0-EC6FCA5E930A}" name="st" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{9F74B296-6910-4B5A-AB43-F8422ADF4F24}" name="d1" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{20D61120-4001-4E6F-92C9-AA6FB68AE34D}" name="d2" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{B4904B5A-FEDE-4432-B026-BC1446CD36F3}" name="ext_atl" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{B565BB61-B306-4D71-BE67-952F656343B0}" name="ext_stl" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{7D4D7C84-E16F-487E-9F8A-D0C29C7FEB62}" name="ext_nyf" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{ECC06F80-2CDC-4746-A72E-D0A102B823DB}" name="ext_spf" dataDxfId="39"/>
+    <tableColumn id="26" xr3:uid="{7DCA74BB-02BF-4E52-8DC2-53543E161249}" name="ext_wsj" dataDxfId="38"/>
+    <tableColumn id="27" xr3:uid="{4C1E00F5-F236-4034-B8D5-82EB7DF2B708}" name="ext_cbo" dataDxfId="37"/>
+    <tableColumn id="28" xr3:uid="{563B2464-EB13-44B8-98C4-C5D35F57AB73}" name="ext_mkt" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{27D73877-E00B-4043-B0F4-C927FE5C7382}" name="initial_forecast" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{C2DD2153-C806-4066-BD87-1D7496470345}" name="nc_dfm_input" dataDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{F981AC56-9903-4E70-A490-7007AAFAE1D6}" name="nc_method" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{0141F8C3-4F4E-48DB-95BB-EE0D1C09F10F}" name="core_structural" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3103,7 +3198,7 @@
     <tableColumn id="1" xr3:uid="{DE80604F-79B1-4324-817D-137A434345B1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{DD3F53BB-B835-4706-A86C-47DF4CCEB32C}" name="freq"/>
     <tableColumn id="3" xr3:uid="{79BD2DFD-DD4C-4E37-948A-F6F662388AB7}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{747FA420-CE38-4715-8BA1-284F15A995E9}" name="market" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{E889BE1D-727B-4E74-8F79-F0DCBF6D400F}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7989,8 +8084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B50CF-603C-40CA-9342-7B13AD6F1231}">
   <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8038,7 +8133,7 @@
         <v>164</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>88</v>
@@ -8118,7 +8213,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>284</v>
@@ -8187,7 +8282,7 @@
         <v>106</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>284</v>
@@ -8244,7 +8339,7 @@
         <v>107</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>284</v>
@@ -8295,7 +8390,7 @@
         <v>108</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>284</v>
@@ -8346,7 +8441,7 @@
         <v>172</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>284</v>
@@ -8397,7 +8492,7 @@
         <v>173</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>284</v>
@@ -8448,7 +8543,7 @@
         <v>174</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>284</v>
@@ -8499,7 +8594,7 @@
         <v>175</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>284</v>
@@ -8550,7 +8645,7 @@
         <v>109</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>284</v>
@@ -8601,7 +8696,7 @@
         <v>110</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>284</v>
@@ -8652,7 +8747,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>284</v>
@@ -8703,7 +8798,7 @@
         <v>181</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>284</v>
@@ -8754,7 +8849,7 @@
         <v>182</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>284</v>
@@ -8805,7 +8900,7 @@
         <v>111</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>284</v>
@@ -8856,7 +8951,7 @@
         <v>112</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>284</v>
@@ -8907,7 +9002,7 @@
         <v>113</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>284</v>
@@ -8958,7 +9053,7 @@
         <v>114</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>284</v>
@@ -9009,7 +9104,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>284</v>
@@ -9060,7 +9155,7 @@
         <v>116</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>284</v>
@@ -9111,7 +9206,7 @@
         <v>117</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>284</v>
@@ -9162,7 +9257,7 @@
         <v>118</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>284</v>
@@ -9213,7 +9308,7 @@
         <v>119</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>284</v>
@@ -9264,7 +9359,7 @@
         <v>102</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>284</v>
@@ -9315,7 +9410,7 @@
         <v>120</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>284</v>
@@ -9366,7 +9461,7 @@
         <v>206</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>284</v>
@@ -9417,7 +9512,7 @@
         <v>207</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>284</v>
@@ -9468,7 +9563,7 @@
         <v>208</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>284</v>
@@ -9519,7 +9614,7 @@
         <v>121</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>284</v>
@@ -9570,7 +9665,7 @@
         <v>122</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>284</v>
@@ -9621,7 +9716,7 @@
         <v>123</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>284</v>
@@ -9672,7 +9767,7 @@
         <v>170</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>284</v>
@@ -9723,7 +9818,7 @@
         <v>213</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>284</v>
@@ -9774,7 +9869,7 @@
         <v>214</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>284</v>
@@ -9825,7 +9920,7 @@
         <v>169</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>284</v>
@@ -9876,7 +9971,7 @@
         <v>215</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>284</v>
@@ -9927,7 +10022,7 @@
         <v>216</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>284</v>
@@ -9978,7 +10073,7 @@
         <v>124</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>284</v>
@@ -10029,7 +10124,7 @@
         <v>125</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>284</v>
@@ -10080,7 +10175,7 @@
         <v>126</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>284</v>
@@ -10128,7 +10223,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>284</v>
@@ -10178,7 +10273,7 @@
         <v>195</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>284</v>
@@ -10228,7 +10323,7 @@
         <v>192</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>284</v>
@@ -10278,7 +10373,7 @@
         <v>193</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>284</v>
@@ -10328,7 +10423,7 @@
         <v>194</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>284</v>
@@ -10381,7 +10476,7 @@
         <v>220</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>284</v>
@@ -10434,7 +10529,7 @@
         <v>230</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>284</v>
@@ -10487,7 +10582,7 @@
         <v>229</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>284</v>
@@ -10537,7 +10632,7 @@
         <v>32</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>94</v>
@@ -10590,7 +10685,7 @@
         <v>300</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>301</v>
@@ -10640,7 +10735,7 @@
         <v>315</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>316</v>
@@ -10690,7 +10785,7 @@
         <v>325</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>316</v>
@@ -10740,7 +10835,7 @@
         <v>318</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>311</v>
@@ -10790,7 +10885,7 @@
         <v>321</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>322</v>
@@ -10840,7 +10935,7 @@
         <v>310</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>311</v>
@@ -10890,7 +10985,7 @@
         <v>33</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>196</v>
@@ -10940,7 +11035,7 @@
         <v>305</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>306</v>
@@ -10990,7 +11085,7 @@
         <v>329</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>316</v>
@@ -11040,7 +11135,7 @@
         <v>38</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>94</v>
@@ -11090,7 +11185,7 @@
         <v>332</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>333</v>
@@ -11140,7 +11235,7 @@
         <v>42</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>285</v>
@@ -11190,7 +11285,7 @@
         <v>44</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>285</v>
@@ -11240,7 +11335,7 @@
         <v>48</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>94</v>
@@ -11290,7 +11385,7 @@
         <v>50</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>94</v>
@@ -11340,7 +11435,7 @@
         <v>52</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>165</v>
@@ -11390,7 +11485,7 @@
         <v>91</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>95</v>
@@ -11440,7 +11535,7 @@
         <v>55</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>94</v>
@@ -11490,7 +11585,7 @@
         <v>82</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>166</v>
@@ -11540,7 +11635,7 @@
         <v>84</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>94</v>
@@ -11590,7 +11685,7 @@
         <v>97</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>99</v>
@@ -11640,7 +11735,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>89</v>
@@ -11688,7 +11783,7 @@
         <v>240</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>89</v>
@@ -11736,7 +11831,7 @@
         <v>241</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>89</v>
@@ -11784,7 +11879,7 @@
         <v>244</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>94</v>
@@ -11834,7 +11929,7 @@
         <v>245</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>94</v>
@@ -11884,7 +11979,7 @@
         <v>296</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>94</v>
@@ -11934,7 +12029,7 @@
         <v>254</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>94</v>
@@ -11984,7 +12079,7 @@
         <v>336</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>89</v>
@@ -12034,7 +12129,7 @@
         <v>339</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>89</v>
@@ -12084,7 +12179,7 @@
         <v>28</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>89</v>
@@ -12146,7 +12241,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>89</v>
@@ -12205,7 +12300,7 @@
         <v>19</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>89</v>
@@ -12267,7 +12362,7 @@
         <v>21</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>89</v>
@@ -12323,7 +12418,7 @@
         <v>22</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>89</v>
@@ -12379,7 +12474,7 @@
         <v>23</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>89</v>
@@ -12435,7 +12530,7 @@
         <v>402</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>89</v>
@@ -12494,7 +12589,7 @@
         <v>24</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>89</v>
@@ -12550,7 +12645,7 @@
         <v>25</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>89</v>
@@ -12609,7 +12704,7 @@
         <v>26</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>89</v>
@@ -12665,7 +12760,7 @@
         <v>20</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>89</v>
@@ -12721,7 +12816,7 @@
         <v>27</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>89</v>
@@ -12777,7 +12872,7 @@
         <v>349</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>89</v>
@@ -12830,7 +12925,7 @@
         <v>350</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>89</v>
@@ -12883,7 +12978,7 @@
         <v>351</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>89</v>
@@ -12936,7 +13031,7 @@
         <v>352</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>94</v>
@@ -12985,6 +13080,9 @@
       <c r="F96" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H96" s="10" t="s">
+        <v>627</v>
+      </c>
       <c r="I96" s="10" t="s">
         <v>89</v>
       </c>
@@ -13039,7 +13137,7 @@
         <v>290</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>94</v>
@@ -13095,7 +13193,7 @@
         <v>291</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>94</v>
@@ -13144,6 +13242,9 @@
       <c r="F99" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H99" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="I99" s="10" t="s">
         <v>89</v>
       </c>
@@ -13191,6 +13292,9 @@
       <c r="F100" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H100" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="I100" s="10" t="s">
         <v>89</v>
       </c>
@@ -13238,6 +13342,9 @@
       <c r="F101" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H101" s="10" t="s">
+        <v>616</v>
+      </c>
       <c r="I101" s="10" t="s">
         <v>89</v>
       </c>
@@ -13285,6 +13392,9 @@
       <c r="F102" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H102" s="10" t="s">
+        <v>642</v>
+      </c>
       <c r="I102" s="10" t="s">
         <v>89</v>
       </c>
@@ -13329,6 +13439,9 @@
       <c r="F103" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="H103" s="10" t="s">
+        <v>642</v>
+      </c>
       <c r="I103" s="10" t="s">
         <v>89</v>
       </c>
@@ -13380,7 +13493,7 @@
         <v>221</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>284</v>
@@ -13436,7 +13549,7 @@
         <v>87</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>284</v>
@@ -13489,7 +13602,7 @@
         <v>36</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>89</v>
@@ -13549,7 +13662,7 @@
       <formula>#REF! &lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H106">
+  <conditionalFormatting sqref="G2:G106">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>$F2="calc"</formula>
     </cfRule>
@@ -13610,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624AEEDB-BBA7-44A6-A6FF-0B28C3344004}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13625,33 +13738,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" t="s">
         <v>548</v>
       </c>
-      <c r="B1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>550</v>
       </c>
-      <c r="E1" t="s">
-        <v>551</v>
-      </c>
       <c r="F1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
         <v>552</v>
-      </c>
-      <c r="C2" t="s">
-        <v>553</v>
       </c>
       <c r="D2" t="s">
         <v>156</v>
@@ -13662,13 +13775,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
         <v>156</v>
@@ -13679,13 +13792,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4" t="s">
         <v>156</v>
@@ -13696,13 +13809,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
@@ -13713,13 +13826,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
         <v>156</v>
@@ -13730,13 +13843,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D7" t="s">
         <v>156</v>
@@ -13747,13 +13860,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D8" t="s">
         <v>156</v>
@@ -13764,13 +13877,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D9" t="s">
         <v>156</v>
@@ -13781,13 +13894,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D10" t="s">
         <v>156</v>
@@ -13798,13 +13911,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D11" t="s">
         <v>156</v>
@@ -13815,13 +13928,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
         <v>156</v>
@@ -13832,13 +13945,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D13" t="s">
         <v>156</v>
@@ -13847,18 +13960,18 @@
         <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D14" t="s">
         <v>156</v>
@@ -13869,13 +13982,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D15" t="s">
         <v>156</v>
@@ -13886,7 +13999,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -13898,18 +14011,18 @@
         <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D17" t="s">
         <v>156</v>
@@ -13920,13 +14033,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B18" t="s">
+        <v>636</v>
+      </c>
+      <c r="C18" t="s">
         <v>637</v>
-      </c>
-      <c r="C18" t="s">
-        <v>638</v>
       </c>
       <c r="D18" t="s">
         <v>156</v>
@@ -13937,13 +14050,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D19" t="s">
         <v>156</v>
@@ -13952,18 +14065,18 @@
         <v>341</v>
       </c>
       <c r="F19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
         <v>156</v>
@@ -13974,13 +14087,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D21" t="s">
         <v>156</v>
@@ -13991,13 +14104,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D22" t="s">
         <v>156</v>
@@ -14006,18 +14119,18 @@
         <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -14026,18 +14139,18 @@
         <v>374</v>
       </c>
       <c r="F23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D24" t="s">
         <v>156</v>
@@ -14046,18 +14159,18 @@
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D25" t="s">
         <v>156</v>
@@ -14068,10 +14181,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D26" t="s">
         <v>156</v>
@@ -14082,13 +14195,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D27" t="s">
         <v>156</v>
@@ -14099,13 +14212,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D28" t="s">
         <v>156</v>
@@ -14116,13 +14229,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D29" t="s">
         <v>156</v>
@@ -14133,13 +14246,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D30" t="s">
         <v>156</v>
@@ -14150,13 +14263,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D31" t="s">
         <v>156</v>
@@ -14167,13 +14280,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B32" t="s">
         <v>644</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>645</v>
-      </c>
-      <c r="C32" t="s">
-        <v>646</v>
       </c>
       <c r="D32" t="s">
         <v>250</v>

--- a/model-inputs/inputs.xlsx
+++ b/model-inputs/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\model-inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B15243-0AE6-4317-B68D-AB60F696B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F6A9A-14CA-42A8-9C71-6CCEE0A967CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="645">
   <si>
     <t>gdp</t>
   </si>
@@ -1285,9 +1285,6 @@
   </si>
   <si>
     <t>ext_mkt</t>
-  </si>
-  <si>
-    <t>dpi</t>
   </si>
   <si>
     <t>nc_dfm_input</t>
@@ -2111,222 +2108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9393"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2820,6 +2602,104 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3085,6 +2965,25 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3105,23 +3004,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0331C90B-C1E4-469A-92B6-B6D7D2A881B0}" name="Table13" displayName="Table13" ref="A1:N97" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:N97" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="72"/>
-    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{67EE8FF2-8326-4684-84E6-A964C24850DB}" name="varname" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{BE8BE91C-06D5-4A47-9123-C26507EAC1EF}" name="fullname" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{68FBD5CC-20E0-4926-A7D1-2E69FB0B202F}" name="category" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{C9DF87B4-A1B3-4AF8-A08F-43A957A887B8}" name="dispgroup" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{10A8B47F-5D16-4D4A-AADC-3A1373D3388E}" name="source" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{9D6367F7-B418-4D74-8BBC-8A868648619D}" name="sckey" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{B018E0B7-9E0D-4372-82AB-44595FD99EA4}" name="units" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{6FA3E542-D9A3-44CC-8D78-768A77B7C6D6}" name="freq" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{39B1664D-8A0F-423F-962A-A1C7C847E7B1}" name="sa" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{F5127FE9-910F-4EAC-83AB-E5C9C27639E9}" name="st" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{CB532FB1-25A0-4F3F-8676-01484C877F99}" name="d1" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{5C5C4553-B818-4BED-AC86-DABB94FCA34E}" name="d2" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{31F7F51C-B4E4-41E3-A390-C9AA6D66ACA0}" name="dfminput" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{7BA92187-1BDA-4F9D-BCE7-5391BF21BC5B}" name="nowcast" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3134,7 +3033,7 @@
     <tableColumn id="1" xr3:uid="{1200786F-7E38-40A6-A987-78A31B68B9F1}" name="fcname"/>
     <tableColumn id="2" xr3:uid="{97045895-B0B7-4CEB-B7DA-ED90C8319FE7}" name="freq"/>
     <tableColumn id="3" xr3:uid="{4F156EE7-4A87-4389-A4C7-46D3EABF7B6E}" name="fullname"/>
-    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{2078932B-4C3D-4CB4-BABD-E7E8C753E1E2}" name="cmefi" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{F4C01123-E154-4BD5-A53C-45E96EEB017A}" name="shortname"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3142,35 +3041,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Z106" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0809632-345D-4118-A064-2695E36114FC}" name="Table132" displayName="Table132" ref="A1:Z106" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:Z106" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{7C3A59